--- a/archive/movies.xlsx
+++ b/archive/movies.xlsx
@@ -63,9 +63,6 @@
     <t>As Hollywood’s Golden Age is winding down during the summer of 1969, television actor Rick Dalton and his stunt double Cliff Booth endeavor to achieve lasting success in Hollywood while meeting several colorful characters along the way.</t>
   </si>
   <si>
-    <t>2019 • Comedy/Western • 2h 40m</t>
-  </si>
-  <si>
     <t>The Batman(2022)</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>When a sadistic serial killer begins murdering key political figures in Gotham, the Batman is forced to investigate the city's hidden corruption and question his family's involvement.</t>
   </si>
   <si>
-    <t>2022 • Action/Crime • 2h 56m</t>
-  </si>
-  <si>
     <t>Black Swan</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>Nina is a talented but unstable ballerina on the verge of stardom. Pushed to the breaking point by her artistic director and a seductive rival, Nina's grip on reality slips, plunging her into a waking nightmare.</t>
   </si>
   <si>
-    <t>2010 • Horror/Drama • 1h 48m</t>
-  </si>
-  <si>
     <t>Inception</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>A thief who steals corporate secrets through the use of dream-sharing technology is given the inverse task of planting an idea into the mind of a C.E.O., but his tragic past may doom the project and his team to disaster.</t>
   </si>
   <si>
-    <t>2010 • Sci-fi/Action • 2h 28m</t>
-  </si>
-  <si>
     <t>Barbie</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>Barbie and Ken are having the time of their lives in the seemingly perfect world of Barbie Land. However, when they get a chance to go to the outside world, they soon discover the joys and perils of living among regular humans.</t>
   </si>
   <si>
-    <t>2023 • Comedy/Fantasy • 1h 54m</t>
-  </si>
-  <si>
     <t>Oppenheimerr</t>
   </si>
   <si>
@@ -147,9 +132,6 @@
     <t>A dramatization of the life story of J. Robert Oppenheimer, the physicist who had a large hand in the development of the atomic bombs that brought an end to World War II.</t>
   </si>
   <si>
-    <t>2023 • Drama/History • 3h</t>
-  </si>
-  <si>
     <t>The Long Shot</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>Journalist, Fred Flarsky, reunites with his childhood crush, Charlotte Field; now one of the most influential women in the world. As she prepares to run for president, Charlotte hires Fred as her speechwriter, and sparks fly.</t>
   </si>
   <si>
-    <t>2019 • Comedy/Romance • 2h 5m</t>
-  </si>
-  <si>
     <t>3 Below: Tales of Arcadia</t>
   </si>
   <si>
@@ -180,9 +159,6 @@
     <t>A pair of teenage royals and their bodyguard escape from their home planet and try to blend in on Earth.</t>
   </si>
   <si>
-    <t>2018 • Sci-fi • 2 seasons</t>
-  </si>
-  <si>
     <t>The Prestige</t>
   </si>
   <si>
@@ -195,9 +171,6 @@
     <t>Rival 19th-century magicians engage in a bitter battle for trade secrets.</t>
   </si>
   <si>
-    <t>2006 • Thriller/Sci-fi • 2h 10m</t>
-  </si>
-  <si>
     <t>Interstellar</t>
   </si>
   <si>
@@ -210,9 +183,6 @@
     <t>When Earth becomes uninhabitable in the future, a farmer and ex-NASA pilot, Joseph Cooper, is tasked to pilot a spacecraft, along with a team of researchers, to find a new planet for humans.</t>
   </si>
   <si>
-    <t>2014 • Sci-fi/Adventure • 2h 49m</t>
-  </si>
-  <si>
     <t>Definitely, Maybe</t>
   </si>
   <si>
@@ -225,9 +195,6 @@
     <t>Set in New York City, the film is about a former political consultant who tries to help his daughter understand his impending divorce by telling her the story of his past romantic relationships and how he ended up marrying her mother. One of the best movies ever made.</t>
   </si>
   <si>
-    <t>2008 • Comedy/Romance • 1h 51m</t>
-  </si>
-  <si>
     <t>I Love You, Man</t>
   </si>
   <si>
@@ -246,9 +213,6 @@
     <t>movie_posters/download.jpeg</t>
   </si>
   <si>
-    <t>2009 • Comedy/Romance • 1h 45m</t>
-  </si>
-  <si>
     <t>Celeste And Jesse Forever</t>
   </si>
   <si>
@@ -267,9 +231,6 @@
     <t>movie_posters/download1.jpeg</t>
   </si>
   <si>
-    <t>2012 • Romance/Comedy • 1h 32m</t>
-  </si>
-  <si>
     <t>The Social Network</t>
   </si>
   <si>
@@ -279,9 +240,6 @@
     <t>Aaron Sorkin, Ben Mezrich</t>
   </si>
   <si>
-    <t>Jesse EisenbergAndrew GarfieldJustin Timberlake</t>
-  </si>
-  <si>
     <t>As Harvard student Mark Zuckerberg creates the social networking site that would become known as Facebook, he is sued by the twins who claimed he stole their idea and by the co-founder who was later squeezed out of the business.</t>
   </si>
   <si>
@@ -303,9 +261,6 @@
     <t>movie_posters/download2.jpeg</t>
   </si>
   <si>
-    <t>2019 • Family/Comedy • 1h 42m</t>
-  </si>
-  <si>
     <t>Inside Out</t>
   </si>
   <si>
@@ -315,21 +270,12 @@
     <t>Pete Docter, Ronnie Del Carmen, Meg LeFauve</t>
   </si>
   <si>
-    <t>Amy PoehlerBill HaderLewis Black</t>
-  </si>
-  <si>
     <t>After young Riley is uprooted from her Midwest life and moved to San Francisco, her emotions - Joy, Fear, Anger, Disgust and Sadness - conflict on how best to navigate a new city, house, and school.</t>
   </si>
   <si>
     <t>movie_posters/download3.jpeg</t>
   </si>
   <si>
-    <t>2015 • Family/Comedy • 1h 35m</t>
-  </si>
-  <si>
-    <t>2010 • Drama/Historical drama • 2 hours</t>
-  </si>
-  <si>
     <t>movie_posters/5.jpg</t>
   </si>
   <si>
@@ -361,6 +307,60 @@
   </si>
   <si>
     <t>movie_posters/11.jpg</t>
+  </si>
+  <si>
+    <t>Amy Poehler, Bill Hader, Lewis Black</t>
+  </si>
+  <si>
+    <t>Jesse Eisenberg, Andrew Garfield, Justin Timberlake</t>
+  </si>
+  <si>
+    <t>2019 | Comedy/Western | 2h 40m</t>
+  </si>
+  <si>
+    <t>2022 | Action/Crime | 2h 56m</t>
+  </si>
+  <si>
+    <t>2010 | Horror/Drama | 1h 48m</t>
+  </si>
+  <si>
+    <t>2010 | Sci-fi/Action | 2h 28m</t>
+  </si>
+  <si>
+    <t>2023 | Comedy/Fantasy | 1h 54m</t>
+  </si>
+  <si>
+    <t>2023 | Drama/History | 3h</t>
+  </si>
+  <si>
+    <t>2019 | Comedy/Romance | 2h 5m</t>
+  </si>
+  <si>
+    <t>2018 | Sci-fi | 2 seasons</t>
+  </si>
+  <si>
+    <t>2006 | Thriller/Sci-fi | 2h 10m</t>
+  </si>
+  <si>
+    <t>2014 | Sci-fi/Adventure | 2h 49m</t>
+  </si>
+  <si>
+    <t>2008 | Comedy/Romance | 1h 51m</t>
+  </si>
+  <si>
+    <t>2009 | Comedy/Romance | 1h 45m</t>
+  </si>
+  <si>
+    <t>2012 | Romance/Comedy | 1h 32m</t>
+  </si>
+  <si>
+    <t>2010 | Drama/Historical drama | 2 hours</t>
+  </si>
+  <si>
+    <t>2019 | Family/Comedy | 1h 42m</t>
+  </si>
+  <si>
+    <t>2015 | Family/Comedy | 1h 35m</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="I2">
         <v>8.9</v>
@@ -1255,25 +1255,25 @@
         <v>23456789</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I3">
         <v>87</v>
@@ -1287,25 +1287,25 @@
         <v>34567890</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -1319,25 +1319,25 @@
         <v>45678901</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I5">
         <v>9.8000000000000007</v>
@@ -1351,25 +1351,25 @@
         <v>56789012</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="I6">
         <v>120.1</v>
@@ -1383,25 +1383,25 @@
         <v>67890123</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="I7">
         <v>8.3000000000000007</v>
@@ -1415,25 +1415,25 @@
         <v>78901234</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I8">
         <v>6.3</v>
@@ -1447,25 +1447,25 @@
         <v>89012345</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I9">
         <v>9.5</v>
@@ -1479,25 +1479,25 @@
         <v>90123456</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="I10">
         <v>9.9</v>
@@ -1511,25 +1511,25 @@
         <v>12345670</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="I11">
         <v>8.6999999999999993</v>
@@ -1543,25 +1543,25 @@
         <v>12345610</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="I12">
         <v>37.5</v>
@@ -1575,25 +1575,25 @@
         <v>25584819</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="I13">
         <v>7</v>
@@ -1607,25 +1607,25 @@
         <v>13745536</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I14">
         <v>6.6</v>
@@ -1639,25 +1639,25 @@
         <v>65794022</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I15">
         <v>7.8</v>
@@ -1671,25 +1671,25 @@
         <v>84299799</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I16">
         <v>6.8</v>
@@ -1703,25 +1703,25 @@
         <v>91129071</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
         <v>96</v>
       </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I17">
         <v>8.1</v>

--- a/archive/movies.xlsx
+++ b/archive/movies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>movie_id</t>
   </si>
@@ -51,7 +51,7 @@
     <t>num_ratings</t>
   </si>
   <si>
-    <t>Once Upon a Time… in Hollywood</t>
+    <t>Once Upon a Time... in Hollywood</t>
   </si>
   <si>
     <t>Quentin Tarantino</t>
@@ -60,7 +60,13 @@
     <t>Leonardo DiCaprio, Brad Pitt, Margot Robbie</t>
   </si>
   <si>
-    <t>As Hollywood’s Golden Age is winding down during the summer of 1969, television actor Rick Dalton and his stunt double Cliff Booth endeavor to achieve lasting success in Hollywood while meeting several colorful characters along the way.</t>
+    <t>As Hollywood's Golden Age is winding down during the summer of 1969, television actor Rick Dalton and his stunt double Cliff Booth endeavor to achieve lasting success in Hollywood while meeting several colorful characters along the way.</t>
+  </si>
+  <si>
+    <t>movie_posters/ouatih.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Comedy/Western | 2h 40m</t>
   </si>
   <si>
     <t>The Batman(2022)</t>
@@ -72,12 +78,18 @@
     <t>Matt Reeves, Peter Craig, Bob Kane</t>
   </si>
   <si>
-    <t>Robert Pattinson, Zoë Kravitz, Jeffrey Wright</t>
+    <t>Robert Pattinson, Zoe Kravitz, Jeffrey Wright</t>
   </si>
   <si>
     <t>When a sadistic serial killer begins murdering key political figures in Gotham, the Batman is forced to investigate the city's hidden corruption and question his family's involvement.</t>
   </si>
   <si>
+    <t>movie_posters/tb.jpg</t>
+  </si>
+  <si>
+    <t>2022 | Action/Crime | 2h 56m</t>
+  </si>
+  <si>
     <t>Black Swan</t>
   </si>
   <si>
@@ -93,6 +105,12 @@
     <t>Nina is a talented but unstable ballerina on the verge of stardom. Pushed to the breaking point by her artistic director and a seductive rival, Nina's grip on reality slips, plunging her into a waking nightmare.</t>
   </si>
   <si>
+    <t>movie_posters/bs.jpg</t>
+  </si>
+  <si>
+    <t>2010 | Horror/Drama | 1h 48m</t>
+  </si>
+  <si>
     <t>Inception</t>
   </si>
   <si>
@@ -105,6 +123,12 @@
     <t>A thief who steals corporate secrets through the use of dream-sharing technology is given the inverse task of planting an idea into the mind of a C.E.O., but his tragic past may doom the project and his team to disaster.</t>
   </si>
   <si>
+    <t>movie_posters/inception.jpg</t>
+  </si>
+  <si>
+    <t>2010 | Sci-fi/Action | 2h 28m</t>
+  </si>
+  <si>
     <t>Barbie</t>
   </si>
   <si>
@@ -120,6 +144,12 @@
     <t>Barbie and Ken are having the time of their lives in the seemingly perfect world of Barbie Land. However, when they get a chance to go to the outside world, they soon discover the joys and perils of living among regular humans.</t>
   </si>
   <si>
+    <t>movie_posters/barbie.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Comedy/Fantasy | 1h 54m</t>
+  </si>
+  <si>
     <t>Oppenheimerr</t>
   </si>
   <si>
@@ -132,6 +162,12 @@
     <t>A dramatization of the life story of J. Robert Oppenheimer, the physicist who had a large hand in the development of the atomic bombs that brought an end to World War II.</t>
   </si>
   <si>
+    <t>movie_posters/oppenheimer.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Drama/History | 3h</t>
+  </si>
+  <si>
     <t>The Long Shot</t>
   </si>
   <si>
@@ -147,6 +183,12 @@
     <t>Journalist, Fred Flarsky, reunites with his childhood crush, Charlotte Field; now one of the most influential women in the world. As she prepares to run for president, Charlotte hires Fred as her speechwriter, and sparks fly.</t>
   </si>
   <si>
+    <t>movie_posters/tls.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Comedy/Romance | 2h 5m</t>
+  </si>
+  <si>
     <t>3 Below: Tales of Arcadia</t>
   </si>
   <si>
@@ -159,6 +201,12 @@
     <t>A pair of teenage royals and their bodyguard escape from their home planet and try to blend in on Earth.</t>
   </si>
   <si>
+    <t>movie_posters/3b.jpg</t>
+  </si>
+  <si>
+    <t>2018 | Sci-fi | 2 seasons</t>
+  </si>
+  <si>
     <t>The Prestige</t>
   </si>
   <si>
@@ -171,6 +219,12 @@
     <t>Rival 19th-century magicians engage in a bitter battle for trade secrets.</t>
   </si>
   <si>
+    <t>movie_posters/tp.jpg</t>
+  </si>
+  <si>
+    <t>2006 | Thriller/Sci-fi | 2h 10m</t>
+  </si>
+  <si>
     <t>Interstellar</t>
   </si>
   <si>
@@ -183,6 +237,12 @@
     <t>When Earth becomes uninhabitable in the future, a farmer and ex-NASA pilot, Joseph Cooper, is tasked to pilot a spacecraft, along with a team of researchers, to find a new planet for humans.</t>
   </si>
   <si>
+    <t>movie_posters/interstellar.jpg</t>
+  </si>
+  <si>
+    <t>2014 | Sci-fi/Adventure | 2h 49m</t>
+  </si>
+  <si>
     <t>Definitely, Maybe</t>
   </si>
   <si>
@@ -195,6 +255,12 @@
     <t>Set in New York City, the film is about a former political consultant who tries to help his daughter understand his impending divorce by telling her the story of his past romantic relationships and how he ended up marrying her mother. One of the best movies ever made.</t>
   </si>
   <si>
+    <t>movie_posters/definetely_maybe.jpg</t>
+  </si>
+  <si>
+    <t>2008 | Comedy/Romance | 1h 51m</t>
+  </si>
+  <si>
     <t>I Love You, Man</t>
   </si>
   <si>
@@ -213,6 +279,9 @@
     <t>movie_posters/download.jpeg</t>
   </si>
   <si>
+    <t>2009 | Comedy/Romance | 1h 45m</t>
+  </si>
+  <si>
     <t>Celeste And Jesse Forever</t>
   </si>
   <si>
@@ -231,6 +300,9 @@
     <t>movie_posters/download1.jpeg</t>
   </si>
   <si>
+    <t>2012 | Romance/Comedy | 1h 32m</t>
+  </si>
+  <si>
     <t>The Social Network</t>
   </si>
   <si>
@@ -240,12 +312,18 @@
     <t>Aaron Sorkin, Ben Mezrich</t>
   </si>
   <si>
+    <t>Jesse Eisenberg, Andrew Garfield, Justin Timberlake</t>
+  </si>
+  <si>
     <t>As Harvard student Mark Zuckerberg creates the social networking site that would become known as Facebook, he is sued by the twins who claimed he stole their idea and by the co-founder who was later squeezed out of the business.</t>
   </si>
   <si>
     <t>movie_posters/images.jpeg</t>
   </si>
   <si>
+    <t>2010 | Drama/Historical drama | 2 hours</t>
+  </si>
+  <si>
     <t>Spies in Disguise</t>
   </si>
   <si>
@@ -261,6 +339,9 @@
     <t>movie_posters/download2.jpeg</t>
   </si>
   <si>
+    <t>2019 | Family/Comedy | 1h 42m</t>
+  </si>
+  <si>
     <t>Inside Out</t>
   </si>
   <si>
@@ -270,97 +351,118 @@
     <t>Pete Docter, Ronnie Del Carmen, Meg LeFauve</t>
   </si>
   <si>
+    <t>Amy Poehler, Bill Hader, Lewis Black</t>
+  </si>
+  <si>
     <t>After young Riley is uprooted from her Midwest life and moved to San Francisco, her emotions - Joy, Fear, Anger, Disgust and Sadness - conflict on how best to navigate a new city, house, and school.</t>
   </si>
   <si>
     <t>movie_posters/download3.jpeg</t>
   </si>
   <si>
-    <t>movie_posters/5.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/1.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/2.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/4.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/6.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/65.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/7.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/3.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/9.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/10.jpg</t>
-  </si>
-  <si>
-    <t>movie_posters/11.jpg</t>
-  </si>
-  <si>
-    <t>Amy Poehler, Bill Hader, Lewis Black</t>
-  </si>
-  <si>
-    <t>Jesse Eisenberg, Andrew Garfield, Justin Timberlake</t>
-  </si>
-  <si>
-    <t>2019 | Comedy/Western | 2h 40m</t>
-  </si>
-  <si>
-    <t>2022 | Action/Crime | 2h 56m</t>
-  </si>
-  <si>
-    <t>2010 | Horror/Drama | 1h 48m</t>
-  </si>
-  <si>
-    <t>2010 | Sci-fi/Action | 2h 28m</t>
-  </si>
-  <si>
-    <t>2023 | Comedy/Fantasy | 1h 54m</t>
-  </si>
-  <si>
-    <t>2023 | Drama/History | 3h</t>
-  </si>
-  <si>
-    <t>2019 | Comedy/Romance | 2h 5m</t>
-  </si>
-  <si>
-    <t>2018 | Sci-fi | 2 seasons</t>
-  </si>
-  <si>
-    <t>2006 | Thriller/Sci-fi | 2h 10m</t>
-  </si>
-  <si>
-    <t>2014 | Sci-fi/Adventure | 2h 49m</t>
-  </si>
-  <si>
-    <t>2008 | Comedy/Romance | 1h 51m</t>
-  </si>
-  <si>
-    <t>2009 | Comedy/Romance | 1h 45m</t>
-  </si>
-  <si>
-    <t>2012 | Romance/Comedy | 1h 32m</t>
-  </si>
-  <si>
-    <t>2010 | Drama/Historical drama | 2 hours</t>
-  </si>
-  <si>
-    <t>2019 | Family/Comedy | 1h 42m</t>
-  </si>
-  <si>
     <t>2015 | Family/Comedy | 1h 35m</t>
+  </si>
+  <si>
+    <t>Seven Veils</t>
+  </si>
+  <si>
+    <t>Atom Egoyan</t>
+  </si>
+  <si>
+    <t>Amanda Seyfried, Rebecca Liddiard, Douglas Smith</t>
+  </si>
+  <si>
+    <t>Jeanine, an earnest theatre director, has been given the task of remounting her former mentorâ€™s most famous work, the opera Salome. Haunted by dark and disturbing memories from her past, she allows her repressed trauma to color the present as she re-enters the opera world after so many years away.</t>
+  </si>
+  <si>
+    <t>movie_posters/1083782.jpg</t>
+  </si>
+  <si>
+    <t>2025 | Drama | 1h 47m</t>
+  </si>
+  <si>
+    <t>Beautiful Wedding</t>
+  </si>
+  <si>
+    <t>Roger Kumble</t>
+  </si>
+  <si>
+    <t>Roger Kumble, Jamie McGuire</t>
+  </si>
+  <si>
+    <t>Dylan Sprouse, Virginia Gardner, Austin North</t>
+  </si>
+  <si>
+    <t>Abby and Travis wake after a crazy night in Vegas as accidental newlyweds! With the mob on their heels, they flee to Mexico for a wild, weird honeymoonâ€”but are they in for another disaster?</t>
+  </si>
+  <si>
+    <t>movie_posters/1096342.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Romance/Comedy/Drama | 1h 35m</t>
+  </si>
+  <si>
+    <t>The Banker</t>
+  </si>
+  <si>
+    <t>George Nolfi</t>
+  </si>
+  <si>
+    <t>Stan Younger, Brad Kane, George Nolfi, Niceole R. Levy, David Lewis Smith</t>
+  </si>
+  <si>
+    <t>Anthony Mackie, Samuel L. Jackson, Nicholas Hoult</t>
+  </si>
+  <si>
+    <t>In the 1960s, two entrepreneurs hatch an ingenious business plan to fight for housing integrationâ€”and equal access to the American Dream. Nicholas Hoult and Nia Long co-star in this drama inspired by true events.</t>
+  </si>
+  <si>
+    <t>movie_posters/627725.jpg</t>
+  </si>
+  <si>
+    <t>2020 | Drama | 2h 0m</t>
+  </si>
+  <si>
+    <t>The Wall</t>
+  </si>
+  <si>
+    <t>Doug Liman</t>
+  </si>
+  <si>
+    <t>Dwain Worrell</t>
+  </si>
+  <si>
+    <t>Aaron Taylor-Johnson, John Cena, Laith Nakli</t>
+  </si>
+  <si>
+    <t>An American sniper and his spotter engage in a deadly cat-and-mouse game with an Iraqi sniper.</t>
+  </si>
+  <si>
+    <t>movie_posters/405775.jpg</t>
+  </si>
+  <si>
+    <t>2017 | War/Thriller/Drama/Action | 1h 30m</t>
+  </si>
+  <si>
+    <t>Evilenko</t>
+  </si>
+  <si>
+    <t>David Grieco</t>
+  </si>
+  <si>
+    <t>David Grieco, David Grieco</t>
+  </si>
+  <si>
+    <t>Malcolm McDowell, Marton Csokas, Ronald Pickup</t>
+  </si>
+  <si>
+    <t>For years, Andrei Evilenko eluded the obsessive Detective Lesiev and the psychiatric profiler Aron Richter. Spurred on by his rabid fury at the gradual crumbling of his precious Soviet Union, Evilenko is a man who will live, die and kill as a communist.</t>
+  </si>
+  <si>
+    <t>movie_posters/46342.jpg</t>
+  </si>
+  <si>
+    <t>2004 | Crime/Drama/Thriller | 1h 51m</t>
   </si>
 </sst>
 </file>
@@ -1167,24 +1269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="6" max="6" width="48.28515625" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1238,10 +1327,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>8.9</v>
@@ -1255,25 +1344,25 @@
         <v>23456789</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>87</v>
@@ -1287,25 +1376,25 @@
         <v>34567890</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -1319,25 +1408,25 @@
         <v>45678901</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>9.8000000000000007</v>
@@ -1351,25 +1440,25 @@
         <v>56789012</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>120.1</v>
@@ -1383,25 +1472,25 @@
         <v>67890123</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I7">
         <v>8.3000000000000007</v>
@@ -1415,25 +1504,25 @@
         <v>78901234</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I8">
         <v>6.3</v>
@@ -1447,25 +1536,25 @@
         <v>89012345</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="I9">
         <v>9.5</v>
@@ -1479,25 +1568,25 @@
         <v>90123456</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>9.9</v>
@@ -1511,25 +1600,25 @@
         <v>12345670</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>8.6999999999999993</v>
@@ -1543,25 +1632,25 @@
         <v>12345610</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <v>37.5</v>
@@ -1575,25 +1664,25 @@
         <v>25584819</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>7</v>
@@ -1607,25 +1696,25 @@
         <v>13745536</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="I14">
         <v>6.6</v>
@@ -1639,25 +1728,25 @@
         <v>65794022</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>7.8</v>
@@ -1671,25 +1760,25 @@
         <v>84299799</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I16">
         <v>6.8</v>
@@ -1703,22 +1792,22 @@
         <v>91129071</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
         <v>113</v>
@@ -1728,6 +1817,166 @@
       </c>
       <c r="J17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1083782</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18">
+        <v>590</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1096342</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19">
+        <v>548.9</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>627725</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20">
+        <v>760</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>405775</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21">
+        <v>639.20000000000005</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>46342</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/archive/movies.xlsx
+++ b/archive/movies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1274">
   <si>
     <t>movie_id</t>
   </si>
@@ -463,6 +463,3384 @@
   </si>
   <si>
     <t>2004 | Crime/Drama/Thriller | 1h 51m</t>
+  </si>
+  <si>
+    <t>Obsession</t>
+  </si>
+  <si>
+    <t>Lee Gun-Wook</t>
+  </si>
+  <si>
+    <t>Lee Gun-Wook, Lee Hyun-ji</t>
+  </si>
+  <si>
+    <t>Yang Jae-hyun, Yujin Yoo, Lee Kang-han</t>
+  </si>
+  <si>
+    <t>movie_posters/810585.jpg</t>
+  </si>
+  <si>
+    <t>2020 | Drama | 1h 17m</t>
+  </si>
+  <si>
+    <t>Superhero Movie</t>
+  </si>
+  <si>
+    <t>Craig Mazin</t>
+  </si>
+  <si>
+    <t>Drake Bell, Sara Paxton, Christopher McDonald</t>
+  </si>
+  <si>
+    <t>Rick Riker is a nerdy teen imbued with superpowers by a radioactive dragonfly. And because every hero needs a nemesis, enter Lou Landers, aka the villainously goofy Hourglass.</t>
+  </si>
+  <si>
+    <t>movie_posters/11918.jpg</t>
+  </si>
+  <si>
+    <t>2008 | Comedy/Action/Science Fiction | 1h 22m</t>
+  </si>
+  <si>
+    <t>Return to Sender</t>
+  </si>
+  <si>
+    <t>Fouad Mikati</t>
+  </si>
+  <si>
+    <t>Joe Gossett, Patricia Beauchamp</t>
+  </si>
+  <si>
+    <t>Rosamund Pike, Shiloh Fernandez, Rumer Willis</t>
+  </si>
+  <si>
+    <t>A nurse living in a small town goes on a blind date with a man who is not the person he says he is.</t>
+  </si>
+  <si>
+    <t>movie_posters/333381.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Drama/Thriller | 1h 35m</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>James Mangold</t>
+  </si>
+  <si>
+    <t>Michael Cooney, Agatha Christie</t>
+  </si>
+  <si>
+    <t>John Cusack, Ray Liotta, Amanda Peet</t>
+  </si>
+  <si>
+    <t>Complete strangers stranded at a remote desert motel during a raging storm soon find themselves the target of a deranged murderer. As their numbers thin out, the travelers begin to turn on each other, as each tries to figure out who the killer is.</t>
+  </si>
+  <si>
+    <t>movie_posters/2832.jpg</t>
+  </si>
+  <si>
+    <t>2003 | Mystery/Thriller | 1h 30m</t>
+  </si>
+  <si>
+    <t>Beau Is Afraid</t>
+  </si>
+  <si>
+    <t>Ari Aster</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix, Patti LuPone, Amy Ryan</t>
+  </si>
+  <si>
+    <t>Following the sudden death of his mother, a mild-mannered but anxiety-ridden man confronts his darkest fears as he embarks on an epic, Kafkaesque odyssey back home.</t>
+  </si>
+  <si>
+    <t>movie_posters/798286.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Comedy/Adventure/Fantasy | 2h 59m</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>Antoine Fuqua</t>
+  </si>
+  <si>
+    <t>David Franzoni</t>
+  </si>
+  <si>
+    <t>Clive Owen, Ioan Gruffudd, Keira Knightley</t>
+  </si>
+  <si>
+    <t>The story of the Arthurian legend, based on the 'Sarmatian hypothesis' which contends that the legend has a historical nucleus in the Sarmatian heavy cavalry troops stationed in Britain, and that the Roman-British military commander, Lucius Artorius Castus is the historical person behind the legend.</t>
+  </si>
+  <si>
+    <t>movie_posters/9477.jpg</t>
+  </si>
+  <si>
+    <t>2004 | Adventure/War/History/Action/Drama | 2h 6m</t>
+  </si>
+  <si>
+    <t>Hunter Killer</t>
+  </si>
+  <si>
+    <t>Donovan Marsh</t>
+  </si>
+  <si>
+    <t>George Wallace, Don Keith, Jamie Moss, Arne Schmidt</t>
+  </si>
+  <si>
+    <t>Gerard Butler, Gary Oldman, Toby Stephens</t>
+  </si>
+  <si>
+    <t>Captain Glass of the USS Arkansas discovers that a coup d'Ã©tat is taking place in Russia, so he and his crew join an elite group working on the ground to prevent a war.</t>
+  </si>
+  <si>
+    <t>movie_posters/399402.jpg</t>
+  </si>
+  <si>
+    <t>2018 | Action/Adventure/Thriller | 2h 1m</t>
+  </si>
+  <si>
+    <t>The Apprentice</t>
+  </si>
+  <si>
+    <t>Ali Abbasi</t>
+  </si>
+  <si>
+    <t>Gabriel Sherman</t>
+  </si>
+  <si>
+    <t>Sebastian Stan, Jeremy Strong, Maria Bakalova</t>
+  </si>
+  <si>
+    <t>A young Donald Trump, eager to make his name as a hungry scion of a wealthy family in 1970s New York, comes under the spell of Roy Cohn, the cutthroat attorney who would help create the Donald Trump we know today. Cohn sees in Trump the perfect protÃ©gÃ©â€”someone with raw ambition, a hunger for success, and a willingness to do whatever it takes to win.</t>
+  </si>
+  <si>
+    <t>movie_posters/1182047.jpg</t>
+  </si>
+  <si>
+    <t>2024 | History/Drama | 2h 2m</t>
+  </si>
+  <si>
+    <t>The Man from Nowhere</t>
+  </si>
+  <si>
+    <t>Lee Jeong-beom</t>
+  </si>
+  <si>
+    <t>Won Bin, Kim Sae-ron, Kim Tae-hun</t>
+  </si>
+  <si>
+    <t>An ex-special agent is involved in a convoluted drug ring drama. He has to save a drug smuggler's innocent daughter from being the victim of her parents' fight.</t>
+  </si>
+  <si>
+    <t>movie_posters/51608.jpg</t>
+  </si>
+  <si>
+    <t>2010 | Action/Thriller/Crime | 1h 59m</t>
+  </si>
+  <si>
+    <t>Surrogates</t>
+  </si>
+  <si>
+    <t>Jonathan Mostow</t>
+  </si>
+  <si>
+    <t>Michael Ferris, John Brancato</t>
+  </si>
+  <si>
+    <t>Bruce Willis, Radha Mitchell, Rosamund Pike</t>
+  </si>
+  <si>
+    <t>Set in a futuristic world where humans live in isolation and interact through surrogate robots, a cop is forced to leave his home for the first time in years in order to investigate the murders of others' surrogates.</t>
+  </si>
+  <si>
+    <t>movie_posters/19959.jpg</t>
+  </si>
+  <si>
+    <t>2009 | Science Fiction/Action/Thriller | 1h 29m</t>
+  </si>
+  <si>
+    <t>The Tourist</t>
+  </si>
+  <si>
+    <t>Florian Henckel von Donnersmarck</t>
+  </si>
+  <si>
+    <t>Florian Henckel von Donnersmarck, Julian Fellowes, JÃ©rÃ´me Salle, Christopher McQuarrie</t>
+  </si>
+  <si>
+    <t>Johnny Depp, Angelina Jolie, Paul Bettany</t>
+  </si>
+  <si>
+    <t>American tourist Frank meets mysterious British woman Elise on the train to Venice. Romance seems to bud, but there's more to her than meets the eye.</t>
+  </si>
+  <si>
+    <t>movie_posters/37710.jpg</t>
+  </si>
+  <si>
+    <t>2010 | Action/Thriller/Romance | 1h 43m</t>
+  </si>
+  <si>
+    <t>The Karate Kid Part III</t>
+  </si>
+  <si>
+    <t>John G. Avildsen</t>
+  </si>
+  <si>
+    <t>Robert Mark Kamen, Robert Mark Kamen</t>
+  </si>
+  <si>
+    <t>Ralph Macchio, Pat Morita, Robyn Lively</t>
+  </si>
+  <si>
+    <t>Despondent over the closing of his karate school, Cobra Kai teacher John Kreese joins a ruthless businessman and martial artist to get revenge on Daniel and Mr. Miyagi.</t>
+  </si>
+  <si>
+    <t>movie_posters/10495.jpg</t>
+  </si>
+  <si>
+    <t>1989 | Action/Family/Drama/Adventure | 1h 52m</t>
+  </si>
+  <si>
+    <t>127 Hours</t>
+  </si>
+  <si>
+    <t>Danny Boyle</t>
+  </si>
+  <si>
+    <t>Simon Beaufoy, Danny Boyle, Aron Ralston</t>
+  </si>
+  <si>
+    <t>James Franco, Kate Mara, Amber Tamblyn</t>
+  </si>
+  <si>
+    <t>The true story of mountain climber Aron Ralston's remarkable adventure to save himself after a fallen boulder crashes on his arm and traps him in an isolated canyon in Utah.</t>
+  </si>
+  <si>
+    <t>movie_posters/44115.jpg</t>
+  </si>
+  <si>
+    <t>2010 | Adventure/Drama/Thriller | 1h 34m</t>
+  </si>
+  <si>
+    <t>Wild Child</t>
+  </si>
+  <si>
+    <t>Nick Moore</t>
+  </si>
+  <si>
+    <t>Lucy Dahl</t>
+  </si>
+  <si>
+    <t>Emma Roberts, Alex Pettyfer, Natasha Richardson</t>
+  </si>
+  <si>
+    <t>Sixteen-year-old Poppy has everything her unlimited credit cards can buy, and a spoiled attitude to match. After a final thoughtless prank, her exasperated father ships her off to boarding school in England. There, Poppy meets her match in a stern headmistress and a class full of girls who will not tolerate her selfishness.</t>
+  </si>
+  <si>
+    <t>movie_posters/13971.jpg</t>
+  </si>
+  <si>
+    <t>2008 | Comedy/Drama/Romance | 1h 38m</t>
+  </si>
+  <si>
+    <t>Cinema Paradiso</t>
+  </si>
+  <si>
+    <t>Giuseppe Tornatore</t>
+  </si>
+  <si>
+    <t>Giuseppe Tornatore, Vanna Paoli, Giuseppe Tornatore</t>
+  </si>
+  <si>
+    <t>Philippe Noiret, Jacques Perrin, Marco Leonardi</t>
+  </si>
+  <si>
+    <t>A filmmaker recalls his childhood, when he fell in love with the movies at his village's theater and formed a deep friendship with the theater's projectionist.</t>
+  </si>
+  <si>
+    <t>movie_posters/11216.jpg</t>
+  </si>
+  <si>
+    <t>1988 | Drama/Romance | 2h 4m</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Ted Demme</t>
+  </si>
+  <si>
+    <t>Matthew Stone, Robert Ramsey</t>
+  </si>
+  <si>
+    <t>Eddie Murphy, Martin Lawrence, Obba BabatundÃ©</t>
+  </si>
+  <si>
+    <t>Two men in 1930s Mississippi become friends after being sentenced to life in prison together for a crime they did not commit.</t>
+  </si>
+  <si>
+    <t>movie_posters/6522.jpg</t>
+  </si>
+  <si>
+    <t>1999 | Comedy/Crime | 1h 48m</t>
+  </si>
+  <si>
+    <t>The Wolf's Call</t>
+  </si>
+  <si>
+    <t>Antonin Baudry</t>
+  </si>
+  <si>
+    <t>FranÃ§ois Civil, Omar Sy, Mathieu Kassovitz</t>
+  </si>
+  <si>
+    <t>Shown from the perspective of a young submariner with unusually sensitive hearing and uncannily precise sound recognition. The fate of many often depends on his ability, and one time, whilst highly stressed, he makes a incorrect call which put his entire crew in mortal danger.  Trying to regain the confidence of his comrades, he conducts an unauthorised investigation of an apparent plot which, it turns out, risks escalating into a nuclear apocalypse. Suddenly working under pressure with the fleet admiral, they must do whatever is necessary, even the unthinkable, to prevent a nuclear war, since a confirmed nuclear strike order cannot be countermanded.</t>
+  </si>
+  <si>
+    <t>movie_posters/484468.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Thriller/Action/Adventure | 1h 56m</t>
+  </si>
+  <si>
+    <t>Cruella 2</t>
+  </si>
+  <si>
+    <t>Craig Gillespie</t>
+  </si>
+  <si>
+    <t>Tony McNamara</t>
+  </si>
+  <si>
+    <t>Emma Stone, Kirby Howell-Baptiste, Emma Thompson</t>
+  </si>
+  <si>
+    <t>Sequel to 2021's Cruella.</t>
+  </si>
+  <si>
+    <t>movie_posters/836454.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | Crime/Comedy | 0m</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Roger Donaldson</t>
+  </si>
+  <si>
+    <t>Ricardo F. Delgado, Dennis Feldman</t>
+  </si>
+  <si>
+    <t>Natasha Henstridge, Ben Kingsley, Michael Madsen</t>
+  </si>
+  <si>
+    <t>In 1993, the Search for Extra Terrestrial Intelligence Project receives a transmission detailing an alien DNA structure, along with instructions on how to splice it with human DNA. The result is Sil, a sensual but deadly creature who can change from a beautiful woman to an armour-plated killing machine in the blink of an eye.</t>
+  </si>
+  <si>
+    <t>movie_posters/9348.jpg</t>
+  </si>
+  <si>
+    <t>1995 | Science Fiction/Horror/Action | 1h 48m</t>
+  </si>
+  <si>
+    <t>Summer of 84</t>
+  </si>
+  <si>
+    <t>Anouk Whissell</t>
+  </si>
+  <si>
+    <t>Matt Leslie, Stephen J. Smith</t>
+  </si>
+  <si>
+    <t>Graham Verchere, Judah Lewis, Caleb Emery</t>
+  </si>
+  <si>
+    <t>After suspecting that their police officer neighbor is a serial killer, a group of teenage friends spend their summer spying on him and gathering evidence, but as they get closer to discovering the truth, things get dangerous.</t>
+  </si>
+  <si>
+    <t>movie_posters/470229.jpg</t>
+  </si>
+  <si>
+    <t>2018 | Drama/Horror/Mystery | 1h 45m</t>
+  </si>
+  <si>
+    <t>Empire of the Sun</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>J.G. Ballard, Menno Meyjes, Tom Stoppard</t>
+  </si>
+  <si>
+    <t>Christian Bale, John Malkovich, Miranda Richardson</t>
+  </si>
+  <si>
+    <t>Jamie Graham, a privileged English boy, is living in Shanghai when the Japanese invade and force all foreigners into prison camps. Jamie is captured with an American sailor, who looks out for him while they are in the camp together. Even though he is separated from his parents and in a hostile environment, Jamie maintains his dignity and youthful spirit, providing a beacon of hope for the others held captive with him.</t>
+  </si>
+  <si>
+    <t>movie_posters/10110.jpg</t>
+  </si>
+  <si>
+    <t>1987 | Drama/History/War | 2h 33m</t>
+  </si>
+  <si>
+    <t>The Celebration</t>
+  </si>
+  <si>
+    <t>Thomas Vinterberg</t>
+  </si>
+  <si>
+    <t>Thomas Vinterberg, Mogens Rukov, Thomas Vinterberg</t>
+  </si>
+  <si>
+    <t>Ulrich Thomsen, Henning Moritzen, Thomas Bo Larsen</t>
+  </si>
+  <si>
+    <t>The family of a wealthy businessman gather to celebrate his 60th birthday. During the course of the party, his eldest son presents a speech that reveals a shocking secret.</t>
+  </si>
+  <si>
+    <t>movie_posters/309.jpg</t>
+  </si>
+  <si>
+    <t>1998 | Drama | 1h 45m</t>
+  </si>
+  <si>
+    <t>Mosul</t>
+  </si>
+  <si>
+    <t>Matthew Michael Carnahan</t>
+  </si>
+  <si>
+    <t>Suhail Dabbach, Adam Bessa, Is'haq Elias</t>
+  </si>
+  <si>
+    <t>When ISIS took their homes, families and city, one group of men fought to take it all back. Based on true events, this is the story of the Nineveh SWAT team, a renegade police unit who waged a guerrilla operation against ISIS in a desperate struggle to save their home city of Mosul.</t>
+  </si>
+  <si>
+    <t>movie_posters/618219.jpg</t>
+  </si>
+  <si>
+    <t>2019 | War/Drama/Action | 1h 42m</t>
+  </si>
+  <si>
+    <t>AÅŸk Filmi</t>
+  </si>
+  <si>
+    <t>Deniz Denizciler</t>
+  </si>
+  <si>
+    <t>Cemre Baysel, Ä°lhan Åžen, Erkan Petekkaya</t>
+  </si>
+  <si>
+    <t>Yaz is a popular top model and known for her fondness for nightlife. After meeting Uzay, the director of the film she auditioned for, the duo experience a love pain that they will never forget.</t>
+  </si>
+  <si>
+    <t>movie_posters/1223584.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Drama/Romance | 2h 5m</t>
+  </si>
+  <si>
+    <t>Marmaduke</t>
+  </si>
+  <si>
+    <t>Mark A.Z. DippÃ©</t>
+  </si>
+  <si>
+    <t>Byron Kavanagh, Brad Anderson</t>
+  </si>
+  <si>
+    <t>Pete Davidson, J.K. Simmons, David Koechner</t>
+  </si>
+  <si>
+    <t>Great Dane Marmaduke epitomizes the overgrown lapdog, with an irascible streak and a penchant for mischief that is tempered with a deep sense of love and responsibility for his human family, the Winslows. The new animation is set in the world of elite dog shows, rife divas, rivalries and slapstick comedy.</t>
+  </si>
+  <si>
+    <t>movie_posters/678287.jpg</t>
+  </si>
+  <si>
+    <t>2022 | Animation/Family/Comedy/Adventure | 1h 27m</t>
+  </si>
+  <si>
+    <t>The Guard</t>
+  </si>
+  <si>
+    <t>John Michael McDonagh</t>
+  </si>
+  <si>
+    <t>Brendan Gleeson, Don Cheadle, Liam Cunningham</t>
+  </si>
+  <si>
+    <t>When a small-town Irish cop with a crass personality is partnered with a straight-laced FBI agent to bust an international drug-trafficking ring, they must settle their differences in order to take down a dangerous gang.</t>
+  </si>
+  <si>
+    <t>movie_posters/67913.jpg</t>
+  </si>
+  <si>
+    <t>2011 | Action/Comedy/Thriller/Crime | 1h 36m</t>
+  </si>
+  <si>
+    <t>Rosebud Baker: The Mother Lode</t>
+  </si>
+  <si>
+    <t>Rosebud Baker</t>
+  </si>
+  <si>
+    <t>Rosebud Baker delivers a raw and hilarious look at motherhood in all its chaotic beauty â€” filmed both before and after giving birth.</t>
+  </si>
+  <si>
+    <t>movie_posters/1425201.jpg</t>
+  </si>
+  <si>
+    <t>2025 | Comedy | 0m</t>
+  </si>
+  <si>
+    <t>Leprechaun: Back 2 tha Hood</t>
+  </si>
+  <si>
+    <t>Steven Ayromlooi</t>
+  </si>
+  <si>
+    <t>Mark Jones, Steven Ayromlooi</t>
+  </si>
+  <si>
+    <t>Warwick Davis, Tangi Miller, Laz Alonso</t>
+  </si>
+  <si>
+    <t>When Emily Woodrow and her friends happen on a treasure chest full of gold coins, they fail to to heed the warnings of a wise old psychic who had foretold that they would encounter trouble with a very nasty and protective Leprechaun.</t>
+  </si>
+  <si>
+    <t>movie_posters/19288.jpg</t>
+  </si>
+  <si>
+    <t>2003 | Horror/Comedy | 1h 30m</t>
+  </si>
+  <si>
+    <t>Out of Sight</t>
+  </si>
+  <si>
+    <t>Steven Soderbergh</t>
+  </si>
+  <si>
+    <t>Elmore Leonard, Scott Frank</t>
+  </si>
+  <si>
+    <t>George Clooney, Jennifer Lopez, Ving Rhames</t>
+  </si>
+  <si>
+    <t>Meet Jack Foley, a smooth criminal who bends the law and is determined to make one last heist. Karen Sisco is a federal marshal who chooses all the right moves â€¦ and all the wrong guys. Now they're willing to risk it all to find out if there's more between them than just the law.</t>
+  </si>
+  <si>
+    <t>movie_posters/1389.jpg</t>
+  </si>
+  <si>
+    <t>1998 | Romance/Comedy/Crime | 2h 3m</t>
+  </si>
+  <si>
+    <t>In Youth We Trust</t>
+  </si>
+  <si>
+    <t>Puttipong Nakthong</t>
+  </si>
+  <si>
+    <t>Puttipong Nakthong, Ruttanaphon Pakphrieo</t>
+  </si>
+  <si>
+    <t>Nat Kitcharit, Arak Amornsupasiri, Itkron Pungkiatrussamee</t>
+  </si>
+  <si>
+    <t>Puek, a boy from the slums, had no choice but to endure his circumstances, feeling that he could never have the same worth as others. He remained silent, accepting the bullying of others just to survive in society.</t>
+  </si>
+  <si>
+    <t>movie_posters/1283120.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Action/Drama/Crime | 2h 12m</t>
+  </si>
+  <si>
+    <t>Allan Quatermain and the Lost City of Gold</t>
+  </si>
+  <si>
+    <t>Gary Nelson</t>
+  </si>
+  <si>
+    <t>Janet Kusnick, Gene Quintano, Lee Reynolds, H. Rider Haggard</t>
+  </si>
+  <si>
+    <t>Richard Chamberlain, Sharon Stone, James Earl Jones</t>
+  </si>
+  <si>
+    <t>After his brother Robeson disappears without a trace while exploring Africa in search of a legendary 'white tribe', Allan Quatermain decides to follow in his footsteps to learn what became of him. Soon after arriving, he discovers the Lost City of Gold, controlled by the evil lord Agon, and mined by his legions of white slaves.</t>
+  </si>
+  <si>
+    <t>movie_posters/9710.jpg</t>
+  </si>
+  <si>
+    <t>1986 | Adventure/Action/Comedy/Mystery | 1h 39m</t>
+  </si>
+  <si>
+    <t>The Rat Catcher</t>
+  </si>
+  <si>
+    <t>Wes Anderson</t>
+  </si>
+  <si>
+    <t>Wes Anderson, Roald Dahl</t>
+  </si>
+  <si>
+    <t>Richard Ayoade, Ralph Fiennes, Rupert Friend</t>
+  </si>
+  <si>
+    <t>In an English village, a reporter and a mechanic listen to a ratcatcher explain his clever plan to outwit his prey.</t>
+  </si>
+  <si>
+    <t>movie_posters/1172674.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Comedy | 17m</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Karthik Ghattamaneni</t>
+  </si>
+  <si>
+    <t>Karthik Ghattamaneni, Karthik Ghattamaneni, Manibabu Karanam, Manibabu Karanam</t>
+  </si>
+  <si>
+    <t>Ravi Teja, Anupama Parameswaran, Kavya Thapar</t>
+  </si>
+  <si>
+    <t>A journalist pieces together the story of Eagle, a former professional sniper who falls in love with Rachana, and on a mission to redeem himself by working towards eradicating illegal arms from this world.</t>
+  </si>
+  <si>
+    <t>movie_posters/1150478.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Action/Thriller | 2h 36m</t>
+  </si>
+  <si>
+    <t>The Age of Shadows</t>
+  </si>
+  <si>
+    <t>Kim Jee-woon</t>
+  </si>
+  <si>
+    <t>Kim Dong-jin, Park Jong-dae, Lee Ji-min, Kim Jee-woon</t>
+  </si>
+  <si>
+    <t>Song Kang-ho, Gong Yoo, Han Ji-min</t>
+  </si>
+  <si>
+    <t>Set in the late 1920s, The Age of Shadows follows the cat-and-mouse game that unfolds between a group of resistance fighters trying to bring in explosives from Shanghai to destroy key Japanese facilities in Seoul, and Japanese agents trying to stop them.</t>
+  </si>
+  <si>
+    <t>movie_posters/363579.jpg</t>
+  </si>
+  <si>
+    <t>2016 | Action/Thriller | 2h 20m</t>
+  </si>
+  <si>
+    <t>Twilight Zone: The Movie</t>
+  </si>
+  <si>
+    <t>George Miller</t>
+  </si>
+  <si>
+    <t>George Clayton Johnson, Jerome Bixby, Melissa Mathison, George Clayton Johnson, Richard Matheson, Richard Matheson, John Landis</t>
+  </si>
+  <si>
+    <t>Dan Aykroyd, Albert Brooks, Scatman Crothers</t>
+  </si>
+  <si>
+    <t>An anthology film presenting remakes of three episodes from the "Twilight Zone" TV seriesâ€”"Kick the Can", "It's a Good Life" and "Nightmare at 20,000 Feet"â€”and one original story, "Time Out."</t>
+  </si>
+  <si>
+    <t>movie_posters/15301.jpg</t>
+  </si>
+  <si>
+    <t>1983 | Horror/Fantasy/Science Fiction | 1h 42m</t>
+  </si>
+  <si>
+    <t>The Best of Me</t>
+  </si>
+  <si>
+    <t>Michael Hoffman</t>
+  </si>
+  <si>
+    <t>Will Fetters, Nicholas Sparks, J. Mills Goodloe</t>
+  </si>
+  <si>
+    <t>Michelle Monaghan, James Marsden, Luke Bracey</t>
+  </si>
+  <si>
+    <t>A pair of former high school sweethearts reunite after many years when they return to visit their small hometown.</t>
+  </si>
+  <si>
+    <t>movie_posters/239571.jpg</t>
+  </si>
+  <si>
+    <t>2014 | Drama/Romance | 1h 57m</t>
+  </si>
+  <si>
+    <t>Yes, Madam!</t>
+  </si>
+  <si>
+    <t>Corey Yuen Kwai</t>
+  </si>
+  <si>
+    <t>Barry Wong</t>
+  </si>
+  <si>
+    <t>Michelle Yeoh, John Shum Kin-Fun, Cynthia Rothrock</t>
+  </si>
+  <si>
+    <t>Two unlucky thieves break into a just murdered man's hotel room and steal his passport with a hidden microfilm wanted by a triad boss. Two ass-kicking women copsâ€”one Chinese, one Britishâ€”are on the case.</t>
+  </si>
+  <si>
+    <t>movie_posters/39448.jpg</t>
+  </si>
+  <si>
+    <t>1985 | Action/Comedy/Crime | 1h 32m</t>
+  </si>
+  <si>
+    <t>The Day After</t>
+  </si>
+  <si>
+    <t>Nicholas Meyer</t>
+  </si>
+  <si>
+    <t>Edward Hume</t>
+  </si>
+  <si>
+    <t>Jason Robards, JoBeth Williams, Steve Guttenberg</t>
+  </si>
+  <si>
+    <t>In the mid-1980s, the U.S. is poised on the brink of nuclear war. This shadow looms over the residents of a small town in Kansas as they continue their daily lives. Dr. Russell Oakes maintains his busy schedule at the hospital, Denise Dahlberg prepares for her upcoming wedding, and Stephen Klein is deep in his graduate studies. When the unthinkable happens and the bombs come down, the town's residents are thrust into the horrors of nuclear winter.</t>
+  </si>
+  <si>
+    <t>movie_posters/7012.jpg</t>
+  </si>
+  <si>
+    <t>1983 | Science Fiction/Drama/TV Movie | 2h 7m</t>
+  </si>
+  <si>
+    <t>Across the Universe</t>
+  </si>
+  <si>
+    <t>Julie Taymor</t>
+  </si>
+  <si>
+    <t>Dick Clement, Ian La Frenais</t>
+  </si>
+  <si>
+    <t>Evan Rachel Wood, Jim Sturgess, Joe Anderson</t>
+  </si>
+  <si>
+    <t>When young dockworker Jude leaves Liverpool to find his estranged father in the United States, he is swept up by the waves of change that are re-shaping the nation. Jude falls in love with Lucy, who joins the growing anti-war movement. As the body count in Vietnam rises, political tensions at home spiral out of control and the star-crossed lovers find themselves in a psychedelic world gone mad.</t>
+  </si>
+  <si>
+    <t>movie_posters/4688.jpg</t>
+  </si>
+  <si>
+    <t>2007 | Drama/Romance/Fantasy | 2h 13m</t>
+  </si>
+  <si>
+    <t>The Many Faces of Jim Carey</t>
+  </si>
+  <si>
+    <t>Nick Randall</t>
+  </si>
+  <si>
+    <t>Johnny Carson, Rodney Dangerfield, Michel Gondry</t>
+  </si>
+  <si>
+    <t>From his humble beginnings in Canada to becoming one of Hollywood's most beloved and successful stars, The Many Faces of Jim Carrey is an intimate and revealing documentary that delves into the extraordinary life of Jim Carrey. Through a blend of personal interviews, archival footage, and behind-the-scenes glimpses, the documentary explores Carrey's early struggles, his breakthrough in the entertainment industry with iconic roles in films like "Ace Ventura" and "The Mask," and the challenges he faced as he transitioned from comedic roles to more dramatic performances in movies like "Eternal Sunshine of the Spotless Mind" and "The Truman Show."</t>
+  </si>
+  <si>
+    <t>movie_posters/1390610.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Documentary | 0m</t>
+  </si>
+  <si>
+    <t>Ammu</t>
+  </si>
+  <si>
+    <t>Charukesh Sekar</t>
+  </si>
+  <si>
+    <t>Charukesh Sekar, Padmavathi Malladi, Karthik Subbaraj</t>
+  </si>
+  <si>
+    <t>Aishwarya Lekshmi, Naveen Chandra, Bobby Simha</t>
+  </si>
+  <si>
+    <t>Ammu's thought marriage was a fairy tale â€“ full of love and magic, ends when her cop-husband Ravi hit her for the very first time. What Ammu thought was a one-off incident soon turned into a never-ending cycle of abuse, trapping her and breaking her soul and spirit. Pushed to her limits, Ammu teams up with an unlikely ally to break free.</t>
+  </si>
+  <si>
+    <t>movie_posters/968732.jpg</t>
+  </si>
+  <si>
+    <t>2022 | Drama | 2h 16m</t>
+  </si>
+  <si>
+    <t>Wolf Warrior</t>
+  </si>
+  <si>
+    <t>Wu Jing</t>
+  </si>
+  <si>
+    <t>Wu Jing, Liu Yi, Dong Qun, Gao Yan</t>
+  </si>
+  <si>
+    <t>Wu Jing, Scott Adkins, Yu Nan</t>
+  </si>
+  <si>
+    <t>A Chinese special force soldier with extraordinary marksmanship is confronted by a group of deadly foreign mercenaries who are hired to assassinate him by a vicious drug lord.</t>
+  </si>
+  <si>
+    <t>movie_posters/335462.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Action/War/Thriller | 1h 30m</t>
+  </si>
+  <si>
+    <t>Perfect Stranger</t>
+  </si>
+  <si>
+    <t>James Foley</t>
+  </si>
+  <si>
+    <t>Todd Komarnicki, Jon Bokenkamp</t>
+  </si>
+  <si>
+    <t>Halle Berry, Bruce Willis, Giovanni Ribisi</t>
+  </si>
+  <si>
+    <t>A journalist goes undercover to ferret out businessman Harrison Hill as her best friend's killer. Posing as one of his temps, she enters into a game of online cat-and-mouse.</t>
+  </si>
+  <si>
+    <t>movie_posters/7183.jpg</t>
+  </si>
+  <si>
+    <t>2007 | Thriller/Crime/Mystery | 1h 49m</t>
+  </si>
+  <si>
+    <t>Secret Window</t>
+  </si>
+  <si>
+    <t>David Koepp</t>
+  </si>
+  <si>
+    <t>Stephen King, David Koepp</t>
+  </si>
+  <si>
+    <t>Johnny Depp, John Turturro, Maria Bello</t>
+  </si>
+  <si>
+    <t>Mort Rainey, a writer just emerging from a painful divorce with his ex-wife, is stalked at his remote lake house by a psychotic stranger and would-be scribe who claims Rainey swiped his best story idea. But as Rainey endeavors to prove his innocence, he begins to question his own sanity.</t>
+  </si>
+  <si>
+    <t>movie_posters/1586.jpg</t>
+  </si>
+  <si>
+    <t>2004 | Mystery/Thriller | 1h 36m</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>Vikramaditya Motwane</t>
+  </si>
+  <si>
+    <t>Sumukhi Suresh, Avinash Sampath, Vikramaditya Motwane, Avinash Sampath, Anvita Dutt</t>
+  </si>
+  <si>
+    <t>Ananya Panday, Vihaan Samat, Devika Vatsa</t>
+  </si>
+  <si>
+    <t>Nella and Joe are the perfect influencer couple. But when he cheats on her, she turns to an AI app to erase him from her life â€” until it takes control.</t>
+  </si>
+  <si>
+    <t>movie_posters/1146577.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Thriller/Drama | 1h 39m</t>
+  </si>
+  <si>
+    <t>Code Geass: Akito the Exiled 3: The Brightness Falls</t>
+  </si>
+  <si>
+    <t>Kazuki Akane</t>
+  </si>
+  <si>
+    <t>Kazuki Akane, Miya Asakawa, Goro Taniguchi, Hiroshi Onogi, Ichiro Okouchi</t>
+  </si>
+  <si>
+    <t>Miyu Irino, Maaya Sakamoto, Satoshi Hino</t>
+  </si>
+  <si>
+    <t>After discovering the face of their true enemy, someone who is related to Akito and responsible for the Geass placed upon him, W-0 attempts to return to their base at Castle Weisswolf. However, stranded in Warsaw due to a complication involving their military identification, they are forced to accept the help of local gypsies, allowing the squad to take some time to deepen their bonds. Meanwhile, Britannian advisor Julius Kingsley and his guard Suzaku Kururugi begin working together with the Knights of St. Michael in order to crush the European resistance once and for all, armed with the destructive power of a giant weapon known as the Ark Fleet.</t>
+  </si>
+  <si>
+    <t>movie_posters/347200.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Action/Animation/Science Fiction | 1h 0m</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>Reinhard Klooss</t>
+  </si>
+  <si>
+    <t>Reinhard Klooss, Jessica Postigo, Yoni Brenner, Edgar Rice Burroughs</t>
+  </si>
+  <si>
+    <t>Kellan Lutz, Spencer Locke, Les Bubb</t>
+  </si>
+  <si>
+    <t>One of the most classic and revered stories of all time, Edgar Rice Burroughs' Tarzan returns to the big screen for a new generation. Tarzan and Jane face a mercenary army dispatched by the evil CEO of Greystoke Energies, a man who took over the company from Tarzan's parents, after they died in a plane crash in the African jungle.</t>
+  </si>
+  <si>
+    <t>movie_posters/230222.jpg</t>
+  </si>
+  <si>
+    <t>2013 | Animation/Action/Adventure/Family | 1h 34m</t>
+  </si>
+  <si>
+    <t>The Dead Zone</t>
+  </si>
+  <si>
+    <t>David Cronenberg</t>
+  </si>
+  <si>
+    <t>Stephen King, Jeffrey Boam</t>
+  </si>
+  <si>
+    <t>Christopher Walken, Brooke Adams, Tom Skerritt</t>
+  </si>
+  <si>
+    <t>Johnny Smith is a schoolteacher with his whole life ahead of him but, after leaving his fiancee's home one night, is involved in a car crash which leaves him in a coma for 5 years. When he wakes, he discovers he has an ability to see into the past, present and future life of anyone with whom he comes into physical contact.</t>
+  </si>
+  <si>
+    <t>movie_posters/11336.jpg</t>
+  </si>
+  <si>
+    <t>1983 | Thriller/Horror/Science Fiction | 1h 43m</t>
+  </si>
+  <si>
+    <t>SPL: Kill Zone</t>
+  </si>
+  <si>
+    <t>Wilson Yip</t>
+  </si>
+  <si>
+    <t>Jack Ng Wai-Lun, Szeto Kam-Yuen, Wilson Yip</t>
+  </si>
+  <si>
+    <t>Donnie Yen, Sammo Hung, Simon Yam</t>
+  </si>
+  <si>
+    <t>Chan, an articulate senior detective nearing the end of his career, is taking care of the daughter of a witness killed by ruthless crime lord Po. Martial arts expert Ma is set to take over as head of the crime unit, replacing Chan who wants an early retirement.</t>
+  </si>
+  <si>
+    <t>movie_posters/13127.jpg</t>
+  </si>
+  <si>
+    <t>2005 | Action/Crime/Drama/Thriller | 1h 33m</t>
+  </si>
+  <si>
+    <t>Lavalantula</t>
+  </si>
+  <si>
+    <t>Mike Mendez</t>
+  </si>
+  <si>
+    <t>Ashley O'Neil, Neil Elman, Mike Mendez</t>
+  </si>
+  <si>
+    <t>Steve Guttenberg, Nia Peeples, Patrick Renna</t>
+  </si>
+  <si>
+    <t>Giant lava breathing tarantulas â€“ Lavalantulas â€“ erupt out of ancient volcanos in the Santa Monica Mountains, raining death and destruction upon Los Angeles. With the City of Angels on the verge of incineration, only a washed up â€˜90s action hero actor stands in the way of this monstrous swarm of bloodthirsty creatures who burn their victims alive.</t>
+  </si>
+  <si>
+    <t>movie_posters/294562.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Horror/Science Fiction/Thriller | 1h 23m</t>
+  </si>
+  <si>
+    <t>Short Cuts</t>
+  </si>
+  <si>
+    <t>Robert Altman</t>
+  </si>
+  <si>
+    <t>Robert Altman, Raymond Carver, Frank Barhydt</t>
+  </si>
+  <si>
+    <t>Andie MacDowell, Bruce Davison, Jack Lemmon</t>
+  </si>
+  <si>
+    <t>Many loosely connected characters cross paths in this film, based on the stories of Raymond Carver. Waitress Doreen Piggot accidentally runs into a boy with her car. Soon after walking away, the child lapses into a coma. While at the hospital, the boy's grandfather tells his son, Howard, about his past affairs. Meanwhile, a baker starts harassing the family when they fail to pick up the boy's birthday cake.</t>
+  </si>
+  <si>
+    <t>movie_posters/695.jpg</t>
+  </si>
+  <si>
+    <t>1993 | Drama/Comedy | 3h 8m</t>
+  </si>
+  <si>
+    <t>Drugstore Cowboy</t>
+  </si>
+  <si>
+    <t>Gus Van Sant</t>
+  </si>
+  <si>
+    <t>Daniel Yost, Gus Van Sant, James Fogle</t>
+  </si>
+  <si>
+    <t>Matt Dillon, Kelly Lynch, James Remar</t>
+  </si>
+  <si>
+    <t>Portland, Oregon, 1971. Bob Hughes is the charismatic leader of a peculiar quartet, formed by his wife, Dianne, and another couple, Rick and Nadine, who skillfully steal from drugstores and hospital medicine cabinets in order to appease their insatiable need for drugs. But neither fun nor luck last forever.</t>
+  </si>
+  <si>
+    <t>movie_posters/476.jpg</t>
+  </si>
+  <si>
+    <t>1989 | Drama/Crime | 1h 42m</t>
+  </si>
+  <si>
+    <t>Beezel</t>
+  </si>
+  <si>
+    <t>Aaron Fradkin</t>
+  </si>
+  <si>
+    <t>Aaron Fradkin, Victoria Fratz Fradkin</t>
+  </si>
+  <si>
+    <t>Bob Gallagher, LeJon Woods, Nicolas Robin</t>
+  </si>
+  <si>
+    <t>Over six tumultuous decades, three unwitting guests of a cursed New England home stumble upon a sinister secret dwelling beneath its floors - an eternal witch with an insatiable thirst for the flesh of the living.</t>
+  </si>
+  <si>
+    <t>movie_posters/1291594.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Horror/Thriller | 1h 22m</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>Tom Hooper</t>
+  </si>
+  <si>
+    <t>T. S. Eliot, Lee Hall, T. S. Eliot, Andrew Lloyd Webber, Tom Hooper, Taylor Swift, Trevor Nunn</t>
+  </si>
+  <si>
+    <t>Francesca Hayward, Judi Dench, Idris Elba</t>
+  </si>
+  <si>
+    <t>A tribe of cats called the Jellicles must decide yearly which one will ascend to the Heaviside Layer and come back to a new Jellicle life.</t>
+  </si>
+  <si>
+    <t>movie_posters/536869.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Fantasy/Comedy/Drama | 1h 50m</t>
+  </si>
+  <si>
+    <t>A Wind Named Amnesia</t>
+  </si>
+  <si>
+    <t>Kazuo Yamazaki</t>
+  </si>
+  <si>
+    <t>Hideyuki Kikuchi, Kenji Kurata, Kazuo Yamazaki, Yoshiaki Kawajiri</t>
+  </si>
+  <si>
+    <t>Kazuki Yao, Keiko Toda, Kappei Yamaguchi</t>
+  </si>
+  <si>
+    <t>A wind has swept the Earth taking all the memories from everyone. No one knows who they are, how to speak, or how to use the tools of modern civilization. Two years later, a young man who has been re-educated travels across America on a mysterious journey.</t>
+  </si>
+  <si>
+    <t>movie_posters/42070.jpg</t>
+  </si>
+  <si>
+    <t>1990 | Animation/Drama/Science Fiction | 1h 20m</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t>Mark Burman</t>
+  </si>
+  <si>
+    <t>Johnny Lozano, Michael McClung, Mark Burman</t>
+  </si>
+  <si>
+    <t>Jonathan Rhys Meyers, Connor Paolo, Aaron Eckhart</t>
+  </si>
+  <si>
+    <t>When a small outpost is ambushed, a US Army squad must take the battle below ground on a high-stakes mission in a new type of warfare the likes of which they have never seen.</t>
+  </si>
+  <si>
+    <t>movie_posters/1074034.jpg</t>
+  </si>
+  <si>
+    <t>2023 | War/Action/Thriller | 1h 44m</t>
+  </si>
+  <si>
+    <t>All Your Faces</t>
+  </si>
+  <si>
+    <t>Jeanne Herry</t>
+  </si>
+  <si>
+    <t>GaÃ«lle MacÃ©, Jeanne Herry</t>
+  </si>
+  <si>
+    <t>Birane Ba, LeÃ¯la Bekhti, Anne BenoÃ®t</t>
+  </si>
+  <si>
+    <t>Since 2014, France's restorative justice programmes have offered a safe space for supervised dialogue between offenders and victims. GrÃ©goire, Nawelle, and Sabine, victims of heists and violent robberies, agree to join one of these discussion groups alongside offenders Nassim, Issa, and Thomas, all convicted of violent robberies. Meanwhile ChloÃ©, a victim of childhood sexual abuse, prepares for dialogue with her own agressor after learning he has moved back into town.</t>
+  </si>
+  <si>
+    <t>movie_posters/1000492.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Drama | 1h 55m</t>
+  </si>
+  <si>
+    <t>Judgment Night</t>
+  </si>
+  <si>
+    <t>Stephen Hopkins</t>
+  </si>
+  <si>
+    <t>Lewis Colick, Lewis Colick, Jere Cunningham</t>
+  </si>
+  <si>
+    <t>Emilio Estevez, Cuba Gooding Jr., Denis Leary</t>
+  </si>
+  <si>
+    <t>Four young friends, while taking a shortcut en route to a local boxing match, witness a brutal murder which leaves them running for their lives.</t>
+  </si>
+  <si>
+    <t>movie_posters/6.jpg</t>
+  </si>
+  <si>
+    <t>1993 | Action/Crime/Thriller | 1h 49m</t>
+  </si>
+  <si>
+    <t>Krrish</t>
+  </si>
+  <si>
+    <t>Rakesh Roshan</t>
+  </si>
+  <si>
+    <t>Ibrahim Ashq, Vijay Akela, Sanjay Masoom, Akarsh Khurana, Sachin Bhowmick, Nasir Faraaz, Rakesh Roshan, Rakesh Roshan, Honey Irani, Robin Bhatt</t>
+  </si>
+  <si>
+    <t>Hrithik Roshan, Priyanka Chopra Jonas, Rekha</t>
+  </si>
+  <si>
+    <t>In Singapore, Krishna is forced by circumstances to use his superpowers and become a masked superhero named Krrish, before getting drawn towards his lost legacy.</t>
+  </si>
+  <si>
+    <t>movie_posters/32740.jpg</t>
+  </si>
+  <si>
+    <t>2006 | Action/Science Fiction | 2h 54m</t>
+  </si>
+  <si>
+    <t>High Lane</t>
+  </si>
+  <si>
+    <t>Abel Ferry</t>
+  </si>
+  <si>
+    <t>Johanne Bernard, Louis-Paul Desanges, Ludovic du Clary</t>
+  </si>
+  <si>
+    <t>Fanny Valette, Johan LibÃ©reau, Maud Wyler</t>
+  </si>
+  <si>
+    <t>A group of friends on a climbing vacation ignore warnings that the mountains are closed and start their ascent anyway. Collapsing bridges, bear traps and other dangers threaten to splinter the groupâ€¦ when the real hell begins and an unseen villain begins picking them off one by one.</t>
+  </si>
+  <si>
+    <t>movie_posters/30974.jpg</t>
+  </si>
+  <si>
+    <t>2009 | Action/Thriller/Horror | 1h 30m</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Burt Reynolds</t>
+  </si>
+  <si>
+    <t>Elmore Leonard, Elmore Leonard, Joseph Stinson</t>
+  </si>
+  <si>
+    <t>Burt Reynolds, Candice Bergen, George Segal</t>
+  </si>
+  <si>
+    <t>After getting out of jail, car thief Ernest "Stick" Stickley witnesses the murder of his friend Rainy during a drug deal. To avoid getting killed by the same people, who work for mobster Chucky, Stick gets a job as a chauffeur for millionaire Barry Braham and lies low. As he gets used to his new routine, Stick woos Barry's financial consultant, Kyle McClaren, but must fight back when Chucky's men come after him.</t>
+  </si>
+  <si>
+    <t>movie_posters/32387.jpg</t>
+  </si>
+  <si>
+    <t>1985 | Action/Drama/Crime | 1h 49m</t>
+  </si>
+  <si>
+    <t>Nightbreed</t>
+  </si>
+  <si>
+    <t>Clive Barker</t>
+  </si>
+  <si>
+    <t>Clive Barker, Clive Barker</t>
+  </si>
+  <si>
+    <t>Craig Sheffer, Anne Bobby, David Cronenberg</t>
+  </si>
+  <si>
+    <t>A troubled young man is drawn to a mythical place called Midian where a variety of friendly monsters are hiding from humanity. Meanwhile, a sadistic serial killer is looking for a patsy.</t>
+  </si>
+  <si>
+    <t>movie_posters/20481.jpg</t>
+  </si>
+  <si>
+    <t>1990 | Horror/Fantasy/Action | 2h 1m</t>
+  </si>
+  <si>
+    <t>Sidekicks</t>
+  </si>
+  <si>
+    <t>Aaron Norris</t>
+  </si>
+  <si>
+    <t>Lou Illar, Lou Illar, Galen Thompson</t>
+  </si>
+  <si>
+    <t>Jonathan Brandis, Chuck Norris, Beau Bridges</t>
+  </si>
+  <si>
+    <t>Asthmatic teenager Barry Gabrewski is a daydreamer. Troubled by bullying, he escapes into a fantasy world where he is the sidekick to his martial arts hero, Chuck Norris, in a series of high-octane adventures taken right out of his movies. With help from his teacher's wise old uncle, Mr. Lee, Barry learns the finer points of martial arts and enters a karate championship.</t>
+  </si>
+  <si>
+    <t>movie_posters/22590.jpg</t>
+  </si>
+  <si>
+    <t>1992 | Action/Adventure/Drama/Family | 1h 41m</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>Clive A. Smith</t>
+  </si>
+  <si>
+    <t>Astrid Lindgren, Catharina Stackelberg</t>
+  </si>
+  <si>
+    <t>Melissa Altro, Catherine O'Hara, Gordon Pinsent</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking is an extraordinary little girl who lives alone in her house, while her father sails the seven seas. Pippi's irrepressibly fun nature makes her easy to befriend, as neighbors Tommy and Annika find, but can also earn ire, especially from social worker Mrs. Prysselius.</t>
+  </si>
+  <si>
+    <t>movie_posters/12630.jpg</t>
+  </si>
+  <si>
+    <t>1997 | Adventure/Animation/Comedy/Family | 1h 16m</t>
+  </si>
+  <si>
+    <t>Rang De Basanti</t>
+  </si>
+  <si>
+    <t>Rakeysh Omprakash Mehra</t>
+  </si>
+  <si>
+    <t>Rakeysh Omprakash Mehra, Renzil D'Silva, Kamlesh Pandey</t>
+  </si>
+  <si>
+    <t>Aamir Khan, Siddharth, Kunal Kapoor</t>
+  </si>
+  <si>
+    <t>After a group of friends graduate from Delhi University, they listlessly haunt their old campus, until a British filmmaker casts them in a film she's making about freedom fighters under British rule. Although the group is largely apolitical, the tragic death of a friend owing to local government corruption awakens their patriotism. Inspired by the freedom fighters they represent in the film, the friends collectively decide to avenge the killing.</t>
+  </si>
+  <si>
+    <t>movie_posters/7913.jpg</t>
+  </si>
+  <si>
+    <t>2006 | Comedy/Drama/History/Romance | 2h 37m</t>
+  </si>
+  <si>
+    <t>The Garden of Sinners: Paradox Spiral</t>
+  </si>
+  <si>
+    <t>Takayuki Hirao</t>
+  </si>
+  <si>
+    <t>Kinoko Nasu, Masaki Hiramatsu</t>
+  </si>
+  <si>
+    <t>Maaya Sakamoto, Kenichi Suzumura, Jouji Nakata</t>
+  </si>
+  <si>
+    <t>In the middle of October 1998, Tomoe Enjou is attacked by bullies from his old school and saved by Shiki Ryougi. He asks her to hide him at her place and admits that he killed someone. Several days after the incident there are still no broadcasts about the murder as if it didn't happen.</t>
+  </si>
+  <si>
+    <t>movie_posters/23155.jpg</t>
+  </si>
+  <si>
+    <t>2008 | Action/Animation/Drama/Mystery/Thriller/Fantasy | 1h 54m</t>
+  </si>
+  <si>
+    <t>The Brown Bunny</t>
+  </si>
+  <si>
+    <t>Vincent Gallo</t>
+  </si>
+  <si>
+    <t>Vincent Gallo, ChloÃ« Sevigny, Cheryl Tiegs</t>
+  </si>
+  <si>
+    <t>Bud Clay races motorcycles in the 250cc Formula II class of road racing. After a race in New Hampshire, he has five days to get to his next race in California. During his road trip, he is haunted by memories of the last time he saw Daisy, his true love.</t>
+  </si>
+  <si>
+    <t>movie_posters/12703.jpg</t>
+  </si>
+  <si>
+    <t>2003 | Drama | 1h 33m</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Matteo Garrone</t>
+  </si>
+  <si>
+    <t>Matteo Garrone, Carlo Collodi, Massimo Ceccherini</t>
+  </si>
+  <si>
+    <t>Federico Ielapi, Roberto Benigni, Marine Vacth</t>
+  </si>
+  <si>
+    <t>In this live-action adaptation of the beloved fairytale, old woodcarver Geppetto fashions a wooden puppet, Pinocchio, who magically comes to life. Pinocchio longs for adventure and is easily led astray, encountering magical beasts, fantastical spectacles, while making friends and foes along his journey. However, his dream is to become a real boy, which can only come true if he finally changes his ways.</t>
+  </si>
+  <si>
+    <t>movie_posters/413518.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Drama/Family/Fantasy | 2h 4m</t>
+  </si>
+  <si>
+    <t>God's Not Dead 2</t>
+  </si>
+  <si>
+    <t>Harold Cronk</t>
+  </si>
+  <si>
+    <t>Chuck Konzelman, Cary Solomon</t>
+  </si>
+  <si>
+    <t>Jesse Metcalfe, Robin Givens, Melissa Joan Hart</t>
+  </si>
+  <si>
+    <t>When a high school teacher is asked a question in class about Jesus, her reasoned response lands her in deep trouble and could expel God from the public square once and for all.</t>
+  </si>
+  <si>
+    <t>movie_posters/347126.jpg</t>
+  </si>
+  <si>
+    <t>2016 | Drama | 2h 1m</t>
+  </si>
+  <si>
+    <t>Mean Streets</t>
+  </si>
+  <si>
+    <t>Martin Scorsese</t>
+  </si>
+  <si>
+    <t>Mardik Martin, Martin Scorsese, Martin Scorsese</t>
+  </si>
+  <si>
+    <t>Harvey Keitel, Robert De Niro, David Proval</t>
+  </si>
+  <si>
+    <t>A small-time hood must choose from among love, friendship and the chance to rise within the mob.</t>
+  </si>
+  <si>
+    <t>movie_posters/203.jpg</t>
+  </si>
+  <si>
+    <t>1973 | Drama/Crime | 1h 51m</t>
+  </si>
+  <si>
+    <t>The Bullet Train</t>
+  </si>
+  <si>
+    <t>Junya SatÅ</t>
+  </si>
+  <si>
+    <t>Arei KatÃ´, RyÅ«nosuke Ono, Junya SatÅ</t>
+  </si>
+  <si>
+    <t>Ken Takakura, Sonny Chiba, Kei Yamamoto</t>
+  </si>
+  <si>
+    <t>A Japanese bullet train is threatened with a bomb that will explode automatically if the train slows below 80 km/h, unless a ransom is paid. Police race to find the bombers so the train crew can learn how to defuse the bomb.</t>
+  </si>
+  <si>
+    <t>movie_posters/47634.jpg</t>
+  </si>
+  <si>
+    <t>1975 | Action/Crime/Drama/Thriller | 2h 32m</t>
+  </si>
+  <si>
+    <t>Toc Toc</t>
+  </si>
+  <si>
+    <t>Vicente Villanueva</t>
+  </si>
+  <si>
+    <t>Vicente Villanueva, Laurent Baffie</t>
+  </si>
+  <si>
+    <t>Alexandra JimÃ©nez, Paco LeÃ³n, Rossy de Palma</t>
+  </si>
+  <si>
+    <t>A group of patients meet at a prestigious psychologist's office. Apart from the day and time of the appointment, something else unites them all: all six suffer from OCD. But the plane bringing the doctor is unexpectedly delayed, which forces them to spend an endless wait until the doctor shows up. Will they be able to keep their manias, impulses, convulsions, obsessions and rituals at bay during the wait?</t>
+  </si>
+  <si>
+    <t>movie_posters/437033.jpg</t>
+  </si>
+  <si>
+    <t>2017 | Comedy | 1h 32m</t>
+  </si>
+  <si>
+    <t>Mighty Morphin Power Rangers: The Movie</t>
+  </si>
+  <si>
+    <t>Bryan Spicer</t>
+  </si>
+  <si>
+    <t>Arne Olsen, John Kamps, Arne Olsen</t>
+  </si>
+  <si>
+    <t>David Yost, Steve Cardenas, Amy Jo Johnson</t>
+  </si>
+  <si>
+    <t>Six incredible teens out-maneuver and defeat evil everywhere as the Mighty Morphin Power Rangers, but this time the Power Rangers may have met their match when they face off with Ivan Ooze, the most sinister monster the galaxy has ever seen.</t>
+  </si>
+  <si>
+    <t>movie_posters/9070.jpg</t>
+  </si>
+  <si>
+    <t>1995 | Action/Adventure/Science Fiction/Fantasy | 1h 36m</t>
+  </si>
+  <si>
+    <t>Last Stop: Rocafort St.</t>
+  </si>
+  <si>
+    <t>Luis Prieto</t>
+  </si>
+  <si>
+    <t>IvÃ¡n Ledesma, Luis Prieto, Ãngel Agudo</t>
+  </si>
+  <si>
+    <t>Natalia Azahara, Javier GutiÃ©rrez, ValÃ¨ria Sorolla</t>
+  </si>
+  <si>
+    <t>Laura has recently started working in the Barcelona subway. She has been assigned the old and quiet Rocafort station, but it won't be long before she discovers that this stop harbors a legend that will begin to haunt her: many people have died there in strange circumstances over the years and no one seems to be interested in knowing the truth.</t>
+  </si>
+  <si>
+    <t>movie_posters/1276210.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Horror/Mystery | 1h 29m</t>
+  </si>
+  <si>
+    <t>UglyDolls</t>
+  </si>
+  <si>
+    <t>Kelly Asbury</t>
+  </si>
+  <si>
+    <t>David Horvath, Sun-Min Kim, Paul McEvoy, Alison Peck, Robert Rodriguez</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson, Janelle MonÃ¡e, Blake Shelton</t>
+  </si>
+  <si>
+    <t>In the adorably different town of Uglyville, weirdness is celebrated, strangeness is special and beauty is embraced as more than meets the eye. After traveling to the other side of a mountain, Moxy and her UglyDoll friends discover Perfection -- a town where more conventional dolls receive training before entering the real world to find the love of a child.</t>
+  </si>
+  <si>
+    <t>movie_posters/454458.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Animation/Music/Family/Comedy | 1h 28m</t>
+  </si>
+  <si>
+    <t>Driving Miss Daisy</t>
+  </si>
+  <si>
+    <t>Bruce Beresford</t>
+  </si>
+  <si>
+    <t>Alfred Uhry, Alfred Uhry</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Jessica Tandy, Dan Aykroyd</t>
+  </si>
+  <si>
+    <t>The story of an old Jewish widow named Daisy Werthan and her relationship with her black chauffeur, Hoke. From an initial mere work relationship grew in 25 years a strong friendship between the two very different characters, in a time when those types of relationships were shunned.</t>
+  </si>
+  <si>
+    <t>movie_posters/403.jpg</t>
+  </si>
+  <si>
+    <t>1989 | Drama | 1h 39m</t>
+  </si>
+  <si>
+    <t>The Ash Lad: In the Hall of the Mountain King</t>
+  </si>
+  <si>
+    <t>Mikkel BrÃ¦nne Sandemose</t>
+  </si>
+  <si>
+    <t>Aleksander Kirkwood Brown, Espen Enger</t>
+  </si>
+  <si>
+    <t>VebjÃ¸rn Enger, Mads SjÃ¸gÃ¥rd Pettersen, Elias Holmen SÃ¸rensen</t>
+  </si>
+  <si>
+    <t>Espen â€œAsh Ladâ€, a poor farmerâ€™s son, embarks on a dangerous quest with his brothers to save the princess from a vile troll known as the Mountain King â€“ in order to collect a reward and save his familyâ€™s farm from ruin.</t>
+  </si>
+  <si>
+    <t>movie_posters/444090.jpg</t>
+  </si>
+  <si>
+    <t>2017 | Adventure/Fantasy | 1h 40m</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>Oliver Parker</t>
+  </si>
+  <si>
+    <t>Toby Finlay, Oscar Wilde</t>
+  </si>
+  <si>
+    <t>Ben Barnes, Colin Firth, Rebecca Hall</t>
+  </si>
+  <si>
+    <t>Seduced into the decadent world of Lord Henry Wotton, handsome young aristocrat Dorian Gray becomes obsessed with maintaining his youthful appearance, and commissions a special portrait that will weather the winds of time while he remains forever young. When Gray's obsession spirals out of control, his desperate attempts to safeguard his secret turn his once-privileged life into a living hell.</t>
+  </si>
+  <si>
+    <t>movie_posters/23488.jpg</t>
+  </si>
+  <si>
+    <t>2009 | Fantasy/Drama/Thriller | 1h 52m</t>
+  </si>
+  <si>
+    <t>The Family Stone</t>
+  </si>
+  <si>
+    <t>Thomas Bezucha</t>
+  </si>
+  <si>
+    <t>Dermot Mulroney, Sarah Jessica Parker, Diane Keaton</t>
+  </si>
+  <si>
+    <t>An uptight, conservative businesswoman accompanies her boyfriend to his eccentric and outgoing family's annual Christmas celebration and finds that she's a fish out of water in their free-spirited way of life.</t>
+  </si>
+  <si>
+    <t>movie_posters/9043.jpg</t>
+  </si>
+  <si>
+    <t>2005 | Comedy/Drama/Romance | 1h 43m</t>
+  </si>
+  <si>
+    <t>The Gospel of John</t>
+  </si>
+  <si>
+    <t>Philip Saville</t>
+  </si>
+  <si>
+    <t>John Goldsmith</t>
+  </si>
+  <si>
+    <t>Christopher Plummer, Henry Ian Cusick, Stuart Bunce</t>
+  </si>
+  <si>
+    <t>A word for word depiction of the life of Jesus Christ from the Good News Translation Bible as recorded in the Gospel of John.</t>
+  </si>
+  <si>
+    <t>movie_posters/30973.jpg</t>
+  </si>
+  <si>
+    <t>2003 | Drama | 3h 0m</t>
+  </si>
+  <si>
+    <t>Wild Strawberries</t>
+  </si>
+  <si>
+    <t>Ingmar Bergman</t>
+  </si>
+  <si>
+    <t>Victor SjÃ¶strÃ¶m, Bibi Andersson, Ingrid Thulin</t>
+  </si>
+  <si>
+    <t>Crotchety retired doctor Isak Borg travels from Stockholm to Lund, Sweden, with his pregnant and unhappy daughter-in-law, Marianne, in order to receive an honorary degree from his alma mater. Along the way, they encounter a series of hitchhikers, each of whom causes the elderly doctor to muse upon the pleasures and failures of his own life. These include the vivacious young Sara, a dead ringer for the doctor's own first love.</t>
+  </si>
+  <si>
+    <t>movie_posters/614.jpg</t>
+  </si>
+  <si>
+    <t>1957 | Drama | 1h 31m</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>Jackie Chan, Edward Tang, James Wong Jim</t>
+  </si>
+  <si>
+    <t>Jackie Chan, Sammo Hung, Yuen Biao</t>
+  </si>
+  <si>
+    <t>In late 19th century Hong Kong, the British may rule the land, but the pirates rule the waters. Coast Guard officer Dragon Ma is determined that his beloved Coast Guard will not be made a fool of.</t>
+  </si>
+  <si>
+    <t>movie_posters/21519.jpg</t>
+  </si>
+  <si>
+    <t>1983 | Action/Adventure/Comedy | 1h 44m</t>
+  </si>
+  <si>
+    <t>Tremors 4: The Legend Begins</t>
+  </si>
+  <si>
+    <t>S.S. Wilson</t>
+  </si>
+  <si>
+    <t>Brent Maddock, Scott Buck, Ron Underwood, S.S. Wilson</t>
+  </si>
+  <si>
+    <t>Michael Gross, Sara Botsford, Billy Drago</t>
+  </si>
+  <si>
+    <t>In 1889, seventeen men die under mysterious circumstances, and spooked by recent events, the miners who populate the town leave in droves until there's nothing left but a shell of a community.</t>
+  </si>
+  <si>
+    <t>movie_posters/10891.jpg</t>
+  </si>
+  <si>
+    <t>2004 | Action/Comedy/Horror/Western | 1h 41m</t>
+  </si>
+  <si>
+    <t>A Hard Day</t>
+  </si>
+  <si>
+    <t>Kim Seong-hun</t>
+  </si>
+  <si>
+    <t>Kwak Jieong-duk, Lee Hae-jun, Kim Seong-hun, Jang Hang-jun</t>
+  </si>
+  <si>
+    <t>Lee Sun-kyun, Cho Jin-woong, Jeong Man-sik</t>
+  </si>
+  <si>
+    <t>After trying to cover up a car accident that left a man dead, a crooked homicide detective is stalked by a mysterious man claiming to have witnessed the event.</t>
+  </si>
+  <si>
+    <t>movie_posters/269494.jpg</t>
+  </si>
+  <si>
+    <t>2014 | Crime/Thriller/Mystery/Action | 1h 51m</t>
+  </si>
+  <si>
+    <t>The Circle</t>
+  </si>
+  <si>
+    <t>James Ponsoldt</t>
+  </si>
+  <si>
+    <t>Dave Eggers, James Ponsoldt, Dave Eggers</t>
+  </si>
+  <si>
+    <t>Emma Watson, Tom Hanks, John Boyega</t>
+  </si>
+  <si>
+    <t>A young tech worker takes a job at a powerful Internet corporation, quickly rises up the company's ranks, and soon finds herself in a perilous situation concerning privacy, surveillance and freedom. She comes to learn that her decisions and actions will determine the future of humanity.</t>
+  </si>
+  <si>
+    <t>movie_posters/339988.jpg</t>
+  </si>
+  <si>
+    <t>2017 | Drama/Thriller/Science Fiction | 1h 50m</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda: Secrets of the Furious Five</t>
+  </si>
+  <si>
+    <t>Raman Hui Shing-Ngai</t>
+  </si>
+  <si>
+    <t>Andy Schuhler, Stephan Franck, Paul McEvoy, Todd Berger</t>
+  </si>
+  <si>
+    <t>Jack Black, Dustin Hoffman, David Cross</t>
+  </si>
+  <si>
+    <t>Ordered to teach a martial arts class of rambunctious bunny kittens, Po tells stories of each of the Furious Five's pasts.</t>
+  </si>
+  <si>
+    <t>movie_posters/15854.jpg</t>
+  </si>
+  <si>
+    <t>2008 | Animation/Family/Action | 25m</t>
+  </si>
+  <si>
+    <t>Do You Believe?</t>
+  </si>
+  <si>
+    <t>Jon Gunn</t>
+  </si>
+  <si>
+    <t>Tracy Melchior, Mira Sorvino, Sean Astin</t>
+  </si>
+  <si>
+    <t>When a pastor is shaken by the visible faith of a street-corner preacher, he is reminded that true belief always requires action. His response ignites a journey that impacts everyone it touches in ways that only God could orchestrate.</t>
+  </si>
+  <si>
+    <t>movie_posters/309425.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Drama | 1h 55m</t>
+  </si>
+  <si>
+    <t>Eye in the Sky</t>
+  </si>
+  <si>
+    <t>Gavin Hood</t>
+  </si>
+  <si>
+    <t>Guy Hibbert</t>
+  </si>
+  <si>
+    <t>Helen Mirren, Aaron Paul, Alan Rickman</t>
+  </si>
+  <si>
+    <t>A UK-based military officer in command of a top secret drone operation to capture terrorists in Kenya discovers the targets are planning a suicide bombing and the mission escalates from â€œcaptureâ€ to â€œkill.â€ As American pilot Steve Watts is about to engage, a nine-year old girl enters the kill zone, triggering an international dispute reaching the highest levels of US and British government over the moral, political, and personal implications of modern warfare.</t>
+  </si>
+  <si>
+    <t>movie_posters/333352.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Drama/Thriller/War | 1h 42m</t>
+  </si>
+  <si>
+    <t>Mean Machine</t>
+  </si>
+  <si>
+    <t>Barry Skolnick</t>
+  </si>
+  <si>
+    <t>Andrew Day, Charlie Fletcher, Chris Baker, Tracy Keenan Wynn, Albert S. Ruddy</t>
+  </si>
+  <si>
+    <t>Vinnie Jones, David Kelly, David Hemmings</t>
+  </si>
+  <si>
+    <t>Disgraced ex-England football captain, Danny 'Mean Machine' Meehan, is thrown in jail for assaulting two police officers. He keeps his head down and has the opportunity to forget everything and change the lives of the prisoners. When these prisoners have the chance to put one over the evil guards during a prison football match, Danny takes the lead.</t>
+  </si>
+  <si>
+    <t>movie_posters/9991.jpg</t>
+  </si>
+  <si>
+    <t>2001 | Comedy/Drama | 1h 39m</t>
+  </si>
+  <si>
+    <t>My Brother's Wife 3: The Woman Downstairs</t>
+  </si>
+  <si>
+    <t>Lee Dol</t>
+  </si>
+  <si>
+    <t>Ahn So-hee, Sang Woo, Wi Ji-Woong</t>
+  </si>
+  <si>
+    <t>My sister and I moved into a new house. We didn't do much but the woman downstairs came up to ask us to keep it down.  She said she was sensitive so we decided to keep it down.  Her gangster husband would beat her when he came home drunk.  Every time I heard her suffer from the beatings, I couldn't stand it and would stomp the floor to create a distraction.  She would come up telling us to be quiet.  I told her I did it intentionally. I also decided to do something about the woman who showed interest in me by memorizing my number.</t>
+  </si>
+  <si>
+    <t>movie_posters/453133.jpg</t>
+  </si>
+  <si>
+    <t>2017 | Drama | 1h 30m</t>
+  </si>
+  <si>
+    <t>The Gift</t>
+  </si>
+  <si>
+    <t>Joel Edgerton</t>
+  </si>
+  <si>
+    <t>Joel Edgerton, Rebecca Hall, Jason Bateman</t>
+  </si>
+  <si>
+    <t>Simon and Robyn are a young married couple whose life is going as planned until a chance run-in with Simon's high school acquaintance sends their world into a tailspin.</t>
+  </si>
+  <si>
+    <t>movie_posters/328425.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Thriller/Mystery/Drama | 1h 48m</t>
+  </si>
+  <si>
+    <t>All About My Mother</t>
+  </si>
+  <si>
+    <t>Pedro AlmodÃ³var</t>
+  </si>
+  <si>
+    <t>Cecilia Roth, Marisa Paredes, Candela PeÃ±a</t>
+  </si>
+  <si>
+    <t>Following the tragic death of her teenage son, Manuela travels from Madrid to Barcelona in an attempt to contact the long-estranged father the boy never knew. She reunites with an old friend, an outspoken transgender sex worker, and befriends a troubled actress and a pregnant, HIV-positive nun.</t>
+  </si>
+  <si>
+    <t>movie_posters/99.jpg</t>
+  </si>
+  <si>
+    <t>1999 | Comedy/Drama | 1h 41m</t>
+  </si>
+  <si>
+    <t>Padre no hay mÃ¡s que uno 4: Campanas de boda</t>
+  </si>
+  <si>
+    <t>Santiago Segura</t>
+  </si>
+  <si>
+    <t>Marta GonzÃ¡lez de Vega, Santiago Segura, Juan Vera</t>
+  </si>
+  <si>
+    <t>Santiago Segura, Toni Acosta, Leo Harlem</t>
+  </si>
+  <si>
+    <t>The eldest of the family, Sara, comes of age and brings chaos to the family by announcing her intention to marry Ocho. Javier and Marisa try to avoid it at all costs. At the same time Dani has an existential crisis, Paulita feels jealous of Cris, Carlota announces that she has found a boyfriend from a high society family and Rocio has finally managed to be cast in her first film.</t>
+  </si>
+  <si>
+    <t>movie_posters/1030076.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Family/Comedy | 1h 39m</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Kim Han-kyul</t>
+  </si>
+  <si>
+    <t>Erik Ahrnbom, Cho Eu-gene, Kim Han-kyul, Han Jun-hee</t>
+  </si>
+  <si>
+    <t>Cho Jung-seok, Lee Ju-myoung, Han Seon-hwa</t>
+  </si>
+  <si>
+    <t>Han Jung-woo, a pilot with top-class skills, is flying high and even appears on a famous TV show. But everything comes crashing down when a careless mistake causes him to lose everything, even his job. Blacklisted in the industry, no airline is willing to hire him. Desperate with no other choice, Han Jung-woo transforms completely into his younger sister's identity and succeeds in landing a job as a pilot.</t>
+  </si>
+  <si>
+    <t>movie_posters/965094.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Comedy | 1h 51m</t>
+  </si>
+  <si>
+    <t>Dil Dhadakne Do</t>
+  </si>
+  <si>
+    <t>Zoya Akhtar</t>
+  </si>
+  <si>
+    <t>Zoya Akhtar, Farhan Akhtar, Zoya Akhtar, Javed Akhtar, Reema Kagti</t>
+  </si>
+  <si>
+    <t>Anil Kapoor, Shefali Shah, Priyanka Chopra Jonas</t>
+  </si>
+  <si>
+    <t>On a cruise to celebrate their parents' 30th wedding anniversary, a brother and sister deal with the impact of family considerations on their romantic lives.</t>
+  </si>
+  <si>
+    <t>movie_posters/338065.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Drama/Family/Romance | 2h 50m</t>
+  </si>
+  <si>
+    <t>The Summers of It - Chapter Two: It Ends</t>
+  </si>
+  <si>
+    <t>Constantine Nasr</t>
+  </si>
+  <si>
+    <t>Andy Muschietti, Barbara Muschietti, Bill SkarsgÃ¥rd</t>
+  </si>
+  <si>
+    <t>This documentary focuses on the actors and their journey over two summers to create the remake to the original IT, by Stephen King. The documentary originally released as bonus material, bundled with IT: Chapter Two.</t>
+  </si>
+  <si>
+    <t>movie_posters/661289.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Documentary | 40m</t>
+  </si>
+  <si>
+    <t>Martha Marcy May Marlene</t>
+  </si>
+  <si>
+    <t>Sean Durkin</t>
+  </si>
+  <si>
+    <t>Elizabeth Olsen, Sarah Paulson, Hugh Dancy</t>
+  </si>
+  <si>
+    <t>After several years of living with a cult, Martha finally escapes and calls her estranged sister, Lucy, for help. Martha finds herself at the quiet Connecticut home Lucy shares with her new husband, Ted, but the memories of what she experienced in the cult make peace hard to find. As flashbacks continue to torment her, Martha fails to shake a terrible sense of dread, especially in regard to the cult's manipulative leader.</t>
+  </si>
+  <si>
+    <t>movie_posters/50837.jpg</t>
+  </si>
+  <si>
+    <t>2011 | Drama/Thriller | 1h 41m</t>
+  </si>
+  <si>
+    <t>Before Midnight</t>
+  </si>
+  <si>
+    <t>Richard Linklater</t>
+  </si>
+  <si>
+    <t>Kim Krizan, Richard Linklater, Julie Delpy, Richard Linklater, Ethan Hawke</t>
+  </si>
+  <si>
+    <t>Ethan Hawke, Julie Delpy, Seamus Davey-Fitzpatrick</t>
+  </si>
+  <si>
+    <t>It has been nine years since we last met Jesse and Celine, the French-American couple who once met on a train in Vienna. They now live in Paris with twin daughters but have spent a summer in Greece at the invitation of an author colleague of Jesse's. When the vacation is over and Jesse must send his teenage son off to the States, he begins to question his life decisions, and his relationship with Celine is at risk.</t>
+  </si>
+  <si>
+    <t>movie_posters/132344.jpg</t>
+  </si>
+  <si>
+    <t>2013 | Romance/Drama | 1h 49m</t>
+  </si>
+  <si>
+    <t>Young Mother 5</t>
+  </si>
+  <si>
+    <t>Jeong Do-soo</t>
+  </si>
+  <si>
+    <t>Lee Eun-mi, Cheon Yoo-ji, Min Do-yoon</t>
+  </si>
+  <si>
+    <t>Ji-suk, a wealthy mother, wants to send her son, Se-hyuk, to the medical school. While looking for a competent private education coordination, Although it succeeded in recruiting a high-ranking entrance exam coordinator,'Starring', which only a few elite students selected. After hearing the rumors,'Namjae,' the father of Euntae, a high school examinee next door, hears rumors and comes to contact the main character. Like this, the parents of Se-hyeok and Eun-tae's neighbors 'Starring', who was in a difficult situation after entering a strange competition Eventually, I would share the day of the week to go to both houses to teach Se-hyuk and Eun-tae. Although they will agree with the two families, Eun Tae, who is a senior high school student, is in medical school. Not interested and only busy with high school girlfriends Se-hyuk starts talking to a beautiful tutor, starring than the entrance exam.</t>
+  </si>
+  <si>
+    <t>movie_posters/729097.jpg</t>
+  </si>
+  <si>
+    <t>2020 | Drama/Romance | 1h 35m</t>
+  </si>
+  <si>
+    <t>The Ugly Truth</t>
+  </si>
+  <si>
+    <t>Robert Luketic</t>
+  </si>
+  <si>
+    <t>Nicole Eastman, Karen McCullah</t>
+  </si>
+  <si>
+    <t>Katherine Heigl, Gerard Butler, Eric Winter</t>
+  </si>
+  <si>
+    <t>A romantically challenged morning show producer is reluctantly embroiled in a series of outrageous tests by her chauvinistic correspondent to prove his theories on relationships and help her find love. His clever ploys, however, lead to an unexpected result.</t>
+  </si>
+  <si>
+    <t>movie_posters/20943.jpg</t>
+  </si>
+  <si>
+    <t>2009 | Comedy/Romance | 1h 36m</t>
+  </si>
+  <si>
+    <t>Dragon Ball: Episode of Bardock</t>
+  </si>
+  <si>
+    <t>Yoshihiro Ueda</t>
+  </si>
+  <si>
+    <t>Makoto Koyama, Naho Ooishi, Akira Toriyama</t>
+  </si>
+  <si>
+    <t>Masako Nozawa, Ryusei Nakao, Houko Kuwashima</t>
+  </si>
+  <si>
+    <t>A spin-off scenario taking place after the events of the TV special Dragon Ball Z: Bardock - The Father of Goku, in which Bardock survives the destruction of Planet Vegeta and is sent into the past, combating Frieza's ancestor Chilled and turning into a Super Saiyan.</t>
+  </si>
+  <si>
+    <t>movie_posters/120475.jpg</t>
+  </si>
+  <si>
+    <t>2011 | Action/Animation/Science Fiction | 20m</t>
+  </si>
+  <si>
+    <t>High Rollers</t>
+  </si>
+  <si>
+    <t>Randall Emmett</t>
+  </si>
+  <si>
+    <t>Chris Sivertson</t>
+  </si>
+  <si>
+    <t>John Travolta, Gina Gershon, Lukas Haas</t>
+  </si>
+  <si>
+    <t>A master thief must pull off a dangerous casino heist when his nemesis kidnaps his lover. Caught between rival criminals and FBI pursuit, he risks all to save her and score big.</t>
+  </si>
+  <si>
+    <t>movie_posters/1149167.jpg</t>
+  </si>
+  <si>
+    <t>2025 | Action/Crime/Thriller | 1h 41m</t>
+  </si>
+  <si>
+    <t>Six Days Seven Nights</t>
+  </si>
+  <si>
+    <t>Ivan Reitman</t>
+  </si>
+  <si>
+    <t>Michael Browning</t>
+  </si>
+  <si>
+    <t>Anne Heche, Harrison Ford, David Schwimmer</t>
+  </si>
+  <si>
+    <t>In the South Pacific island of Makatea, career-driven magazine editor Robin Monroe is on a week-long vacation getaway with her boyfriend, Frank Martin. An emergency work assignment in neighboring Tahiti requires Robin to hire the cantankerous pilot Quinn Harris who had flown them to Makatea on a small transport plane. While flying, a powerful storm forces Quinn to make an emergency landing on a nearby deserted island. The dissimilar pair avoid each other at first, until they're forced to team up to escape from the island -- and some pirates who want their heads.</t>
+  </si>
+  <si>
+    <t>movie_posters/6068.jpg</t>
+  </si>
+  <si>
+    <t>1998 | Comedy/Action/Adventure/Romance | 1h 42m</t>
+  </si>
+  <si>
+    <t>The Aftermath</t>
+  </si>
+  <si>
+    <t>James Kent</t>
+  </si>
+  <si>
+    <t>Anna Waterhouse, Joe Shrapnel, Rhidian Brook</t>
+  </si>
+  <si>
+    <t>Keira Knightley, Alexander SkarsgÃ¥rd, Jason Clarke</t>
+  </si>
+  <si>
+    <t>In the aftermath of World War II, a British colonel and his wife are assigned to live in Hamburg during the post-war reconstruction, but tensions arise with the German widower who lives with them.</t>
+  </si>
+  <si>
+    <t>movie_posters/433502.jpg</t>
+  </si>
+  <si>
+    <t>2019 | War/Drama/Romance | 1h 48m</t>
+  </si>
+  <si>
+    <t>Punch-Drunk Love</t>
+  </si>
+  <si>
+    <t>Paul Thomas Anderson</t>
+  </si>
+  <si>
+    <t>Adam Sandler, Emily Watson, Philip Seymour Hoffman</t>
+  </si>
+  <si>
+    <t>A socially awkward and volatile small business owner meets the love of his life after being threatened by a gang of scammers.</t>
+  </si>
+  <si>
+    <t>movie_posters/8051.jpg</t>
+  </si>
+  <si>
+    <t>2002 | Romance/Drama/Comedy | 1h 36m</t>
+  </si>
+  <si>
+    <t>The Monkey King</t>
+  </si>
+  <si>
+    <t>Soi Cheang</t>
+  </si>
+  <si>
+    <t>Szeto Kam-Yuen, Xin Huo, Edmond Wong Chi-Mun, Chan Tai-Lee</t>
+  </si>
+  <si>
+    <t>Donnie Yen, Aaron Kwok, Joe Chen</t>
+  </si>
+  <si>
+    <t>Sun Wukong is a monkey born from a heavenly stone who acquires supernatural powers. After rebelling against heaven and being imprisoned under a mountain for 500 years, he later accompanies the monk Xuanzang on a journey to India. Thus, according to legend, Buddhism is brought to ancient China.</t>
+  </si>
+  <si>
+    <t>movie_posters/119892.jpg</t>
+  </si>
+  <si>
+    <t>2014 | Action/Adventure/Family/Fantasy | 1h 59m</t>
+  </si>
+  <si>
+    <t>Toy Story 5</t>
+  </si>
+  <si>
+    <t>Andrew Stanton</t>
+  </si>
+  <si>
+    <t>Tom Hanks, Tim Allen, Joan Cusack</t>
+  </si>
+  <si>
+    <t>Buzz, Woody, Jessie and the rest of the gang's jobs get exponentially harder when they go head to head with an all-new threat to playtime: tech.</t>
+  </si>
+  <si>
+    <t>movie_posters/1084244.jpg</t>
+  </si>
+  <si>
+    <t>2026 | Animation/Adventure/Family/Comedy | 0m</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Ryoo Seung-wan</t>
+  </si>
+  <si>
+    <t>Hwang Jung-min, Yoo Ah-in, Yoo Hai-jin</t>
+  </si>
+  <si>
+    <t>When an old collaborator gets severely injured, a veteran policeman tries to figure out the way to bring to justice the ultimately suspected aggressor, a spoiled young executive, heir to a mega corporation, who believes he is above the law.</t>
+  </si>
+  <si>
+    <t>movie_posters/346646.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Action/Crime/Comedy/Thriller | 2h 3m</t>
+  </si>
+  <si>
+    <t>Avicii - My Last Show</t>
+  </si>
+  <si>
+    <t>Henrik Burman</t>
+  </si>
+  <si>
+    <t>Avicii, Chris Martin, Audra Mae</t>
+  </si>
+  <si>
+    <t>On Aug. 28, 2016, Tim Bergling, better known as Avicii, graced the stage of the UshuaÃ¯a nightclub in Ibiza for what would be his final performance.</t>
+  </si>
+  <si>
+    <t>movie_posters/1397314.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Music/Documentary | 28m</t>
+  </si>
+  <si>
+    <t>Shark Girl</t>
+  </si>
+  <si>
+    <t>Rob Zazzali</t>
+  </si>
+  <si>
+    <t>Justin Shilton, Rob Zazzali</t>
+  </si>
+  <si>
+    <t>Alexandra Corin Johnston, Sumayyah Ameerah, Nick Tag</t>
+  </si>
+  <si>
+    <t>When a beautiful young influencer survives a mysterious shark attack, she becomes a monstrous apex predator, hunting and feeding in sunny Venice Beach, California.</t>
+  </si>
+  <si>
+    <t>movie_posters/1316673.jpg</t>
+  </si>
+  <si>
+    <t>Naseeb</t>
+  </si>
+  <si>
+    <t>Manmohan Desai</t>
+  </si>
+  <si>
+    <t>K.K. Shukla, Sayed Sultan, Prayag Raj, Kader Khan</t>
+  </si>
+  <si>
+    <t>Amitabh Bachchan, Shatrughan Sinha, Rishi Kapoor</t>
+  </si>
+  <si>
+    <t>Naseeb, a story of destiny and fate, begins with a lottery ticket. A drunk who cannot pay his restaurant bill trades his recently purchased ticket with a waiter. Naseeb becomes a poignant story about love, friendship, sacrifice, deceit, revenge and above all, destiny.</t>
+  </si>
+  <si>
+    <t>movie_posters/67605.jpg</t>
+  </si>
+  <si>
+    <t>1981 | Drama | 3h 17m</t>
+  </si>
+  <si>
+    <t>U-571</t>
+  </si>
+  <si>
+    <t>David Ayer, Sam Montgomery</t>
+  </si>
+  <si>
+    <t>Matthew McConaughey, Bill Paxton, Harvey Keitel</t>
+  </si>
+  <si>
+    <t>In the midst of World War II, the battle under the sea rages and the Nazis have the upper hand as the Allies are unable to crack their war codes. However, after a wrecked U-boat sends out an SOS signal, the Allies realise this is their chance to seize the 'enigma coding machine'.</t>
+  </si>
+  <si>
+    <t>movie_posters/3536.jpg</t>
+  </si>
+  <si>
+    <t>2000 | War/Action/Adventure | 1h 56m</t>
+  </si>
+  <si>
+    <t>Big Stan</t>
+  </si>
+  <si>
+    <t>Rob Schneider</t>
+  </si>
+  <si>
+    <t>Josh Lieb</t>
+  </si>
+  <si>
+    <t>Rob Schneider, David Carradine, Sally Kirkland</t>
+  </si>
+  <si>
+    <t>A weak con man panics when he learns he's going to prison for fraud. He hires a mysterious martial arts guru who helps transform him into a martial arts expert who can fight off inmates who want to hurt or love him.</t>
+  </si>
+  <si>
+    <t>movie_posters/13161.jpg</t>
+  </si>
+  <si>
+    <t>2007 | Comedy/Crime | 1h 49m</t>
+  </si>
+  <si>
+    <t>Payback</t>
+  </si>
+  <si>
+    <t>Brian Helgeland</t>
+  </si>
+  <si>
+    <t>Brian Helgeland, Terry Hayes, Donald E. Westlake</t>
+  </si>
+  <si>
+    <t>Mel Gibson, Gregg Henry, Maria Bello</t>
+  </si>
+  <si>
+    <t>With friends like these, who needs enemies? That's the question bad guy Porter is left asking after his wife and partner steal his heist money and leave him for dead -- or so they think. Five months and an endless reservoir of bitterness later, Porter's partners and the crooked cops on his tail learn how bad payback can be.</t>
+  </si>
+  <si>
+    <t>movie_posters/2112.jpg</t>
+  </si>
+  <si>
+    <t>1999 | Action/Drama/Crime/Thriller | 1h 40m</t>
+  </si>
+  <si>
+    <t>Marcel the Shell with Shoes On</t>
+  </si>
+  <si>
+    <t>Dean Fleischer Camp</t>
+  </si>
+  <si>
+    <t>Dean Fleischer Camp, Jenny Slate, Nick Paley, Elisabeth Holm, Jenny Slate, Nick Paley, Dean Fleischer Camp, Dean Fleischer Camp, Jenny Slate</t>
+  </si>
+  <si>
+    <t>Jenny Slate, Dean Fleischer Camp, Isabella Rossellini</t>
+  </si>
+  <si>
+    <t>Marcel is an adorable one-inch-tall shell who ekes out a colorful existence with his grandmother Connie and their pet lint, Alan. Once part of a sprawling community of shells, they now live alone as the sole survivors of a mysterious tragedy. When a documentarian discovers them amongst the clutter of his Airbnb, his resulting short film brings Marcel millions of passionate fans, as well as unprecedented dangers and a new hope at finding his long-lost family.</t>
+  </si>
+  <si>
+    <t>movie_posters/869626.jpg</t>
+  </si>
+  <si>
+    <t>2022 | Animation/Comedy/Drama/Family | 1h 30m</t>
+  </si>
+  <si>
+    <t>The Pod Generation</t>
+  </si>
+  <si>
+    <t>Sophie Barthes</t>
+  </si>
+  <si>
+    <t>Emilia Clarke, Chiwetel Ejiofor, Rosalie Craig</t>
+  </si>
+  <si>
+    <t>In a not-so-distant future, couples can share pregnancy on a more equal footing via detachable artificial wombs. While botanist Alvy has doubts about this new way of birthing babies, his love for Rachel prompts him to take a leap of faith.</t>
+  </si>
+  <si>
+    <t>movie_posters/889675.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Science Fiction/Comedy/Romance/Drama | 1h 50m</t>
+  </si>
+  <si>
+    <t>Sailor Moon R: The Movie - The Promise of the Rose</t>
+  </si>
+  <si>
+    <t>Kunihiko Ikuhara</t>
+  </si>
+  <si>
+    <t>Sukehiro Tomita, Naoko Takeuchi</t>
+  </si>
+  <si>
+    <t>Kotono Mitsuishi, Toru Furuya, Michie Tomizawa</t>
+  </si>
+  <si>
+    <t>While enjoying the flower gardens, Sailor Moon and friends encounter an old childhood friend of Mamoru's: an alien! He's come back to give Mamoru a special flower but doesn't like Usagi and the rest of the planet's inhabitants. Sailor Moon must defend the earth from the evil Kisenian Flower he's brought back... before the evil vines and blossoms overrun the planet!</t>
+  </si>
+  <si>
+    <t>movie_posters/37100.jpg</t>
+  </si>
+  <si>
+    <t>1993 | Animation/Romance/Action/Fantasy | 1h 1m</t>
+  </si>
+  <si>
+    <t>Boiler Room</t>
+  </si>
+  <si>
+    <t>Ben Younger</t>
+  </si>
+  <si>
+    <t>Giovanni Ribisi, Vin Diesel, Nia Long</t>
+  </si>
+  <si>
+    <t>A college dropout gets a job as a broker for a suburban investment firm and is on the fast track to successâ€”but the job might not be as legitimate as it sounds.</t>
+  </si>
+  <si>
+    <t>movie_posters/14181.jpg</t>
+  </si>
+  <si>
+    <t>2000 | Crime/Drama/Thriller | 1h 58m</t>
+  </si>
+  <si>
+    <t>The Guns of Navarone</t>
+  </si>
+  <si>
+    <t>J. Lee Thompson</t>
+  </si>
+  <si>
+    <t>Carl Foreman, Alistair MacLean</t>
+  </si>
+  <si>
+    <t>Gregory Peck, David Niven, Anthony Quinn</t>
+  </si>
+  <si>
+    <t>A team of allied saboteurs are assigned an impossible mission: infiltrate an impregnable Nazi-held island and destroy the two enormous long-range field guns that prevent the rescue of 2,000 trapped British soldiers.</t>
+  </si>
+  <si>
+    <t>movie_posters/10911.jpg</t>
+  </si>
+  <si>
+    <t>1961 | War/Adventure/Thriller/Action | 2h 40m</t>
+  </si>
+  <si>
+    <t>Rampant</t>
+  </si>
+  <si>
+    <t>Kim Sung-hoon</t>
+  </si>
+  <si>
+    <t>Hwang Jo-yoon, Won Shin-yeon</t>
+  </si>
+  <si>
+    <t>Hyun Bin, Jang Dong-gun, Jo Woo-jin</t>
+  </si>
+  <si>
+    <t>Ancient Korea, 17th century. While the paranoid King Lee Jo of Joseon, vassal of the Qing dynasty, feels surrounded by conspirators and rebels, a dark evil emerges from the bowels of a merchant ship and the exiled Prince Lee Cheung returns to the royal court, ignoring that he will have to lead the few capable of defeating the ambitious humans and the bloody monsters who threaten to destroy the kingdom.</t>
+  </si>
+  <si>
+    <t>movie_posters/537190.jpg</t>
+  </si>
+  <si>
+    <t>2018 | Action/Horror/Drama/Fantasy | 2h 2m</t>
+  </si>
+  <si>
+    <t>Bhaag Milkha Bhaag</t>
+  </si>
+  <si>
+    <t>Prasoon Joshi, Prasoon Joshi, Prasoon Joshi</t>
+  </si>
+  <si>
+    <t>Farhan Akhtar, Sonam Kapoor Ahuja, Divya Dutta</t>
+  </si>
+  <si>
+    <t>The true story of the "Flying Sikh" world champion runner and Olympian Milkha Singh who overcame the massacre of his family, civil war during the India-Pakistan partition, and homelessness to become one of India's most iconic athletes.</t>
+  </si>
+  <si>
+    <t>movie_posters/206324.jpg</t>
+  </si>
+  <si>
+    <t>2013 | History/Drama | 3h 6m</t>
+  </si>
+  <si>
+    <t>Suffocating Love</t>
+  </si>
+  <si>
+    <t>Liao Ming-Yi</t>
+  </si>
+  <si>
+    <t>Austin Lin, Chloe Xiang, Nikki Hsieh</t>
+  </si>
+  <si>
+    <t>A man falls in love with a control freak. He willingly obeys and gives his all during the infatuation stage of love. However, when another girl appears, he realizes that love can actually be liberating. In a dream, he is granted a wish for the exchange of girlfriends, and to his astonishment, the wish comes true in real life. Is this the beginning of happiness or the onset of new terror?</t>
+  </si>
+  <si>
+    <t>movie_posters/1078374.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Romance/Fantasy/Drama | 1h 42m</t>
+  </si>
+  <si>
+    <t>Locura de amor</t>
+  </si>
+  <si>
+    <t>Juan de OrduÃ±a</t>
+  </si>
+  <si>
+    <t>Manuel Tamayo Castro, Manuel Comba, Carlos Blanco, Alfredo Echegaray</t>
+  </si>
+  <si>
+    <t>Aurora Bautista, Fernando Rey, Sara Montiel</t>
+  </si>
+  <si>
+    <t>The passion that Joan of Castile, daughter of the Catholic Kings and heir to the throne, feels for her husband, Philip the Handsome, sovereign of the Netherlands and son of Maximilian of Austria and Mary of Burgundy, is not reciprocated. Her temperament, her jealousy and an unexpected tragedy will throw Joan into the dark realm of madness and obsession with death, the only realm where she will be a true queenâ€¦</t>
+  </si>
+  <si>
+    <t>movie_posters/209899.jpg</t>
+  </si>
+  <si>
+    <t>1948 | Drama/History | 1h 47m</t>
+  </si>
+  <si>
+    <t>Beauty Shop</t>
+  </si>
+  <si>
+    <t>Bille Woodruff</t>
+  </si>
+  <si>
+    <t>Kate Lanier, Elizabeth Hunter, Norman Vance Jr.</t>
+  </si>
+  <si>
+    <t>Queen Latifah, Alicia Silverstone, Kevin Bacon</t>
+  </si>
+  <si>
+    <t>Far from Chicago, hairdresser Gina Norris has relocated to Atlanta with her daughter and has quickly established herself as a rare talent in her profession. But after repeatedly butting heads with her shady, over-the-top boss, Jorge, Norris sets out to create her own salon -- even snagging a few of Jorge's employees and clients. Now, Jorge will do anything to shut her down.</t>
+  </si>
+  <si>
+    <t>movie_posters/14177.jpg</t>
+  </si>
+  <si>
+    <t>2005 | Comedy/Romance | 1h 45m</t>
+  </si>
+  <si>
+    <t>John and the Hole</t>
+  </si>
+  <si>
+    <t>Pascual Sisto</t>
+  </si>
+  <si>
+    <t>NicolÃ¡s Giacobone, NicolÃ¡s Giacobone</t>
+  </si>
+  <si>
+    <t>Charlie Shotwell, Taissa Farmiga, Jennifer Ehle</t>
+  </si>
+  <si>
+    <t>While exploring the neighboring woods, 13-year-old John discovers an unfinished bunker â€” a deep hole in the ground. Seemingly without provocation, he drugs his affluent parents and older sister and drags their unconscious bodies into the bunker, where he holds them captive. As they anxiously wait for John to free them from the hole, the boy returns home, where he can finally do what he wants.</t>
+  </si>
+  <si>
+    <t>movie_posters/682532.jpg</t>
+  </si>
+  <si>
+    <t>2021 | Drama/Thriller/Horror | 1h 43m</t>
+  </si>
+  <si>
+    <t>Shimmy: The First Monkey King</t>
+  </si>
+  <si>
+    <t>Ralph Zondag</t>
+  </si>
+  <si>
+    <t>Dick Zondag, Ralph Zondag</t>
+  </si>
+  <si>
+    <t>David Semery</t>
+  </si>
+  <si>
+    <t>Shimmy, a monkey newly discover superhero powers and learns how to control his extraordinary transformative abilities and prevent powerful demonic forces from sending the universe into chaos.</t>
+  </si>
+  <si>
+    <t>movie_posters/1085046.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Animation/Adventure/Action/Comedy/Fantasy | 1h 41m</t>
+  </si>
+  <si>
+    <t>Watership Down</t>
+  </si>
+  <si>
+    <t>Martin Rosen</t>
+  </si>
+  <si>
+    <t>Richard Adams, Martin Rosen, John Hubley</t>
+  </si>
+  <si>
+    <t>John Hurt, Richard Briers, Michael Graham Cox</t>
+  </si>
+  <si>
+    <t>When the warren belonging to a community of rabbits is threatened, a brave group led by Fiver, Bigwig, Blackberry and Hazel leave their homeland in a search of a safe new haven.</t>
+  </si>
+  <si>
+    <t>movie_posters/11837.jpg</t>
+  </si>
+  <si>
+    <t>1978 | Adventure/Animation/Drama | 1h 32m</t>
+  </si>
+  <si>
+    <t>The Nun</t>
+  </si>
+  <si>
+    <t>Luis de la Madrid</t>
+  </si>
+  <si>
+    <t>Jaume BalaguerÃ³, Manu DÃ­ez, Elena Serra, Brian Yuzna</t>
+  </si>
+  <si>
+    <t>Anita Briem, BelÃ©n Blanco, Manu Fullola</t>
+  </si>
+  <si>
+    <t>Years ago, a cruel and merciless nun turned a boarding school into a living hell for her students until they could no longer bear the abuse, and she mysteriously disappeared. Now the alumnae are being brutally murdered one by one.</t>
+  </si>
+  <si>
+    <t>movie_posters/42968.jpg</t>
+  </si>
+  <si>
+    <t>2005 | Horror/Mystery | 1h 41m</t>
+  </si>
+  <si>
+    <t>The Book of Clarence</t>
+  </si>
+  <si>
+    <t>Jeymes Samuel</t>
+  </si>
+  <si>
+    <t>LaKeith Stanfield, Omar Sy, RJ Cyler</t>
+  </si>
+  <si>
+    <t>Streetwise but down-on-his-luck, Clarence is struggling to find a better life for his family, while fighting to free himself of debt. Captivated by the power and glory of the rising Messiah and His apostles, he risks everything to carve his own path to a divine life, and ultimately discovers that the redemptive power of belief may be his only way out.</t>
+  </si>
+  <si>
+    <t>movie_posters/976584.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Adventure/Comedy/Drama | 2h 9m</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t>Bruno Samper</t>
+  </si>
+  <si>
+    <t>Kristina BuoÅ¾ytÄ—, Bruno Samper, Brian Clark</t>
+  </si>
+  <si>
+    <t>Raffiella Chapman, Eddie Marsan, Rosy McEwen</t>
+  </si>
+  <si>
+    <t>After the collapse of Earth's ecosystem, Vesper, a 13-year-old girl struggling to survive with her paralyzed Father, meets a mysterious Woman with a secret that forces Vesper to use her wits, strength and bio-hacking abilities to fight for the possibility of a future.</t>
+  </si>
+  <si>
+    <t>movie_posters/976720.jpg</t>
+  </si>
+  <si>
+    <t>2022 | Science Fiction/Drama/Adventure/Fantasy | 1h 52m</t>
+  </si>
+  <si>
+    <t>Sofia the First: Once Upon a Princess</t>
+  </si>
+  <si>
+    <t>Jamie Mitchell</t>
+  </si>
+  <si>
+    <t>Craig Gerber</t>
+  </si>
+  <si>
+    <t>Ariel Winter, Sara Ramirez, Jim Cummings</t>
+  </si>
+  <si>
+    <t>Set in the storybook world of Enchancia, the music-filled movie follows Sofia, an average girl whose life suddenly changes when her mother marries the king and she is whisked off to live in a castle with her mom, new step-father, King Roland II, and step-siblings, Amber and James. Along the way this ordinary girl learns to navigate the extraordinary life of royalty, and in the process makes everyone around her feel special.</t>
+  </si>
+  <si>
+    <t>movie_posters/144616.jpg</t>
+  </si>
+  <si>
+    <t>2012 | Animation/Family | 47m</t>
+  </si>
+  <si>
+    <t>Bachhala Malli</t>
+  </si>
+  <si>
+    <t>Subbu Mangadevi</t>
+  </si>
+  <si>
+    <t>Subbu Mangadevi, Vipparthi Madhu Viswanetra, Subbu Mangadevi</t>
+  </si>
+  <si>
+    <t>Allari Naresh, Amritha Aiyer, Hari Teja</t>
+  </si>
+  <si>
+    <t>The story is set in the 1990s and follows the emotional and action-filled journey of Bachhala Malli, a rural hero. The narrative combines intense drama with romance, focusing on the protagonistâ€™s challenges and personal growth in a rustic backdrop.</t>
+  </si>
+  <si>
+    <t>movie_posters/1399790.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Action/Drama | 2h 15m</t>
+  </si>
+  <si>
+    <t>Happy Together</t>
+  </si>
+  <si>
+    <t>Wong Kar-wai</t>
+  </si>
+  <si>
+    <t>Wong Kar-wai, Manuel Puig</t>
+  </si>
+  <si>
+    <t>Tony Leung, Leslie Cheung, Chang Chen</t>
+  </si>
+  <si>
+    <t>A gay couple from Hong Kong takes a trip to Argentina in search of a new beginning but instead begins drifting even further apart.</t>
+  </si>
+  <si>
+    <t>movie_posters/18329.jpg</t>
+  </si>
+  <si>
+    <t>1997 | Drama/Romance | 1h 36m</t>
+  </si>
+  <si>
+    <t>High Fidelity</t>
+  </si>
+  <si>
+    <t>Stephen Frears</t>
+  </si>
+  <si>
+    <t>Steve Pink, D.V. DeVincentis, Scott Rosenberg, John Cusack, Nick Hornby</t>
+  </si>
+  <si>
+    <t>John Cusack, Iben Hjejle, Todd Louiso</t>
+  </si>
+  <si>
+    <t>After his long-time girlfriend dumps him, a thirty-year-old record store owner seeks to understand why he is unlucky in love while recounting his "top five breakups of all time".</t>
+  </si>
+  <si>
+    <t>movie_posters/243.jpg</t>
+  </si>
+  <si>
+    <t>2000 | Drama/Comedy/Romance/Music | 1h 53m</t>
+  </si>
+  <si>
+    <t>The Hole</t>
+  </si>
+  <si>
+    <t>Nick Hamm</t>
+  </si>
+  <si>
+    <t>Ben Court, Caroline Ip, Guy Burt</t>
+  </si>
+  <si>
+    <t>Thora Birch, Desmond Harrington, Keira Knightley</t>
+  </si>
+  <si>
+    <t>Four teenagers at a British private school secretly uncover and explore the depths of a sealed underground hole created decades ago as a possible bomb shelter.</t>
+  </si>
+  <si>
+    <t>movie_posters/467.jpg</t>
+  </si>
+  <si>
+    <t>2001 | Crime/Drama/Horror/Thriller | 1h 42m</t>
+  </si>
+  <si>
+    <t>Snitch</t>
+  </si>
+  <si>
+    <t>Ric Roman Waugh</t>
+  </si>
+  <si>
+    <t>Ric Roman Waugh, Justin Haythe</t>
+  </si>
+  <si>
+    <t>Dwayne Johnson, Barry Pepper, Susan Sarandon</t>
+  </si>
+  <si>
+    <t>Construction company owner John Matthews learns that his estranged son, Jason, has been arrested for drug trafficking. Facing an unjust prison sentence for a first time offender courtesy of mandatory minimum sentence laws, Jason has nothing to offer for leniency in good conscience. Desperately, John convinces the DEA and the opportunistic DA Joanne Keeghan to let him go undercover to help make arrests big enough to free his son in return. With the unwitting help of an ex-con employee, John enters the narcotics underworld where every move could be his last in an operation that will demand all his resources, wits and courage to survive.</t>
+  </si>
+  <si>
+    <t>movie_posters/134411.jpg</t>
+  </si>
+  <si>
+    <t>2013 | Thriller/Drama/Action | 1h 52m</t>
+  </si>
+  <si>
+    <t>Ladies &amp; Gentlemen... 50 Years of SNL Music</t>
+  </si>
+  <si>
+    <t>Oz RodrÃ­guez</t>
+  </si>
+  <si>
+    <t>Questlove, Oz RodrÃ­guez</t>
+  </si>
+  <si>
+    <t>Lorne Michaels, Jane Curtin, Conan O'Brien</t>
+  </si>
+  <si>
+    <t>Untold stories behind the culture-defining and newsmaking musical performances, sketches and cameos of the past 50 years.</t>
+  </si>
+  <si>
+    <t>movie_posters/1421461.jpg</t>
+  </si>
+  <si>
+    <t>2025 | Music/Documentary/TV Movie | 2h 8m</t>
+  </si>
+  <si>
+    <t>Return to Never Land</t>
+  </si>
+  <si>
+    <t>Robin Budd</t>
+  </si>
+  <si>
+    <t>Temple Mathews, J.M. Barrie</t>
+  </si>
+  <si>
+    <t>Harriet Owen, Blayne Weaver, Jeff Bennett</t>
+  </si>
+  <si>
+    <t>In 1940, the world is besieged by World War II. Wendy, all grown up, has two children; including Jane, who does not believe Wendy's stories about Peter Pan.</t>
+  </si>
+  <si>
+    <t>movie_posters/16690.jpg</t>
+  </si>
+  <si>
+    <t>2002 | Adventure/Fantasy/Animation/Family | 1h 12m</t>
+  </si>
+  <si>
+    <t>Barbershop: The Next Cut</t>
+  </si>
+  <si>
+    <t>Malcolm D. Lee</t>
+  </si>
+  <si>
+    <t>Kenya Barris, Mark Brown, Tracy Oliver</t>
+  </si>
+  <si>
+    <t>Ice Cube, Cedric the Entertainer, Regina Hall</t>
+  </si>
+  <si>
+    <t>To survive harsh economic times, Calvin and Angie have merged the barbershop and beauty salon into one business. The days of male bonding are gone as Eddie and the crew must now contend with sassy female co-workers and spirited clientele. As the battle of the sexes rages on, a different kind of conflict has taken over Chicago. Crime and gangs are on the rise, leaving Calvin worried about the fate of his son. Together, the friends come up with a bold plan to take back their beloved neighborhood.</t>
+  </si>
+  <si>
+    <t>movie_posters/326423.jpg</t>
+  </si>
+  <si>
+    <t>2016 | Comedy/Drama | 1h 52m</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>Rodger Griffiths</t>
+  </si>
+  <si>
+    <t>Rob Drummond, Rodger Griffiths</t>
+  </si>
+  <si>
+    <t>Daniel Portman, Brian Vernel, Calum Ross</t>
+  </si>
+  <si>
+    <t>The story centres on three brothers and their violent father who live in a remote forest. The brothers attempt to kill their father while on a hunting expedition but this instead begins a deadly game of cat-and-mouse.</t>
+  </si>
+  <si>
+    <t>movie_posters/716309.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Thriller/Horror/Drama | 1h 34m</t>
+  </si>
+  <si>
+    <t>Trunk - Locked In</t>
+  </si>
+  <si>
+    <t>Marc SchieÃŸer</t>
+  </si>
+  <si>
+    <t>Sina Martens, Artjom Gilz, Luise Helm</t>
+  </si>
+  <si>
+    <t>28-year-old medicine student Malina wakes up disoriented in a locked trunk and realizes, to her horror, that she is missing more than just her memory of what happened. With her phone as the only link to the outside world, the intelligent young woman wages a desperate fight for survival while the vehicle races relentlessly toward a terrible secret.</t>
+  </si>
+  <si>
+    <t>movie_posters/1183905.jpg</t>
+  </si>
+  <si>
+    <t>2023 | Thriller/Action/Drama | 1h 36m</t>
+  </si>
+  <si>
+    <t>Professor Marston and the Wonder Women</t>
+  </si>
+  <si>
+    <t>Angela Robinson</t>
+  </si>
+  <si>
+    <t>Luke Evans, Rebecca Hall, Bella Heathcote</t>
+  </si>
+  <si>
+    <t>The unconventional life of Dr. William Marston, the Harvard psychologist and inventor who helped invent the modern lie detector test and created Wonder Woman in 1941.</t>
+  </si>
+  <si>
+    <t>movie_posters/420622.jpg</t>
+  </si>
+  <si>
+    <t>2017 | Drama/Romance | 1h 48m</t>
+  </si>
+  <si>
+    <t>Suspicion</t>
+  </si>
+  <si>
+    <t>Tosin Igho</t>
+  </si>
+  <si>
+    <t>Stan Nze, Richard Mofe-Damijo, Boma Akpore</t>
+  </si>
+  <si>
+    <t>A young man delves into the sinister world of black magic after the brutal murder of his best friend and his daughter. As he hunts for vengeance, he faces moral dilemmas and shocking betrayals that threaten to shatter his closest relationships. In this gripping tale of friendship, love and revenge, he must confront his newfound powers and decide how far he's willing to go to deliver justice.</t>
+  </si>
+  <si>
+    <t>movie_posters/1393614.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Crime/Horror/Thriller | 1h 55m</t>
+  </si>
+  <si>
+    <t>Judas and the Black Messiah</t>
+  </si>
+  <si>
+    <t>Shaka King</t>
+  </si>
+  <si>
+    <t>Will Berson, Shaka King, Will Berson, Kenneth Lucas, Keith Lucas, Shaka King, Tiara Thomas, H.E.R.</t>
+  </si>
+  <si>
+    <t>Daniel Kaluuya, LaKeith Stanfield, Jesse Plemons</t>
+  </si>
+  <si>
+    <t>Bill O'Neal infiltrates the Black Panthers on the orders of FBI Agent Mitchell and J. Edgar Hoover. As Black Panther Chairman Fred Hampton ascendsâ€”falling for a fellow revolutionary en routeâ€”a battle wages for Oâ€™Nealâ€™s soul.</t>
+  </si>
+  <si>
+    <t>movie_posters/583406.jpg</t>
+  </si>
+  <si>
+    <t>2021 | Drama/History | 2h 6m</t>
+  </si>
+  <si>
+    <t>Mud</t>
+  </si>
+  <si>
+    <t>Jeff Nichols</t>
+  </si>
+  <si>
+    <t>Matthew McConaughey, Reese Witherspoon, Tye Sheridan</t>
+  </si>
+  <si>
+    <t>Two teenage boys find a fugitive hiding out on an island in the Mississippi River and help him reunite with his lover and escape an avenging family and their armed posse.</t>
+  </si>
+  <si>
+    <t>movie_posters/103731.jpg</t>
+  </si>
+  <si>
+    <t>2013 | Drama | 2h 10m</t>
+  </si>
+  <si>
+    <t>Once Upon a Time in China II</t>
+  </si>
+  <si>
+    <t>Tsui Hark</t>
+  </si>
+  <si>
+    <t>Tsui Hark, Tin-suen Chan, Charcoal Tan</t>
+  </si>
+  <si>
+    <t>Jet Li, Rosamund Kwan, Max Mok</t>
+  </si>
+  <si>
+    <t>Wong Fei-Hung faces the White Lotus Society, a fanatical cult seeking to drive the Europeans out of China through violence, even attacking Chinese who follow Western ways. Wong must also defend Dr. Sun Yat Sen, a revolutionary, from the military.</t>
+  </si>
+  <si>
+    <t>movie_posters/10618.jpg</t>
+  </si>
+  <si>
+    <t>1992 | Action/Comedy | 1h 53m</t>
+  </si>
+  <si>
+    <t>I Am Wrath</t>
+  </si>
+  <si>
+    <t>Chuck Russell</t>
+  </si>
+  <si>
+    <t>Paul Sloan, Yvan Gauthier</t>
+  </si>
+  <si>
+    <t>John Travolta, Christopher Meloni, Amanda Schull</t>
+  </si>
+  <si>
+    <t>A man is out for justice after a group of corrupt police officers are unable to catch his wife's killer.</t>
+  </si>
+  <si>
+    <t>movie_posters/332411.jpg</t>
+  </si>
+  <si>
+    <t>2016 | Action/Crime/Drama/Thriller | 1h 32m</t>
+  </si>
+  <si>
+    <t>Cyber Hell: Exposing an Internet Horror</t>
+  </si>
+  <si>
+    <t>Choi Jin-sung</t>
+  </si>
+  <si>
+    <t>Anonymous and exploitative, a network of online chat rooms ran rampant with sex crimes. The hunt to take down its operators required guts and tenacity.</t>
+  </si>
+  <si>
+    <t>movie_posters/965143.jpg</t>
+  </si>
+  <si>
+    <t>2022 | Documentary/Crime | 1h 45m</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Pablo LarraÃ­n</t>
+  </si>
+  <si>
+    <t>Steven Knight</t>
+  </si>
+  <si>
+    <t>Angelina Jolie, Pierfrancesco Favino, Alba Rohrwacher</t>
+  </si>
+  <si>
+    <t>Maria Callas, the world's greatest opera singer, lives the last days of her life in 1970s Paris, as she confronts her identity and life.</t>
+  </si>
+  <si>
+    <t>movie_posters/1038263.jpg</t>
+  </si>
+  <si>
+    <t>2024 | History/Drama/Music | 2h 2m</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>Trey Edward Shults</t>
+  </si>
+  <si>
+    <t>Kelvin Harrison, Jr., Taylor Russell, RenÃ©e Elise Goldsberry</t>
+  </si>
+  <si>
+    <t>A controlling fatherâ€™s attempts to ensure that his two children succeed in high school backfire after his son experiences a career-ending sports injury. Their familial bonds are eventually placed under severe strain by an unexpected tragedy.</t>
+  </si>
+  <si>
+    <t>movie_posters/533444.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Romance/Drama | 2h 15m</t>
+  </si>
+  <si>
+    <t>Shazam!</t>
+  </si>
+  <si>
+    <t>David F. Sandberg</t>
+  </si>
+  <si>
+    <t>Henry Gayden, Bill Parker, C.C. Beck, Darren Lemke, Henry Gayden</t>
+  </si>
+  <si>
+    <t>Zachary Levi, Mark Strong, Asher Angel</t>
+  </si>
+  <si>
+    <t>A boy is given the ability to become an adult superhero in times of need with a single magic word.</t>
+  </si>
+  <si>
+    <t>movie_posters/287947.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Action/Comedy/Fantasy | 2h 12m</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Siddharth Anand</t>
+  </si>
+  <si>
+    <t>Ramon Chibb, Abbas Dalal, Siddharth Anand, Ramon Chibb, Hussain Dalal, Kumaar, Biswapati Sarkar, Radhakrishna Acharya</t>
+  </si>
+  <si>
+    <t>Hrithik Roshan, Deepika Padukone, Anil Kapoor</t>
+  </si>
+  <si>
+    <t>As India faces a militant attack in Kashmir, the countryâ€™s best combat aviators join forces under a reckless yet brilliant squadron leader to form 'Air Dragons', faces mortal dangers and their inner demons.</t>
+  </si>
+  <si>
+    <t>movie_posters/784651.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Action/Drama | 2h 47m</t>
+  </si>
+  <si>
+    <t>Small Things Like These</t>
+  </si>
+  <si>
+    <t>Tim Mielants</t>
+  </si>
+  <si>
+    <t>Enda Walsh, Claire Keegan</t>
+  </si>
+  <si>
+    <t>Cillian Murphy, Emily Watson, Michelle Fairley</t>
+  </si>
+  <si>
+    <t>In 1985, while working as a coal merchant to support his family, Bill Furlong discovers disturbing secrets kept by the local convent and uncovers truths of his own; forcing him to confront his past and the complicit silence of a small Irish town controlled by the Catholic Church.</t>
+  </si>
+  <si>
+    <t>movie_posters/1102493.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Drama/History | 1h 39m</t>
+  </si>
+  <si>
+    <t>How to Train Your Dragon 2</t>
+  </si>
+  <si>
+    <t>Dean DeBlois</t>
+  </si>
+  <si>
+    <t>Mason Thames, Nico Parker, Gerard Butler</t>
+  </si>
+  <si>
+    <t>The second live-action adaptation of the animated trilogy.</t>
+  </si>
+  <si>
+    <t>movie_posters/1458319.jpg</t>
+  </si>
+  <si>
+    <t>2027 | Fantasy/Adventure/Family/Action | 0m</t>
+  </si>
+  <si>
+    <t>Morbius</t>
+  </si>
+  <si>
+    <t>Daniel Espinosa</t>
+  </si>
+  <si>
+    <t>Matt Sazama, Burk Sharpless, Burk Sharpless, Matt Sazama</t>
+  </si>
+  <si>
+    <t>Jared Leto, Matt Smith, Adria Arjona</t>
+  </si>
+  <si>
+    <t>Dangerously ill with a rare blood disorder, and determined to save others suffering his same fate, Dr. Michael Morbius attempts a desperate gamble. What at first appears to be a radical success soon reveals itself to be a remedy potentially worse than the disease.</t>
+  </si>
+  <si>
+    <t>movie_posters/526896.jpg</t>
+  </si>
+  <si>
+    <t>2022 | Action/Science Fiction/Fantasy | 1h 45m</t>
+  </si>
+  <si>
+    <t>The Luckiest Man in America</t>
+  </si>
+  <si>
+    <t>Samir Oliveros</t>
+  </si>
+  <si>
+    <t>Samir Oliveros, Maggie Briggs</t>
+  </si>
+  <si>
+    <t>Paul Walter Hauser, Walton Goggins, Shamier Anderson</t>
+  </si>
+  <si>
+    <t>1984; Michael Larson, an unemployed ice-cream truck driver from Ohio, steps onto the game show "Press Your Luck" harboring a secret: the key to endless amounts of money. But his winning streak is threatened when the executives in the control room start to uncover his real motivations.</t>
+  </si>
+  <si>
+    <t>movie_posters/1288070.jpg</t>
+  </si>
+  <si>
+    <t>2025 | Drama/Thriller | 1h 30m</t>
+  </si>
+  <si>
+    <t>Young Elite</t>
+  </si>
+  <si>
+    <t>Anna Kishko</t>
+  </si>
+  <si>
+    <t>Marynka Boyko, Bogdan Ruban, Katy shabelinskaya</t>
+  </si>
+  <si>
+    <t>At a school where money means everything, Hannah is an outsider. Alex should be her worst enemy, but fate has other plans.</t>
+  </si>
+  <si>
+    <t>movie_posters/1417313.jpg</t>
+  </si>
+  <si>
+    <t>2025 | Romance/Drama | 1h 17m</t>
+  </si>
+  <si>
+    <t>Four Brothers</t>
+  </si>
+  <si>
+    <t>John Singleton</t>
+  </si>
+  <si>
+    <t>David Elliot, Paul Lovett</t>
+  </si>
+  <si>
+    <t>Mark Wahlberg, Tyrese Gibson, AndrÃ© 3000</t>
+  </si>
+  <si>
+    <t>Four adopted brothers return to their Detroit hometown when their mother is murdered and vow to exact revenge on the killers.</t>
+  </si>
+  <si>
+    <t>movie_posters/8292.jpg</t>
+  </si>
+  <si>
+    <t>2005 | Action/Crime | 1h 49m</t>
+  </si>
+  <si>
+    <t>The Last Witch Hunter</t>
+  </si>
+  <si>
+    <t>Breck Eisner</t>
+  </si>
+  <si>
+    <t>Matt Sazama, Cory Goodman, Burk Sharpless, Jay Oliva</t>
+  </si>
+  <si>
+    <t>Vin Diesel, Rose Leslie, Elijah Wood</t>
+  </si>
+  <si>
+    <t>The modern world holds many secrets, but by far the most astounding is that witches still live among us; vicious supernatural creatures intent on unleashing the Black Death upon the world and putting an end to the human race once and for all. Armies of witch hunters have battled this unnatural enemy for centuries, including Kaulder, a valiant warrior who many years ago slayed the all-powerful Witch Queen, decimating her followers in the process. In the moments right before her death, the Queen cursed Kaulder with immortality, forever separating him from his beloved wife and daughter. Today, Kaulder is the last living hunter who has spent his immortal life tracking down rogue witches, all the while yearning for his long-lost family.</t>
+  </si>
+  <si>
+    <t>movie_posters/274854.jpg</t>
+  </si>
+  <si>
+    <t>2015 | Fantasy/Action/Adventure/Horror | 1h 46m</t>
+  </si>
+  <si>
+    <t>The Purge</t>
+  </si>
+  <si>
+    <t>James DeMonaco</t>
+  </si>
+  <si>
+    <t>Ethan Hawke, Lena Headey, Max Burkholder</t>
+  </si>
+  <si>
+    <t>Given the country's overcrowded prisons, the U.S. government begins to allow 12-hour periods of time in which all illegal activity is legal. During one of these free-for-alls, a family must protect themselves from a home invasion.</t>
+  </si>
+  <si>
+    <t>movie_posters/158015.jpg</t>
+  </si>
+  <si>
+    <t>2013 | Science Fiction/Horror/Thriller | 1h 26m</t>
+  </si>
+  <si>
+    <t>Paranormal Activity</t>
+  </si>
+  <si>
+    <t>Oren Peli</t>
+  </si>
+  <si>
+    <t>Oren Peli, Oren Peli, Oren Peli, Oren Peli</t>
+  </si>
+  <si>
+    <t>Katie Featherston, Micah Sloat, Mark Fredrichs</t>
+  </si>
+  <si>
+    <t>After a young, middle-class couple moves into what seems like a typical suburban house, they become increasingly disturbed by a presence that may or may not be demonic but is certainly the most active in the middle of the night.</t>
+  </si>
+  <si>
+    <t>movie_posters/23827.jpg</t>
+  </si>
+  <si>
+    <t>2007 | Horror/Mystery | 1h 26m</t>
+  </si>
+  <si>
+    <t>The Nice Guys</t>
+  </si>
+  <si>
+    <t>Shane Black</t>
+  </si>
+  <si>
+    <t>Shane Black, Anthony Bagarozzi</t>
+  </si>
+  <si>
+    <t>Russell Crowe, Ryan Gosling, Angourie Rice</t>
+  </si>
+  <si>
+    <t>A private eye investigates the apparent suicide of a fading porn star in 1970s Los Angeles and uncovers a conspiracy.</t>
+  </si>
+  <si>
+    <t>movie_posters/290250.jpg</t>
+  </si>
+  <si>
+    <t>2016 | Comedy/Crime/Action | 1h 56m</t>
+  </si>
+  <si>
+    <t>That Christmas</t>
+  </si>
+  <si>
+    <t>Simon Otto</t>
+  </si>
+  <si>
+    <t>Richard Curtis, Richard Curtis, Peter Souter, Ashley Boddy</t>
+  </si>
+  <si>
+    <t>Brian Cox, Bill Nighy, Fiona Shaw</t>
+  </si>
+  <si>
+    <t>It's an unforgettable Christmas for the townsfolk of Wellington-on-Sea when the worst snowstorm in history alters everyone's plans â€” including Santa's.</t>
+  </si>
+  <si>
+    <t>movie_posters/645757.jpg</t>
+  </si>
+  <si>
+    <t>2024 | Animation/Comedy/Family/Fantasy/Adventure | 1h 31m</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Luc Besson</t>
+  </si>
+  <si>
+    <t>Sasha Luss, Helen Mirren, Luke Evans</t>
+  </si>
+  <si>
+    <t>Beneath Anna Poliatova's striking beauty lies a secret that will unleash her indelible strength and skill to become one of the world's most feared government assassins.</t>
+  </si>
+  <si>
+    <t>movie_posters/484641.jpg</t>
+  </si>
+  <si>
+    <t>2019 | Action/Adventure/Thriller | 1h 59m</t>
+  </si>
+  <si>
+    <t>Aashiqui 2</t>
+  </si>
+  <si>
+    <t>Mohit Suri</t>
+  </si>
+  <si>
+    <t>Shagufta Rafique, Irshad Kamil, Sandeep Nath, Mithoon Sharma</t>
+  </si>
+  <si>
+    <t>Aditya Roy Kapur, Shraddha Kapoor, Shaad Randhawa</t>
+  </si>
+  <si>
+    <t>A young woman meets a failing musician who launches her singing career, but their relationship is doomed when people assume he's with her for her fame and fortune.</t>
+  </si>
+  <si>
+    <t>movie_posters/192558.jpg</t>
+  </si>
+  <si>
+    <t>2013 | Drama/Romance | 2h 12m</t>
+  </si>
+  <si>
+    <t>The Mitchells vs. the Machines</t>
+  </si>
+  <si>
+    <t>Mike Rianda</t>
+  </si>
+  <si>
+    <t>Guillermo Martinez, Vitaliy Strokous, Brandon Jeffords, Kasey Fagerquist, Rachel Kral, Ben Mansfield, Hanna Cho, Justin Hunt, Andrew James Ross, Ray Xu, Koko Wing Hei Chou, Caitlin VanArsdale, Myke Bakich, Quinne Larsen, Jeff Rowe, Mike Rianda</t>
+  </si>
+  <si>
+    <t>Abbi Jacobson, Danny McBride, Maya Rudolph</t>
+  </si>
+  <si>
+    <t>A quirky, dysfunctional family's road trip is upended when they find themselves in the middle of the robot apocalypse and suddenly become humanity's unlikeliest last hope.</t>
+  </si>
+  <si>
+    <t>movie_posters/501929.jpg</t>
+  </si>
+  <si>
+    <t>2021 | Animation/Adventure/Comedy | 1h 50m</t>
+  </si>
+  <si>
+    <t>Jeepers Creepers 2</t>
+  </si>
+  <si>
+    <t>Victor Salva</t>
+  </si>
+  <si>
+    <t>Victor Salva, Victor Salva</t>
+  </si>
+  <si>
+    <t>Ray Wise, Jonathan Breck, Nicki Aycox</t>
+  </si>
+  <si>
+    <t>When their bus is crippled on the side of a deserted road, a team of high school athletes discover an opponent they cannot defeat â€“ and may not survive.</t>
+  </si>
+  <si>
+    <t>movie_posters/11351.jpg</t>
+  </si>
+  <si>
+    <t>2003 | Horror/Thriller | 1h 44m</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +4647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1979,6 +5357,5329 @@
         <v>100</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>810585</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23">
+        <v>500</v>
+      </c>
+      <c r="J23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11918</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24">
+        <v>527.29999999999995</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>333381</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25">
+        <v>610</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2832</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26">
+        <v>717.7</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>798286</v>
+      </c>
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27">
+        <v>673.7</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9477</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28">
+        <v>630</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>399402</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29">
+        <v>690</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1182047</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30">
+        <v>688.1</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>51608</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31">
+        <v>769.7</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>19959</v>
+      </c>
+      <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32">
+        <v>613.29999999999995</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>37710</v>
+      </c>
+      <c r="B33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" t="s">
+        <v>220</v>
+      </c>
+      <c r="I33">
+        <v>618.4</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10495</v>
+      </c>
+      <c r="B34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I34">
+        <v>590</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>44115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35">
+        <v>708.1</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>13971</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H36" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36">
+        <v>671</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11216</v>
+      </c>
+      <c r="B37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37">
+        <v>843.7</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6522</v>
+      </c>
+      <c r="B38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="s">
+        <v>255</v>
+      </c>
+      <c r="I38">
+        <v>665.2</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>484468</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39">
+        <v>755.1</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>836454</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" t="s">
+        <v>268</v>
+      </c>
+      <c r="I40">
+        <v>800</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9348</v>
+      </c>
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I41">
+        <v>600</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>470229</v>
+      </c>
+      <c r="B42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" t="s">
+        <v>282</v>
+      </c>
+      <c r="I42">
+        <v>690.5</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" t="s">
+        <v>286</v>
+      </c>
+      <c r="F43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" t="s">
+        <v>289</v>
+      </c>
+      <c r="I43">
+        <v>750.6</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>309</v>
+      </c>
+      <c r="B44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" t="s">
+        <v>295</v>
+      </c>
+      <c r="H44" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44">
+        <v>772.6</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>618219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>301</v>
+      </c>
+      <c r="H45" t="s">
+        <v>302</v>
+      </c>
+      <c r="I45">
+        <v>670</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1223584</v>
+      </c>
+      <c r="B46" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D46" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" t="s">
+        <v>305</v>
+      </c>
+      <c r="F46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G46" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" t="s">
+        <v>308</v>
+      </c>
+      <c r="I46">
+        <v>800</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>678287</v>
+      </c>
+      <c r="B47" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" t="s">
+        <v>311</v>
+      </c>
+      <c r="E47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F47" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" t="s">
+        <v>314</v>
+      </c>
+      <c r="H47" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47">
+        <v>490</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>67913</v>
+      </c>
+      <c r="B48" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>318</v>
+      </c>
+      <c r="F48" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48">
+        <v>698.7</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1425201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" t="s">
+        <v>323</v>
+      </c>
+      <c r="E49" t="s">
+        <v>323</v>
+      </c>
+      <c r="F49" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" t="s">
+        <v>326</v>
+      </c>
+      <c r="I49">
+        <v>660</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>19288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C50" t="s">
+        <v>328</v>
+      </c>
+      <c r="D50" t="s">
+        <v>329</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" t="s">
+        <v>332</v>
+      </c>
+      <c r="H50" t="s">
+        <v>333</v>
+      </c>
+      <c r="I50">
+        <v>480</v>
+      </c>
+      <c r="J50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1389</v>
+      </c>
+      <c r="B51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" t="s">
+        <v>335</v>
+      </c>
+      <c r="D51" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" t="s">
+        <v>339</v>
+      </c>
+      <c r="H51" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51">
+        <v>667.3</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1283120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" t="s">
+        <v>343</v>
+      </c>
+      <c r="E52" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" t="s">
+        <v>346</v>
+      </c>
+      <c r="H52" t="s">
+        <v>347</v>
+      </c>
+      <c r="I52">
+        <v>640</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>9710</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>349</v>
+      </c>
+      <c r="D53" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" t="s">
+        <v>353</v>
+      </c>
+      <c r="H53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I53">
+        <v>470</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1172674</v>
+      </c>
+      <c r="B54" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" t="s">
+        <v>358</v>
+      </c>
+      <c r="F54" t="s">
+        <v>359</v>
+      </c>
+      <c r="G54" t="s">
+        <v>360</v>
+      </c>
+      <c r="H54" t="s">
+        <v>361</v>
+      </c>
+      <c r="I54">
+        <v>658.2</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1150478</v>
+      </c>
+      <c r="B55" t="s">
+        <v>362</v>
+      </c>
+      <c r="C55" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" t="s">
+        <v>364</v>
+      </c>
+      <c r="E55" t="s">
+        <v>365</v>
+      </c>
+      <c r="F55" t="s">
+        <v>366</v>
+      </c>
+      <c r="G55" t="s">
+        <v>367</v>
+      </c>
+      <c r="H55" t="s">
+        <v>368</v>
+      </c>
+      <c r="I55">
+        <v>525</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>363579</v>
+      </c>
+      <c r="B56" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" t="s">
+        <v>370</v>
+      </c>
+      <c r="D56" t="s">
+        <v>371</v>
+      </c>
+      <c r="E56" t="s">
+        <v>372</v>
+      </c>
+      <c r="F56" t="s">
+        <v>373</v>
+      </c>
+      <c r="G56" t="s">
+        <v>374</v>
+      </c>
+      <c r="H56" t="s">
+        <v>375</v>
+      </c>
+      <c r="I56">
+        <v>720</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15301</v>
+      </c>
+      <c r="B57" t="s">
+        <v>376</v>
+      </c>
+      <c r="C57" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" t="s">
+        <v>378</v>
+      </c>
+      <c r="E57" t="s">
+        <v>379</v>
+      </c>
+      <c r="F57" t="s">
+        <v>380</v>
+      </c>
+      <c r="G57" t="s">
+        <v>381</v>
+      </c>
+      <c r="H57" t="s">
+        <v>382</v>
+      </c>
+      <c r="I57">
+        <v>650</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>239571</v>
+      </c>
+      <c r="B58" t="s">
+        <v>383</v>
+      </c>
+      <c r="C58" t="s">
+        <v>384</v>
+      </c>
+      <c r="D58" t="s">
+        <v>385</v>
+      </c>
+      <c r="E58" t="s">
+        <v>386</v>
+      </c>
+      <c r="F58" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" t="s">
+        <v>388</v>
+      </c>
+      <c r="H58" t="s">
+        <v>389</v>
+      </c>
+      <c r="I58">
+        <v>750</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>39448</v>
+      </c>
+      <c r="B59" t="s">
+        <v>390</v>
+      </c>
+      <c r="C59" t="s">
+        <v>391</v>
+      </c>
+      <c r="D59" t="s">
+        <v>392</v>
+      </c>
+      <c r="E59" t="s">
+        <v>393</v>
+      </c>
+      <c r="F59" t="s">
+        <v>394</v>
+      </c>
+      <c r="G59" t="s">
+        <v>395</v>
+      </c>
+      <c r="H59" t="s">
+        <v>396</v>
+      </c>
+      <c r="I59">
+        <v>710</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7012</v>
+      </c>
+      <c r="B60" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" t="s">
+        <v>398</v>
+      </c>
+      <c r="D60" t="s">
+        <v>399</v>
+      </c>
+      <c r="E60" t="s">
+        <v>400</v>
+      </c>
+      <c r="F60" t="s">
+        <v>401</v>
+      </c>
+      <c r="G60" t="s">
+        <v>402</v>
+      </c>
+      <c r="H60" t="s">
+        <v>403</v>
+      </c>
+      <c r="I60">
+        <v>670</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4688</v>
+      </c>
+      <c r="B61" t="s">
+        <v>404</v>
+      </c>
+      <c r="C61" t="s">
+        <v>405</v>
+      </c>
+      <c r="D61" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" t="s">
+        <v>408</v>
+      </c>
+      <c r="G61" t="s">
+        <v>409</v>
+      </c>
+      <c r="H61" t="s">
+        <v>410</v>
+      </c>
+      <c r="I61">
+        <v>714</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1390610</v>
+      </c>
+      <c r="B62" t="s">
+        <v>411</v>
+      </c>
+      <c r="C62" t="s">
+        <v>412</v>
+      </c>
+      <c r="E62" t="s">
+        <v>413</v>
+      </c>
+      <c r="F62" t="s">
+        <v>414</v>
+      </c>
+      <c r="G62" t="s">
+        <v>415</v>
+      </c>
+      <c r="H62" t="s">
+        <v>416</v>
+      </c>
+      <c r="I62">
+        <v>720</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>968732</v>
+      </c>
+      <c r="B63" t="s">
+        <v>417</v>
+      </c>
+      <c r="C63" t="s">
+        <v>418</v>
+      </c>
+      <c r="D63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E63" t="s">
+        <v>420</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" t="s">
+        <v>422</v>
+      </c>
+      <c r="H63" t="s">
+        <v>423</v>
+      </c>
+      <c r="I63">
+        <v>810</v>
+      </c>
+      <c r="J63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>335462</v>
+      </c>
+      <c r="B64" t="s">
+        <v>424</v>
+      </c>
+      <c r="C64" t="s">
+        <v>425</v>
+      </c>
+      <c r="D64" t="s">
+        <v>426</v>
+      </c>
+      <c r="E64" t="s">
+        <v>427</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" t="s">
+        <v>429</v>
+      </c>
+      <c r="H64" t="s">
+        <v>430</v>
+      </c>
+      <c r="I64">
+        <v>620</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>431</v>
+      </c>
+      <c r="C65" t="s">
+        <v>432</v>
+      </c>
+      <c r="D65" t="s">
+        <v>433</v>
+      </c>
+      <c r="E65" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" t="s">
+        <v>436</v>
+      </c>
+      <c r="H65" t="s">
+        <v>437</v>
+      </c>
+      <c r="I65">
+        <v>578.5</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1586</v>
+      </c>
+      <c r="B66" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" t="s">
+        <v>439</v>
+      </c>
+      <c r="D66" t="s">
+        <v>440</v>
+      </c>
+      <c r="E66" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" t="s">
+        <v>443</v>
+      </c>
+      <c r="H66" t="s">
+        <v>444</v>
+      </c>
+      <c r="I66">
+        <v>656.4</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1146577</v>
+      </c>
+      <c r="B67" t="s">
+        <v>445</v>
+      </c>
+      <c r="C67" t="s">
+        <v>446</v>
+      </c>
+      <c r="D67" t="s">
+        <v>447</v>
+      </c>
+      <c r="E67" t="s">
+        <v>448</v>
+      </c>
+      <c r="F67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67" t="s">
+        <v>450</v>
+      </c>
+      <c r="H67" t="s">
+        <v>451</v>
+      </c>
+      <c r="I67">
+        <v>581.1</v>
+      </c>
+      <c r="J67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>347200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>452</v>
+      </c>
+      <c r="C68" t="s">
+        <v>453</v>
+      </c>
+      <c r="D68" t="s">
+        <v>454</v>
+      </c>
+      <c r="E68" t="s">
+        <v>455</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>457</v>
+      </c>
+      <c r="H68" t="s">
+        <v>458</v>
+      </c>
+      <c r="I68">
+        <v>630</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>230222</v>
+      </c>
+      <c r="B69" t="s">
+        <v>459</v>
+      </c>
+      <c r="C69" t="s">
+        <v>460</v>
+      </c>
+      <c r="D69" t="s">
+        <v>461</v>
+      </c>
+      <c r="E69" t="s">
+        <v>462</v>
+      </c>
+      <c r="F69" t="s">
+        <v>463</v>
+      </c>
+      <c r="G69" t="s">
+        <v>464</v>
+      </c>
+      <c r="H69" t="s">
+        <v>465</v>
+      </c>
+      <c r="I69">
+        <v>570</v>
+      </c>
+      <c r="J69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>11336</v>
+      </c>
+      <c r="B70" t="s">
+        <v>466</v>
+      </c>
+      <c r="C70" t="s">
+        <v>467</v>
+      </c>
+      <c r="D70" t="s">
+        <v>468</v>
+      </c>
+      <c r="E70" t="s">
+        <v>469</v>
+      </c>
+      <c r="F70" t="s">
+        <v>470</v>
+      </c>
+      <c r="G70" t="s">
+        <v>471</v>
+      </c>
+      <c r="H70" t="s">
+        <v>472</v>
+      </c>
+      <c r="I70">
+        <v>700</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>13127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>473</v>
+      </c>
+      <c r="C71" t="s">
+        <v>474</v>
+      </c>
+      <c r="D71" t="s">
+        <v>475</v>
+      </c>
+      <c r="E71" t="s">
+        <v>476</v>
+      </c>
+      <c r="F71" t="s">
+        <v>477</v>
+      </c>
+      <c r="G71" t="s">
+        <v>478</v>
+      </c>
+      <c r="H71" t="s">
+        <v>479</v>
+      </c>
+      <c r="I71">
+        <v>694.2</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>294562</v>
+      </c>
+      <c r="B72" t="s">
+        <v>480</v>
+      </c>
+      <c r="C72" t="s">
+        <v>481</v>
+      </c>
+      <c r="D72" t="s">
+        <v>482</v>
+      </c>
+      <c r="E72" t="s">
+        <v>483</v>
+      </c>
+      <c r="F72" t="s">
+        <v>484</v>
+      </c>
+      <c r="G72" t="s">
+        <v>485</v>
+      </c>
+      <c r="H72" t="s">
+        <v>486</v>
+      </c>
+      <c r="I72">
+        <v>491.2</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>695</v>
+      </c>
+      <c r="B73" t="s">
+        <v>487</v>
+      </c>
+      <c r="C73" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" t="s">
+        <v>489</v>
+      </c>
+      <c r="E73" t="s">
+        <v>490</v>
+      </c>
+      <c r="F73" t="s">
+        <v>491</v>
+      </c>
+      <c r="G73" t="s">
+        <v>492</v>
+      </c>
+      <c r="H73" t="s">
+        <v>493</v>
+      </c>
+      <c r="I73">
+        <v>721.8</v>
+      </c>
+      <c r="J73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>476</v>
+      </c>
+      <c r="B74" t="s">
+        <v>494</v>
+      </c>
+      <c r="C74" t="s">
+        <v>495</v>
+      </c>
+      <c r="D74" t="s">
+        <v>496</v>
+      </c>
+      <c r="E74" t="s">
+        <v>497</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74" t="s">
+        <v>499</v>
+      </c>
+      <c r="H74" t="s">
+        <v>500</v>
+      </c>
+      <c r="I74">
+        <v>712</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1291594</v>
+      </c>
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+      <c r="C75" t="s">
+        <v>502</v>
+      </c>
+      <c r="D75" t="s">
+        <v>503</v>
+      </c>
+      <c r="E75" t="s">
+        <v>504</v>
+      </c>
+      <c r="F75" t="s">
+        <v>505</v>
+      </c>
+      <c r="G75" t="s">
+        <v>506</v>
+      </c>
+      <c r="H75" t="s">
+        <v>507</v>
+      </c>
+      <c r="I75">
+        <v>561.4</v>
+      </c>
+      <c r="J75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>536869</v>
+      </c>
+      <c r="B76" t="s">
+        <v>508</v>
+      </c>
+      <c r="C76" t="s">
+        <v>509</v>
+      </c>
+      <c r="D76" t="s">
+        <v>510</v>
+      </c>
+      <c r="E76" t="s">
+        <v>511</v>
+      </c>
+      <c r="F76" t="s">
+        <v>512</v>
+      </c>
+      <c r="G76" t="s">
+        <v>513</v>
+      </c>
+      <c r="H76" t="s">
+        <v>514</v>
+      </c>
+      <c r="I76">
+        <v>404.6</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>42070</v>
+      </c>
+      <c r="B77" t="s">
+        <v>515</v>
+      </c>
+      <c r="C77" t="s">
+        <v>516</v>
+      </c>
+      <c r="D77" t="s">
+        <v>517</v>
+      </c>
+      <c r="E77" t="s">
+        <v>518</v>
+      </c>
+      <c r="F77" t="s">
+        <v>519</v>
+      </c>
+      <c r="G77" t="s">
+        <v>520</v>
+      </c>
+      <c r="H77" t="s">
+        <v>521</v>
+      </c>
+      <c r="I77">
+        <v>579.5</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1074034</v>
+      </c>
+      <c r="B78" t="s">
+        <v>522</v>
+      </c>
+      <c r="C78" t="s">
+        <v>523</v>
+      </c>
+      <c r="D78" t="s">
+        <v>524</v>
+      </c>
+      <c r="E78" t="s">
+        <v>525</v>
+      </c>
+      <c r="F78" t="s">
+        <v>526</v>
+      </c>
+      <c r="G78" t="s">
+        <v>527</v>
+      </c>
+      <c r="H78" t="s">
+        <v>528</v>
+      </c>
+      <c r="I78">
+        <v>642.29999999999995</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1000492</v>
+      </c>
+      <c r="B79" t="s">
+        <v>529</v>
+      </c>
+      <c r="C79" t="s">
+        <v>530</v>
+      </c>
+      <c r="D79" t="s">
+        <v>531</v>
+      </c>
+      <c r="E79" t="s">
+        <v>532</v>
+      </c>
+      <c r="F79" t="s">
+        <v>533</v>
+      </c>
+      <c r="G79" t="s">
+        <v>534</v>
+      </c>
+      <c r="H79" t="s">
+        <v>535</v>
+      </c>
+      <c r="I79">
+        <v>799.6</v>
+      </c>
+      <c r="J79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C80" t="s">
+        <v>537</v>
+      </c>
+      <c r="D80" t="s">
+        <v>538</v>
+      </c>
+      <c r="E80" t="s">
+        <v>539</v>
+      </c>
+      <c r="F80" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80" t="s">
+        <v>541</v>
+      </c>
+      <c r="H80" t="s">
+        <v>542</v>
+      </c>
+      <c r="I80">
+        <v>646.20000000000005</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>32740</v>
+      </c>
+      <c r="B81" t="s">
+        <v>543</v>
+      </c>
+      <c r="C81" t="s">
+        <v>544</v>
+      </c>
+      <c r="D81" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" t="s">
+        <v>546</v>
+      </c>
+      <c r="F81" t="s">
+        <v>547</v>
+      </c>
+      <c r="G81" t="s">
+        <v>548</v>
+      </c>
+      <c r="H81" t="s">
+        <v>549</v>
+      </c>
+      <c r="I81">
+        <v>630.29999999999995</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>30974</v>
+      </c>
+      <c r="B82" t="s">
+        <v>550</v>
+      </c>
+      <c r="C82" t="s">
+        <v>551</v>
+      </c>
+      <c r="D82" t="s">
+        <v>552</v>
+      </c>
+      <c r="E82" t="s">
+        <v>553</v>
+      </c>
+      <c r="F82" t="s">
+        <v>554</v>
+      </c>
+      <c r="G82" t="s">
+        <v>555</v>
+      </c>
+      <c r="H82" t="s">
+        <v>556</v>
+      </c>
+      <c r="I82">
+        <v>607.70000000000005</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>32387</v>
+      </c>
+      <c r="B83" t="s">
+        <v>557</v>
+      </c>
+      <c r="C83" t="s">
+        <v>558</v>
+      </c>
+      <c r="D83" t="s">
+        <v>559</v>
+      </c>
+      <c r="E83" t="s">
+        <v>560</v>
+      </c>
+      <c r="F83" t="s">
+        <v>561</v>
+      </c>
+      <c r="G83" t="s">
+        <v>562</v>
+      </c>
+      <c r="H83" t="s">
+        <v>563</v>
+      </c>
+      <c r="I83">
+        <v>530</v>
+      </c>
+      <c r="J83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>20481</v>
+      </c>
+      <c r="B84" t="s">
+        <v>564</v>
+      </c>
+      <c r="C84" t="s">
+        <v>565</v>
+      </c>
+      <c r="D84" t="s">
+        <v>566</v>
+      </c>
+      <c r="E84" t="s">
+        <v>567</v>
+      </c>
+      <c r="F84" t="s">
+        <v>568</v>
+      </c>
+      <c r="G84" t="s">
+        <v>569</v>
+      </c>
+      <c r="H84" t="s">
+        <v>570</v>
+      </c>
+      <c r="I84">
+        <v>640</v>
+      </c>
+      <c r="J84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>22590</v>
+      </c>
+      <c r="B85" t="s">
+        <v>571</v>
+      </c>
+      <c r="C85" t="s">
+        <v>572</v>
+      </c>
+      <c r="D85" t="s">
+        <v>573</v>
+      </c>
+      <c r="E85" t="s">
+        <v>574</v>
+      </c>
+      <c r="F85" t="s">
+        <v>575</v>
+      </c>
+      <c r="G85" t="s">
+        <v>576</v>
+      </c>
+      <c r="H85" t="s">
+        <v>577</v>
+      </c>
+      <c r="I85">
+        <v>530</v>
+      </c>
+      <c r="J85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>12630</v>
+      </c>
+      <c r="B86" t="s">
+        <v>578</v>
+      </c>
+      <c r="C86" t="s">
+        <v>579</v>
+      </c>
+      <c r="D86" t="s">
+        <v>580</v>
+      </c>
+      <c r="E86" t="s">
+        <v>581</v>
+      </c>
+      <c r="F86" t="s">
+        <v>582</v>
+      </c>
+      <c r="G86" t="s">
+        <v>583</v>
+      </c>
+      <c r="H86" t="s">
+        <v>584</v>
+      </c>
+      <c r="I86">
+        <v>563.20000000000005</v>
+      </c>
+      <c r="J86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7913</v>
+      </c>
+      <c r="B87" t="s">
+        <v>585</v>
+      </c>
+      <c r="C87" t="s">
+        <v>586</v>
+      </c>
+      <c r="D87" t="s">
+        <v>587</v>
+      </c>
+      <c r="E87" t="s">
+        <v>588</v>
+      </c>
+      <c r="F87" t="s">
+        <v>589</v>
+      </c>
+      <c r="G87" t="s">
+        <v>590</v>
+      </c>
+      <c r="H87" t="s">
+        <v>591</v>
+      </c>
+      <c r="I87">
+        <v>708.4</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>23155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>592</v>
+      </c>
+      <c r="C88" t="s">
+        <v>593</v>
+      </c>
+      <c r="D88" t="s">
+        <v>594</v>
+      </c>
+      <c r="E88" t="s">
+        <v>595</v>
+      </c>
+      <c r="F88" t="s">
+        <v>596</v>
+      </c>
+      <c r="G88" t="s">
+        <v>597</v>
+      </c>
+      <c r="H88" t="s">
+        <v>598</v>
+      </c>
+      <c r="I88">
+        <v>770</v>
+      </c>
+      <c r="J88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>12703</v>
+      </c>
+      <c r="B89" t="s">
+        <v>599</v>
+      </c>
+      <c r="C89" t="s">
+        <v>600</v>
+      </c>
+      <c r="D89" t="s">
+        <v>600</v>
+      </c>
+      <c r="E89" t="s">
+        <v>601</v>
+      </c>
+      <c r="F89" t="s">
+        <v>602</v>
+      </c>
+      <c r="G89" t="s">
+        <v>603</v>
+      </c>
+      <c r="H89" t="s">
+        <v>604</v>
+      </c>
+      <c r="I89">
+        <v>537.70000000000005</v>
+      </c>
+      <c r="J89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>413518</v>
+      </c>
+      <c r="B90" t="s">
+        <v>605</v>
+      </c>
+      <c r="C90" t="s">
+        <v>606</v>
+      </c>
+      <c r="D90" t="s">
+        <v>607</v>
+      </c>
+      <c r="E90" t="s">
+        <v>608</v>
+      </c>
+      <c r="F90" t="s">
+        <v>609</v>
+      </c>
+      <c r="G90" t="s">
+        <v>610</v>
+      </c>
+      <c r="H90" t="s">
+        <v>611</v>
+      </c>
+      <c r="I90">
+        <v>660</v>
+      </c>
+      <c r="J90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>347126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>612</v>
+      </c>
+      <c r="C91" t="s">
+        <v>613</v>
+      </c>
+      <c r="D91" t="s">
+        <v>614</v>
+      </c>
+      <c r="E91" t="s">
+        <v>615</v>
+      </c>
+      <c r="F91" t="s">
+        <v>616</v>
+      </c>
+      <c r="G91" t="s">
+        <v>617</v>
+      </c>
+      <c r="H91" t="s">
+        <v>618</v>
+      </c>
+      <c r="I91">
+        <v>612.70000000000005</v>
+      </c>
+      <c r="J91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>203</v>
+      </c>
+      <c r="B92" t="s">
+        <v>619</v>
+      </c>
+      <c r="C92" t="s">
+        <v>620</v>
+      </c>
+      <c r="D92" t="s">
+        <v>621</v>
+      </c>
+      <c r="E92" t="s">
+        <v>622</v>
+      </c>
+      <c r="F92" t="s">
+        <v>623</v>
+      </c>
+      <c r="G92" t="s">
+        <v>624</v>
+      </c>
+      <c r="H92" t="s">
+        <v>625</v>
+      </c>
+      <c r="I92">
+        <v>710</v>
+      </c>
+      <c r="J92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>47634</v>
+      </c>
+      <c r="B93" t="s">
+        <v>626</v>
+      </c>
+      <c r="C93" t="s">
+        <v>627</v>
+      </c>
+      <c r="D93" t="s">
+        <v>628</v>
+      </c>
+      <c r="E93" t="s">
+        <v>629</v>
+      </c>
+      <c r="F93" t="s">
+        <v>630</v>
+      </c>
+      <c r="G93" t="s">
+        <v>631</v>
+      </c>
+      <c r="H93" t="s">
+        <v>632</v>
+      </c>
+      <c r="I93">
+        <v>678</v>
+      </c>
+      <c r="J93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>437033</v>
+      </c>
+      <c r="B94" t="s">
+        <v>633</v>
+      </c>
+      <c r="C94" t="s">
+        <v>634</v>
+      </c>
+      <c r="D94" t="s">
+        <v>635</v>
+      </c>
+      <c r="E94" t="s">
+        <v>636</v>
+      </c>
+      <c r="F94" t="s">
+        <v>637</v>
+      </c>
+      <c r="G94" t="s">
+        <v>638</v>
+      </c>
+      <c r="H94" t="s">
+        <v>639</v>
+      </c>
+      <c r="I94">
+        <v>710</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>9070</v>
+      </c>
+      <c r="B95" t="s">
+        <v>640</v>
+      </c>
+      <c r="C95" t="s">
+        <v>641</v>
+      </c>
+      <c r="D95" t="s">
+        <v>642</v>
+      </c>
+      <c r="E95" t="s">
+        <v>643</v>
+      </c>
+      <c r="F95" t="s">
+        <v>644</v>
+      </c>
+      <c r="G95" t="s">
+        <v>645</v>
+      </c>
+      <c r="H95" t="s">
+        <v>646</v>
+      </c>
+      <c r="I95">
+        <v>583.4</v>
+      </c>
+      <c r="J95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1276210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>647</v>
+      </c>
+      <c r="C96" t="s">
+        <v>648</v>
+      </c>
+      <c r="D96" t="s">
+        <v>649</v>
+      </c>
+      <c r="E96" t="s">
+        <v>650</v>
+      </c>
+      <c r="F96" t="s">
+        <v>651</v>
+      </c>
+      <c r="G96" t="s">
+        <v>652</v>
+      </c>
+      <c r="H96" t="s">
+        <v>653</v>
+      </c>
+      <c r="I96">
+        <v>541.29999999999995</v>
+      </c>
+      <c r="J96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>454458</v>
+      </c>
+      <c r="B97" t="s">
+        <v>654</v>
+      </c>
+      <c r="C97" t="s">
+        <v>655</v>
+      </c>
+      <c r="D97" t="s">
+        <v>656</v>
+      </c>
+      <c r="E97" t="s">
+        <v>657</v>
+      </c>
+      <c r="F97" t="s">
+        <v>658</v>
+      </c>
+      <c r="G97" t="s">
+        <v>659</v>
+      </c>
+      <c r="H97" t="s">
+        <v>660</v>
+      </c>
+      <c r="I97">
+        <v>660</v>
+      </c>
+      <c r="J97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>403</v>
+      </c>
+      <c r="B98" t="s">
+        <v>661</v>
+      </c>
+      <c r="C98" t="s">
+        <v>662</v>
+      </c>
+      <c r="D98" t="s">
+        <v>663</v>
+      </c>
+      <c r="E98" t="s">
+        <v>664</v>
+      </c>
+      <c r="F98" t="s">
+        <v>665</v>
+      </c>
+      <c r="G98" t="s">
+        <v>666</v>
+      </c>
+      <c r="H98" t="s">
+        <v>667</v>
+      </c>
+      <c r="I98">
+        <v>723.1</v>
+      </c>
+      <c r="J98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>444090</v>
+      </c>
+      <c r="B99" t="s">
+        <v>668</v>
+      </c>
+      <c r="C99" t="s">
+        <v>669</v>
+      </c>
+      <c r="D99" t="s">
+        <v>670</v>
+      </c>
+      <c r="E99" t="s">
+        <v>671</v>
+      </c>
+      <c r="F99" t="s">
+        <v>672</v>
+      </c>
+      <c r="G99" t="s">
+        <v>673</v>
+      </c>
+      <c r="H99" t="s">
+        <v>674</v>
+      </c>
+      <c r="I99">
+        <v>677.2</v>
+      </c>
+      <c r="J99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>23488</v>
+      </c>
+      <c r="B100" t="s">
+        <v>675</v>
+      </c>
+      <c r="C100" t="s">
+        <v>676</v>
+      </c>
+      <c r="D100" t="s">
+        <v>677</v>
+      </c>
+      <c r="E100" t="s">
+        <v>678</v>
+      </c>
+      <c r="F100" t="s">
+        <v>679</v>
+      </c>
+      <c r="G100" t="s">
+        <v>680</v>
+      </c>
+      <c r="H100" t="s">
+        <v>681</v>
+      </c>
+      <c r="I100">
+        <v>605.1</v>
+      </c>
+      <c r="J100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>9043</v>
+      </c>
+      <c r="B101" t="s">
+        <v>682</v>
+      </c>
+      <c r="C101" t="s">
+        <v>683</v>
+      </c>
+      <c r="D101" t="s">
+        <v>683</v>
+      </c>
+      <c r="E101" t="s">
+        <v>684</v>
+      </c>
+      <c r="F101" t="s">
+        <v>685</v>
+      </c>
+      <c r="G101" t="s">
+        <v>686</v>
+      </c>
+      <c r="H101" t="s">
+        <v>687</v>
+      </c>
+      <c r="I101">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="J101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>30973</v>
+      </c>
+      <c r="B102" t="s">
+        <v>688</v>
+      </c>
+      <c r="C102" t="s">
+        <v>689</v>
+      </c>
+      <c r="D102" t="s">
+        <v>690</v>
+      </c>
+      <c r="E102" t="s">
+        <v>691</v>
+      </c>
+      <c r="F102" t="s">
+        <v>692</v>
+      </c>
+      <c r="G102" t="s">
+        <v>693</v>
+      </c>
+      <c r="H102" t="s">
+        <v>694</v>
+      </c>
+      <c r="I102">
+        <v>750.4</v>
+      </c>
+      <c r="J102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>614</v>
+      </c>
+      <c r="B103" t="s">
+        <v>695</v>
+      </c>
+      <c r="C103" t="s">
+        <v>696</v>
+      </c>
+      <c r="D103" t="s">
+        <v>696</v>
+      </c>
+      <c r="E103" t="s">
+        <v>697</v>
+      </c>
+      <c r="F103" t="s">
+        <v>698</v>
+      </c>
+      <c r="G103" t="s">
+        <v>699</v>
+      </c>
+      <c r="H103" t="s">
+        <v>700</v>
+      </c>
+      <c r="I103">
+        <v>810.8</v>
+      </c>
+      <c r="J103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>21519</v>
+      </c>
+      <c r="B104" t="s">
+        <v>701</v>
+      </c>
+      <c r="C104" t="s">
+        <v>702</v>
+      </c>
+      <c r="D104" t="s">
+        <v>703</v>
+      </c>
+      <c r="E104" t="s">
+        <v>704</v>
+      </c>
+      <c r="F104" t="s">
+        <v>705</v>
+      </c>
+      <c r="G104" t="s">
+        <v>706</v>
+      </c>
+      <c r="H104" t="s">
+        <v>707</v>
+      </c>
+      <c r="I104">
+        <v>720</v>
+      </c>
+      <c r="J104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>10891</v>
+      </c>
+      <c r="B105" t="s">
+        <v>708</v>
+      </c>
+      <c r="C105" t="s">
+        <v>709</v>
+      </c>
+      <c r="D105" t="s">
+        <v>710</v>
+      </c>
+      <c r="E105" t="s">
+        <v>711</v>
+      </c>
+      <c r="F105" t="s">
+        <v>712</v>
+      </c>
+      <c r="G105" t="s">
+        <v>713</v>
+      </c>
+      <c r="H105" t="s">
+        <v>714</v>
+      </c>
+      <c r="I105">
+        <v>570</v>
+      </c>
+      <c r="J105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>269494</v>
+      </c>
+      <c r="B106" t="s">
+        <v>715</v>
+      </c>
+      <c r="C106" t="s">
+        <v>716</v>
+      </c>
+      <c r="D106" t="s">
+        <v>717</v>
+      </c>
+      <c r="E106" t="s">
+        <v>718</v>
+      </c>
+      <c r="F106" t="s">
+        <v>719</v>
+      </c>
+      <c r="G106" t="s">
+        <v>720</v>
+      </c>
+      <c r="H106" t="s">
+        <v>721</v>
+      </c>
+      <c r="I106">
+        <v>710</v>
+      </c>
+      <c r="J106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>339988</v>
+      </c>
+      <c r="B107" t="s">
+        <v>722</v>
+      </c>
+      <c r="C107" t="s">
+        <v>723</v>
+      </c>
+      <c r="D107" t="s">
+        <v>724</v>
+      </c>
+      <c r="E107" t="s">
+        <v>725</v>
+      </c>
+      <c r="F107" t="s">
+        <v>726</v>
+      </c>
+      <c r="G107" t="s">
+        <v>727</v>
+      </c>
+      <c r="H107" t="s">
+        <v>728</v>
+      </c>
+      <c r="I107">
+        <v>551.70000000000005</v>
+      </c>
+      <c r="J107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>15854</v>
+      </c>
+      <c r="B108" t="s">
+        <v>729</v>
+      </c>
+      <c r="C108" t="s">
+        <v>730</v>
+      </c>
+      <c r="D108" t="s">
+        <v>731</v>
+      </c>
+      <c r="E108" t="s">
+        <v>732</v>
+      </c>
+      <c r="F108" t="s">
+        <v>733</v>
+      </c>
+      <c r="G108" t="s">
+        <v>734</v>
+      </c>
+      <c r="H108" t="s">
+        <v>735</v>
+      </c>
+      <c r="I108">
+        <v>670</v>
+      </c>
+      <c r="J108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>309425</v>
+      </c>
+      <c r="B109" t="s">
+        <v>736</v>
+      </c>
+      <c r="C109" t="s">
+        <v>737</v>
+      </c>
+      <c r="D109" t="s">
+        <v>614</v>
+      </c>
+      <c r="E109" t="s">
+        <v>738</v>
+      </c>
+      <c r="F109" t="s">
+        <v>739</v>
+      </c>
+      <c r="G109" t="s">
+        <v>740</v>
+      </c>
+      <c r="H109" t="s">
+        <v>741</v>
+      </c>
+      <c r="I109">
+        <v>647.4</v>
+      </c>
+      <c r="J109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>333352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>742</v>
+      </c>
+      <c r="C110" t="s">
+        <v>743</v>
+      </c>
+      <c r="D110" t="s">
+        <v>744</v>
+      </c>
+      <c r="E110" t="s">
+        <v>745</v>
+      </c>
+      <c r="F110" t="s">
+        <v>746</v>
+      </c>
+      <c r="G110" t="s">
+        <v>747</v>
+      </c>
+      <c r="H110" t="s">
+        <v>748</v>
+      </c>
+      <c r="I110">
+        <v>700.9</v>
+      </c>
+      <c r="J110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>9991</v>
+      </c>
+      <c r="B111" t="s">
+        <v>749</v>
+      </c>
+      <c r="C111" t="s">
+        <v>750</v>
+      </c>
+      <c r="D111" t="s">
+        <v>751</v>
+      </c>
+      <c r="E111" t="s">
+        <v>752</v>
+      </c>
+      <c r="F111" t="s">
+        <v>753</v>
+      </c>
+      <c r="G111" t="s">
+        <v>754</v>
+      </c>
+      <c r="H111" t="s">
+        <v>755</v>
+      </c>
+      <c r="I111">
+        <v>622.5</v>
+      </c>
+      <c r="J111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>453133</v>
+      </c>
+      <c r="B112" t="s">
+        <v>756</v>
+      </c>
+      <c r="C112" t="s">
+        <v>757</v>
+      </c>
+      <c r="D112" t="s">
+        <v>757</v>
+      </c>
+      <c r="E112" t="s">
+        <v>758</v>
+      </c>
+      <c r="F112" t="s">
+        <v>759</v>
+      </c>
+      <c r="G112" t="s">
+        <v>760</v>
+      </c>
+      <c r="H112" t="s">
+        <v>761</v>
+      </c>
+      <c r="I112">
+        <v>475</v>
+      </c>
+      <c r="J112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>328425</v>
+      </c>
+      <c r="B113" t="s">
+        <v>762</v>
+      </c>
+      <c r="C113" t="s">
+        <v>763</v>
+      </c>
+      <c r="D113" t="s">
+        <v>763</v>
+      </c>
+      <c r="E113" t="s">
+        <v>764</v>
+      </c>
+      <c r="F113" t="s">
+        <v>765</v>
+      </c>
+      <c r="G113" t="s">
+        <v>766</v>
+      </c>
+      <c r="H113" t="s">
+        <v>767</v>
+      </c>
+      <c r="I113">
+        <v>669.1</v>
+      </c>
+      <c r="J113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>768</v>
+      </c>
+      <c r="C114" t="s">
+        <v>769</v>
+      </c>
+      <c r="D114" t="s">
+        <v>769</v>
+      </c>
+      <c r="E114" t="s">
+        <v>770</v>
+      </c>
+      <c r="F114" t="s">
+        <v>771</v>
+      </c>
+      <c r="G114" t="s">
+        <v>772</v>
+      </c>
+      <c r="H114" t="s">
+        <v>773</v>
+      </c>
+      <c r="I114">
+        <v>764.4</v>
+      </c>
+      <c r="J114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1030076</v>
+      </c>
+      <c r="B115" t="s">
+        <v>774</v>
+      </c>
+      <c r="C115" t="s">
+        <v>775</v>
+      </c>
+      <c r="D115" t="s">
+        <v>776</v>
+      </c>
+      <c r="E115" t="s">
+        <v>777</v>
+      </c>
+      <c r="F115" t="s">
+        <v>778</v>
+      </c>
+      <c r="G115" t="s">
+        <v>779</v>
+      </c>
+      <c r="H115" t="s">
+        <v>780</v>
+      </c>
+      <c r="I115">
+        <v>692.1</v>
+      </c>
+      <c r="J115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>965094</v>
+      </c>
+      <c r="B116" t="s">
+        <v>781</v>
+      </c>
+      <c r="C116" t="s">
+        <v>782</v>
+      </c>
+      <c r="D116" t="s">
+        <v>783</v>
+      </c>
+      <c r="E116" t="s">
+        <v>784</v>
+      </c>
+      <c r="F116" t="s">
+        <v>785</v>
+      </c>
+      <c r="G116" t="s">
+        <v>786</v>
+      </c>
+      <c r="H116" t="s">
+        <v>787</v>
+      </c>
+      <c r="I116">
+        <v>767.7</v>
+      </c>
+      <c r="J116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>338065</v>
+      </c>
+      <c r="B117" t="s">
+        <v>788</v>
+      </c>
+      <c r="C117" t="s">
+        <v>789</v>
+      </c>
+      <c r="D117" t="s">
+        <v>790</v>
+      </c>
+      <c r="E117" t="s">
+        <v>791</v>
+      </c>
+      <c r="F117" t="s">
+        <v>792</v>
+      </c>
+      <c r="G117" t="s">
+        <v>793</v>
+      </c>
+      <c r="H117" t="s">
+        <v>794</v>
+      </c>
+      <c r="I117">
+        <v>680</v>
+      </c>
+      <c r="J117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>661289</v>
+      </c>
+      <c r="B118" t="s">
+        <v>795</v>
+      </c>
+      <c r="C118" t="s">
+        <v>796</v>
+      </c>
+      <c r="E118" t="s">
+        <v>797</v>
+      </c>
+      <c r="F118" t="s">
+        <v>798</v>
+      </c>
+      <c r="G118" t="s">
+        <v>799</v>
+      </c>
+      <c r="H118" t="s">
+        <v>800</v>
+      </c>
+      <c r="I118">
+        <v>710</v>
+      </c>
+      <c r="J118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>50837</v>
+      </c>
+      <c r="B119" t="s">
+        <v>801</v>
+      </c>
+      <c r="C119" t="s">
+        <v>802</v>
+      </c>
+      <c r="D119" t="s">
+        <v>802</v>
+      </c>
+      <c r="E119" t="s">
+        <v>803</v>
+      </c>
+      <c r="F119" t="s">
+        <v>804</v>
+      </c>
+      <c r="G119" t="s">
+        <v>805</v>
+      </c>
+      <c r="H119" t="s">
+        <v>806</v>
+      </c>
+      <c r="I119">
+        <v>660.5</v>
+      </c>
+      <c r="J119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>132344</v>
+      </c>
+      <c r="B120" t="s">
+        <v>807</v>
+      </c>
+      <c r="C120" t="s">
+        <v>808</v>
+      </c>
+      <c r="D120" t="s">
+        <v>809</v>
+      </c>
+      <c r="E120" t="s">
+        <v>810</v>
+      </c>
+      <c r="F120" t="s">
+        <v>811</v>
+      </c>
+      <c r="G120" t="s">
+        <v>812</v>
+      </c>
+      <c r="H120" t="s">
+        <v>813</v>
+      </c>
+      <c r="I120">
+        <v>750</v>
+      </c>
+      <c r="J120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>729097</v>
+      </c>
+      <c r="B121" t="s">
+        <v>814</v>
+      </c>
+      <c r="C121" t="s">
+        <v>815</v>
+      </c>
+      <c r="E121" t="s">
+        <v>816</v>
+      </c>
+      <c r="F121" t="s">
+        <v>817</v>
+      </c>
+      <c r="G121" t="s">
+        <v>818</v>
+      </c>
+      <c r="H121" t="s">
+        <v>819</v>
+      </c>
+      <c r="I121">
+        <v>576.9</v>
+      </c>
+      <c r="J121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>20943</v>
+      </c>
+      <c r="B122" t="s">
+        <v>820</v>
+      </c>
+      <c r="C122" t="s">
+        <v>821</v>
+      </c>
+      <c r="D122" t="s">
+        <v>822</v>
+      </c>
+      <c r="E122" t="s">
+        <v>823</v>
+      </c>
+      <c r="F122" t="s">
+        <v>824</v>
+      </c>
+      <c r="G122" t="s">
+        <v>825</v>
+      </c>
+      <c r="H122" t="s">
+        <v>826</v>
+      </c>
+      <c r="I122">
+        <v>650.29999999999995</v>
+      </c>
+      <c r="J122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>120475</v>
+      </c>
+      <c r="B123" t="s">
+        <v>827</v>
+      </c>
+      <c r="C123" t="s">
+        <v>828</v>
+      </c>
+      <c r="D123" t="s">
+        <v>829</v>
+      </c>
+      <c r="E123" t="s">
+        <v>830</v>
+      </c>
+      <c r="F123" t="s">
+        <v>831</v>
+      </c>
+      <c r="G123" t="s">
+        <v>832</v>
+      </c>
+      <c r="H123" t="s">
+        <v>833</v>
+      </c>
+      <c r="I123">
+        <v>690</v>
+      </c>
+      <c r="J123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1149167</v>
+      </c>
+      <c r="B124" t="s">
+        <v>834</v>
+      </c>
+      <c r="C124" t="s">
+        <v>835</v>
+      </c>
+      <c r="D124" t="s">
+        <v>836</v>
+      </c>
+      <c r="E124" t="s">
+        <v>837</v>
+      </c>
+      <c r="F124" t="s">
+        <v>838</v>
+      </c>
+      <c r="G124" t="s">
+        <v>839</v>
+      </c>
+      <c r="H124" t="s">
+        <v>840</v>
+      </c>
+      <c r="I124">
+        <v>660</v>
+      </c>
+      <c r="J124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>6068</v>
+      </c>
+      <c r="B125" t="s">
+        <v>841</v>
+      </c>
+      <c r="C125" t="s">
+        <v>842</v>
+      </c>
+      <c r="D125" t="s">
+        <v>843</v>
+      </c>
+      <c r="E125" t="s">
+        <v>844</v>
+      </c>
+      <c r="F125" t="s">
+        <v>845</v>
+      </c>
+      <c r="G125" t="s">
+        <v>846</v>
+      </c>
+      <c r="H125" t="s">
+        <v>847</v>
+      </c>
+      <c r="I125">
+        <v>608.4</v>
+      </c>
+      <c r="J125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>433502</v>
+      </c>
+      <c r="B126" t="s">
+        <v>848</v>
+      </c>
+      <c r="C126" t="s">
+        <v>849</v>
+      </c>
+      <c r="D126" t="s">
+        <v>850</v>
+      </c>
+      <c r="E126" t="s">
+        <v>851</v>
+      </c>
+      <c r="F126" t="s">
+        <v>852</v>
+      </c>
+      <c r="G126" t="s">
+        <v>853</v>
+      </c>
+      <c r="H126" t="s">
+        <v>854</v>
+      </c>
+      <c r="I126">
+        <v>644.29999999999995</v>
+      </c>
+      <c r="J126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>8051</v>
+      </c>
+      <c r="B127" t="s">
+        <v>855</v>
+      </c>
+      <c r="C127" t="s">
+        <v>856</v>
+      </c>
+      <c r="D127" t="s">
+        <v>856</v>
+      </c>
+      <c r="E127" t="s">
+        <v>857</v>
+      </c>
+      <c r="F127" t="s">
+        <v>858</v>
+      </c>
+      <c r="G127" t="s">
+        <v>859</v>
+      </c>
+      <c r="H127" t="s">
+        <v>860</v>
+      </c>
+      <c r="I127">
+        <v>711.7</v>
+      </c>
+      <c r="J127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>119892</v>
+      </c>
+      <c r="B128" t="s">
+        <v>861</v>
+      </c>
+      <c r="C128" t="s">
+        <v>862</v>
+      </c>
+      <c r="D128" t="s">
+        <v>863</v>
+      </c>
+      <c r="E128" t="s">
+        <v>864</v>
+      </c>
+      <c r="F128" t="s">
+        <v>865</v>
+      </c>
+      <c r="G128" t="s">
+        <v>866</v>
+      </c>
+      <c r="H128" t="s">
+        <v>867</v>
+      </c>
+      <c r="I128">
+        <v>550</v>
+      </c>
+      <c r="J128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1084244</v>
+      </c>
+      <c r="B129" t="s">
+        <v>868</v>
+      </c>
+      <c r="C129" t="s">
+        <v>869</v>
+      </c>
+      <c r="D129" t="s">
+        <v>869</v>
+      </c>
+      <c r="E129" t="s">
+        <v>870</v>
+      </c>
+      <c r="F129" t="s">
+        <v>871</v>
+      </c>
+      <c r="G129" t="s">
+        <v>872</v>
+      </c>
+      <c r="H129" t="s">
+        <v>873</v>
+      </c>
+      <c r="I129">
+        <v>800</v>
+      </c>
+      <c r="J129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>346646</v>
+      </c>
+      <c r="B130" t="s">
+        <v>874</v>
+      </c>
+      <c r="C130" t="s">
+        <v>875</v>
+      </c>
+      <c r="D130" t="s">
+        <v>875</v>
+      </c>
+      <c r="E130" t="s">
+        <v>876</v>
+      </c>
+      <c r="F130" t="s">
+        <v>877</v>
+      </c>
+      <c r="G130" t="s">
+        <v>878</v>
+      </c>
+      <c r="H130" t="s">
+        <v>879</v>
+      </c>
+      <c r="I130">
+        <v>690</v>
+      </c>
+      <c r="J130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1397314</v>
+      </c>
+      <c r="B131" t="s">
+        <v>880</v>
+      </c>
+      <c r="C131" t="s">
+        <v>881</v>
+      </c>
+      <c r="E131" t="s">
+        <v>882</v>
+      </c>
+      <c r="F131" t="s">
+        <v>883</v>
+      </c>
+      <c r="G131" t="s">
+        <v>884</v>
+      </c>
+      <c r="H131" t="s">
+        <v>885</v>
+      </c>
+      <c r="I131">
+        <v>748.4</v>
+      </c>
+      <c r="J131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1316673</v>
+      </c>
+      <c r="B132" t="s">
+        <v>886</v>
+      </c>
+      <c r="C132" t="s">
+        <v>887</v>
+      </c>
+      <c r="D132" t="s">
+        <v>888</v>
+      </c>
+      <c r="E132" t="s">
+        <v>889</v>
+      </c>
+      <c r="F132" t="s">
+        <v>890</v>
+      </c>
+      <c r="G132" t="s">
+        <v>891</v>
+      </c>
+      <c r="H132" t="s">
+        <v>507</v>
+      </c>
+      <c r="I132">
+        <v>260</v>
+      </c>
+      <c r="J132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>67605</v>
+      </c>
+      <c r="B133" t="s">
+        <v>892</v>
+      </c>
+      <c r="C133" t="s">
+        <v>893</v>
+      </c>
+      <c r="D133" t="s">
+        <v>894</v>
+      </c>
+      <c r="E133" t="s">
+        <v>895</v>
+      </c>
+      <c r="F133" t="s">
+        <v>896</v>
+      </c>
+      <c r="G133" t="s">
+        <v>897</v>
+      </c>
+      <c r="H133" t="s">
+        <v>898</v>
+      </c>
+      <c r="I133">
+        <v>710</v>
+      </c>
+      <c r="J133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3536</v>
+      </c>
+      <c r="B134" t="s">
+        <v>899</v>
+      </c>
+      <c r="C134" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" t="s">
+        <v>900</v>
+      </c>
+      <c r="E134" t="s">
+        <v>901</v>
+      </c>
+      <c r="F134" t="s">
+        <v>902</v>
+      </c>
+      <c r="G134" t="s">
+        <v>903</v>
+      </c>
+      <c r="H134" t="s">
+        <v>904</v>
+      </c>
+      <c r="I134">
+        <v>650</v>
+      </c>
+      <c r="J134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>13161</v>
+      </c>
+      <c r="B135" t="s">
+        <v>905</v>
+      </c>
+      <c r="C135" t="s">
+        <v>906</v>
+      </c>
+      <c r="D135" t="s">
+        <v>907</v>
+      </c>
+      <c r="E135" t="s">
+        <v>908</v>
+      </c>
+      <c r="F135" t="s">
+        <v>909</v>
+      </c>
+      <c r="G135" t="s">
+        <v>910</v>
+      </c>
+      <c r="H135" t="s">
+        <v>911</v>
+      </c>
+      <c r="I135">
+        <v>659</v>
+      </c>
+      <c r="J135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2112</v>
+      </c>
+      <c r="B136" t="s">
+        <v>912</v>
+      </c>
+      <c r="C136" t="s">
+        <v>913</v>
+      </c>
+      <c r="D136" t="s">
+        <v>914</v>
+      </c>
+      <c r="E136" t="s">
+        <v>915</v>
+      </c>
+      <c r="F136" t="s">
+        <v>916</v>
+      </c>
+      <c r="G136" t="s">
+        <v>917</v>
+      </c>
+      <c r="H136" t="s">
+        <v>918</v>
+      </c>
+      <c r="I136">
+        <v>683.5</v>
+      </c>
+      <c r="J136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>869626</v>
+      </c>
+      <c r="B137" t="s">
+        <v>919</v>
+      </c>
+      <c r="C137" t="s">
+        <v>920</v>
+      </c>
+      <c r="D137" t="s">
+        <v>921</v>
+      </c>
+      <c r="E137" t="s">
+        <v>922</v>
+      </c>
+      <c r="F137" t="s">
+        <v>923</v>
+      </c>
+      <c r="G137" t="s">
+        <v>924</v>
+      </c>
+      <c r="H137" t="s">
+        <v>925</v>
+      </c>
+      <c r="I137">
+        <v>768.1</v>
+      </c>
+      <c r="J137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>889675</v>
+      </c>
+      <c r="B138" t="s">
+        <v>926</v>
+      </c>
+      <c r="C138" t="s">
+        <v>927</v>
+      </c>
+      <c r="D138" t="s">
+        <v>927</v>
+      </c>
+      <c r="E138" t="s">
+        <v>928</v>
+      </c>
+      <c r="F138" t="s">
+        <v>929</v>
+      </c>
+      <c r="G138" t="s">
+        <v>930</v>
+      </c>
+      <c r="H138" t="s">
+        <v>931</v>
+      </c>
+      <c r="I138">
+        <v>589.9</v>
+      </c>
+      <c r="J138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>37100</v>
+      </c>
+      <c r="B139" t="s">
+        <v>932</v>
+      </c>
+      <c r="C139" t="s">
+        <v>933</v>
+      </c>
+      <c r="D139" t="s">
+        <v>934</v>
+      </c>
+      <c r="E139" t="s">
+        <v>935</v>
+      </c>
+      <c r="F139" t="s">
+        <v>936</v>
+      </c>
+      <c r="G139" t="s">
+        <v>937</v>
+      </c>
+      <c r="H139" t="s">
+        <v>938</v>
+      </c>
+      <c r="I139">
+        <v>786.3</v>
+      </c>
+      <c r="J139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>14181</v>
+      </c>
+      <c r="B140" t="s">
+        <v>939</v>
+      </c>
+      <c r="C140" t="s">
+        <v>940</v>
+      </c>
+      <c r="D140" t="s">
+        <v>940</v>
+      </c>
+      <c r="E140" t="s">
+        <v>941</v>
+      </c>
+      <c r="F140" t="s">
+        <v>942</v>
+      </c>
+      <c r="G140" t="s">
+        <v>943</v>
+      </c>
+      <c r="H140" t="s">
+        <v>944</v>
+      </c>
+      <c r="I140">
+        <v>670</v>
+      </c>
+      <c r="J140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>10911</v>
+      </c>
+      <c r="B141" t="s">
+        <v>945</v>
+      </c>
+      <c r="C141" t="s">
+        <v>946</v>
+      </c>
+      <c r="D141" t="s">
+        <v>947</v>
+      </c>
+      <c r="E141" t="s">
+        <v>948</v>
+      </c>
+      <c r="F141" t="s">
+        <v>949</v>
+      </c>
+      <c r="G141" t="s">
+        <v>950</v>
+      </c>
+      <c r="H141" t="s">
+        <v>951</v>
+      </c>
+      <c r="I141">
+        <v>730</v>
+      </c>
+      <c r="J141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>537190</v>
+      </c>
+      <c r="B142" t="s">
+        <v>952</v>
+      </c>
+      <c r="C142" t="s">
+        <v>953</v>
+      </c>
+      <c r="D142" t="s">
+        <v>954</v>
+      </c>
+      <c r="E142" t="s">
+        <v>955</v>
+      </c>
+      <c r="F142" t="s">
+        <v>956</v>
+      </c>
+      <c r="G142" t="s">
+        <v>957</v>
+      </c>
+      <c r="H142" t="s">
+        <v>958</v>
+      </c>
+      <c r="I142">
+        <v>690</v>
+      </c>
+      <c r="J142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>206324</v>
+      </c>
+      <c r="B143" t="s">
+        <v>959</v>
+      </c>
+      <c r="C143" t="s">
+        <v>586</v>
+      </c>
+      <c r="D143" t="s">
+        <v>960</v>
+      </c>
+      <c r="E143" t="s">
+        <v>961</v>
+      </c>
+      <c r="F143" t="s">
+        <v>962</v>
+      </c>
+      <c r="G143" t="s">
+        <v>963</v>
+      </c>
+      <c r="H143" t="s">
+        <v>964</v>
+      </c>
+      <c r="I143">
+        <v>742.1</v>
+      </c>
+      <c r="J143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1078374</v>
+      </c>
+      <c r="B144" t="s">
+        <v>965</v>
+      </c>
+      <c r="C144" t="s">
+        <v>966</v>
+      </c>
+      <c r="D144" t="s">
+        <v>966</v>
+      </c>
+      <c r="E144" t="s">
+        <v>967</v>
+      </c>
+      <c r="F144" t="s">
+        <v>968</v>
+      </c>
+      <c r="G144" t="s">
+        <v>969</v>
+      </c>
+      <c r="H144" t="s">
+        <v>970</v>
+      </c>
+      <c r="I144">
+        <v>580</v>
+      </c>
+      <c r="J144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>209899</v>
+      </c>
+      <c r="B145" t="s">
+        <v>971</v>
+      </c>
+      <c r="C145" t="s">
+        <v>972</v>
+      </c>
+      <c r="D145" t="s">
+        <v>973</v>
+      </c>
+      <c r="E145" t="s">
+        <v>974</v>
+      </c>
+      <c r="F145" t="s">
+        <v>975</v>
+      </c>
+      <c r="G145" t="s">
+        <v>976</v>
+      </c>
+      <c r="H145" t="s">
+        <v>977</v>
+      </c>
+      <c r="I145">
+        <v>490</v>
+      </c>
+      <c r="J145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>14177</v>
+      </c>
+      <c r="B146" t="s">
+        <v>978</v>
+      </c>
+      <c r="C146" t="s">
+        <v>979</v>
+      </c>
+      <c r="D146" t="s">
+        <v>980</v>
+      </c>
+      <c r="E146" t="s">
+        <v>981</v>
+      </c>
+      <c r="F146" t="s">
+        <v>982</v>
+      </c>
+      <c r="G146" t="s">
+        <v>983</v>
+      </c>
+      <c r="H146" t="s">
+        <v>984</v>
+      </c>
+      <c r="I146">
+        <v>630.20000000000005</v>
+      </c>
+      <c r="J146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>682532</v>
+      </c>
+      <c r="B147" t="s">
+        <v>985</v>
+      </c>
+      <c r="C147" t="s">
+        <v>986</v>
+      </c>
+      <c r="D147" t="s">
+        <v>987</v>
+      </c>
+      <c r="E147" t="s">
+        <v>988</v>
+      </c>
+      <c r="F147" t="s">
+        <v>989</v>
+      </c>
+      <c r="G147" t="s">
+        <v>990</v>
+      </c>
+      <c r="H147" t="s">
+        <v>991</v>
+      </c>
+      <c r="I147">
+        <v>530</v>
+      </c>
+      <c r="J147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1085046</v>
+      </c>
+      <c r="B148" t="s">
+        <v>992</v>
+      </c>
+      <c r="C148" t="s">
+        <v>993</v>
+      </c>
+      <c r="D148" t="s">
+        <v>994</v>
+      </c>
+      <c r="E148" t="s">
+        <v>995</v>
+      </c>
+      <c r="F148" t="s">
+        <v>996</v>
+      </c>
+      <c r="G148" t="s">
+        <v>997</v>
+      </c>
+      <c r="H148" t="s">
+        <v>998</v>
+      </c>
+      <c r="I148">
+        <v>580</v>
+      </c>
+      <c r="J148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>11837</v>
+      </c>
+      <c r="B149" t="s">
+        <v>999</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I149">
+        <v>720</v>
+      </c>
+      <c r="J149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>42968</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I150">
+        <v>563.4</v>
+      </c>
+      <c r="J150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>976584</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I151">
+        <v>590</v>
+      </c>
+      <c r="J151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>976720</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I152">
+        <v>635.20000000000005</v>
+      </c>
+      <c r="J152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>144616</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I153">
+        <v>737.1</v>
+      </c>
+      <c r="J153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1399790</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I154">
+        <v>450</v>
+      </c>
+      <c r="J154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>18329</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I155">
+        <v>756</v>
+      </c>
+      <c r="J155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>243</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I156">
+        <v>711.3</v>
+      </c>
+      <c r="J156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>467</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I157">
+        <v>620.5</v>
+      </c>
+      <c r="J157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>134411</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I158">
+        <v>610</v>
+      </c>
+      <c r="J158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1421461</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I159">
+        <v>790</v>
+      </c>
+      <c r="J159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>16690</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I160">
+        <v>650</v>
+      </c>
+      <c r="J160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>326423</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I161">
+        <v>630</v>
+      </c>
+      <c r="J161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>716309</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I162">
+        <v>480</v>
+      </c>
+      <c r="J162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1183905</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I163">
+        <v>606</v>
+      </c>
+      <c r="J163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>420622</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I164">
+        <v>720</v>
+      </c>
+      <c r="J164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1393614</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I165">
+        <v>420</v>
+      </c>
+      <c r="J165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>583406</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I166">
+        <v>731.8</v>
+      </c>
+      <c r="J166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>103731</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I167">
+        <v>705.8</v>
+      </c>
+      <c r="J167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>10618</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I168">
+        <v>714.6</v>
+      </c>
+      <c r="J168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>332411</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I169">
+        <v>565.6</v>
+      </c>
+      <c r="J169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>965143</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I170">
+        <v>720.7</v>
+      </c>
+      <c r="J170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1038263</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I171">
+        <v>646.9</v>
+      </c>
+      <c r="J171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>533444</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I172">
+        <v>738.9</v>
+      </c>
+      <c r="J172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>287947</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I173">
+        <v>699.3</v>
+      </c>
+      <c r="J173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>784651</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I174">
+        <v>610</v>
+      </c>
+      <c r="J174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1102493</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I175">
+        <v>672.7</v>
+      </c>
+      <c r="J175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1458319</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I176">
+        <v>800</v>
+      </c>
+      <c r="J176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>526896</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I177">
+        <v>596</v>
+      </c>
+      <c r="J177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1288070</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I178">
+        <v>670</v>
+      </c>
+      <c r="J178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1417313</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I179">
+        <v>100</v>
+      </c>
+      <c r="J179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>8292</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I180">
+        <v>680.4</v>
+      </c>
+      <c r="J180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>274854</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I181">
+        <v>599.1</v>
+      </c>
+      <c r="J181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>158015</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I182">
+        <v>625.29999999999995</v>
+      </c>
+      <c r="J182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>23827</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I183">
+        <v>602</v>
+      </c>
+      <c r="J183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>290250</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I184">
+        <v>712.2</v>
+      </c>
+      <c r="J184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>645757</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I185">
+        <v>717.3</v>
+      </c>
+      <c r="J185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>484641</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I186">
+        <v>670.4</v>
+      </c>
+      <c r="J186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>192558</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I187">
+        <v>680</v>
+      </c>
+      <c r="J187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>501929</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I188">
+        <v>788.5</v>
+      </c>
+      <c r="J188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>11351</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I189">
+        <v>610</v>
+      </c>
+      <c r="J189">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
